--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garestrepo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Downloads\PDG 231001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8666C265-4E08-4047-AB02-1A8E9881AEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7B4DA4-4335-4FDF-9A68-C00DF2E5F4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Detalle!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$B$200</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="139">
   <si>
     <t>COD_LLAVE_ADJ</t>
   </si>
@@ -463,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,8 +472,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,17 +513,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -820,21 +847,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:B128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +872,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -850,15 +880,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -866,7 +896,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -874,7 +904,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -882,7 +912,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -890,15 +920,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -906,7 +936,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -914,7 +944,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -922,7 +952,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -930,31 +960,31 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -962,7 +992,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -970,7 +1000,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -978,7 +1008,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -986,7 +1016,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -994,7 +1024,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1002,7 +1032,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1010,7 +1040,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1018,7 +1048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1026,7 +1056,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1034,7 +1064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1042,7 +1072,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1050,7 +1080,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1058,7 +1088,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1066,7 +1096,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1074,15 +1104,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1090,7 +1120,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1098,7 +1128,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1106,7 +1136,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1114,7 +1144,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1122,7 +1152,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1130,7 +1160,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1138,7 +1168,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1146,7 +1176,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1154,7 +1184,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1162,7 +1192,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1170,15 +1200,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1186,7 +1216,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1194,15 +1224,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1240,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1218,7 +1248,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1226,15 +1256,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1242,7 +1272,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1250,7 +1280,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1258,7 +1288,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1266,7 +1296,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -1274,7 +1304,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -1282,7 +1312,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -1290,7 +1320,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -1298,7 +1328,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -1306,7 +1336,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -1314,7 +1344,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -1322,7 +1352,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1330,15 +1360,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1346,15 +1376,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1362,7 +1392,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1370,15 +1400,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -1386,7 +1416,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1394,7 +1424,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -1402,15 +1432,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1418,15 +1448,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1434,7 +1464,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1442,7 +1472,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1450,7 +1480,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1458,87 +1488,87 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -1546,7 +1576,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -1554,7 +1584,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -1562,7 +1592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -1570,7 +1600,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -1578,39 +1608,39 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -1618,7 +1648,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -1626,7 +1656,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -1634,7 +1664,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -1642,7 +1672,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -1650,7 +1680,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -1658,7 +1688,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -1666,7 +1696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -1674,7 +1704,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -1682,7 +1712,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -1690,7 +1720,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -1698,7 +1728,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -1706,7 +1736,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -1714,7 +1744,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -1722,7 +1752,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -1730,7 +1760,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -1738,7 +1768,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -1746,7 +1776,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -1754,7 +1784,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -1762,7 +1792,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -1770,7 +1800,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -1778,7 +1808,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -1786,7 +1816,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -1794,7 +1824,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -1802,7 +1832,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -1810,7 +1840,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -1818,7 +1848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -1826,7 +1856,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -1834,7 +1864,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -1842,7 +1872,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -1850,7 +1880,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -1858,7 +1888,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -1866,7 +1896,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -1874,7 +1904,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -1882,7 +1912,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -1890,7 +1920,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -1898,7 +1928,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -1906,7 +1936,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>201801</v>
       </c>
@@ -1914,7 +1944,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>201802</v>
       </c>
@@ -1922,7 +1952,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>201803</v>
       </c>
@@ -1930,7 +1960,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>201804</v>
       </c>
@@ -1938,7 +1968,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>201805</v>
       </c>
@@ -1946,7 +1976,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>201806</v>
       </c>
@@ -1954,7 +1984,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>201807</v>
       </c>
@@ -1962,7 +1992,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>201808</v>
       </c>
@@ -1970,7 +2000,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>201809</v>
       </c>
@@ -1978,7 +2008,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>201810</v>
       </c>
@@ -1986,7 +2016,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>201811</v>
       </c>
@@ -1994,7 +2024,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>201812</v>
       </c>
@@ -2002,7 +2032,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>201901</v>
       </c>
@@ -2010,7 +2040,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>201902</v>
       </c>
@@ -2018,7 +2048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>201903</v>
       </c>
@@ -2026,7 +2056,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>201904</v>
       </c>
@@ -2034,7 +2064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>201905</v>
       </c>
@@ -2042,7 +2072,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>201906</v>
       </c>
@@ -2050,7 +2080,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>201907</v>
       </c>
@@ -2058,7 +2088,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>201908</v>
       </c>
@@ -2066,7 +2096,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>201909</v>
       </c>
@@ -2074,7 +2104,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>201910</v>
       </c>
@@ -2082,7 +2112,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>201911</v>
       </c>
@@ -2090,7 +2120,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>201912</v>
       </c>
@@ -2098,7 +2128,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>202001</v>
       </c>
@@ -2106,7 +2136,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>202002</v>
       </c>
@@ -2114,7 +2144,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>202003</v>
       </c>
@@ -2122,7 +2152,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>202004</v>
       </c>
@@ -2130,7 +2160,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>202005</v>
       </c>
@@ -2138,7 +2168,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>202006</v>
       </c>
@@ -2146,7 +2176,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>202007</v>
       </c>
@@ -2154,7 +2184,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>202008</v>
       </c>
@@ -2162,7 +2192,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>202009</v>
       </c>
@@ -2170,7 +2200,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>202010</v>
       </c>
@@ -2178,7 +2208,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>202011</v>
       </c>
@@ -2186,7 +2216,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>202012</v>
       </c>
@@ -2194,7 +2224,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>202101</v>
       </c>
@@ -2202,7 +2232,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>202102</v>
       </c>
@@ -2210,7 +2240,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>202103</v>
       </c>
@@ -2218,7 +2248,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>202104</v>
       </c>
@@ -2226,7 +2256,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>202105</v>
       </c>
@@ -2234,7 +2264,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>202106</v>
       </c>
@@ -2242,7 +2272,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>202107</v>
       </c>
@@ -2250,7 +2280,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>202108</v>
       </c>
@@ -2258,7 +2288,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>202109</v>
       </c>
@@ -2266,7 +2296,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>202110</v>
       </c>
@@ -2274,7 +2304,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>202111</v>
       </c>
@@ -2282,7 +2312,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>202112</v>
       </c>
@@ -2290,7 +2320,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>202201</v>
       </c>
@@ -2298,7 +2328,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>202202</v>
       </c>
@@ -2306,7 +2336,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>202203</v>
       </c>
@@ -2314,7 +2344,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>202204</v>
       </c>
@@ -2322,7 +2352,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>202205</v>
       </c>
@@ -2330,7 +2360,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>202206</v>
       </c>
@@ -2338,7 +2368,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>202207</v>
       </c>
@@ -2346,7 +2376,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>202208</v>
       </c>
@@ -2354,7 +2384,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>202209</v>
       </c>
@@ -2362,7 +2392,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>202210</v>
       </c>
@@ -2370,7 +2400,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>202211</v>
       </c>
@@ -2378,7 +2408,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>202212</v>
       </c>
@@ -2386,7 +2416,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>202301</v>
       </c>
@@ -2394,7 +2424,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>202302</v>
       </c>
@@ -2402,7 +2432,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>202303</v>
       </c>
@@ -2410,7 +2440,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>202304</v>
       </c>
@@ -2418,7 +2448,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>202305</v>
       </c>
@@ -2427,30 +2457,35 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B200" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B129" sqref="B123:C129"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>20230901</v>
       </c>
       <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="2">
+        <v>20231001</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -2460,8 +2495,14 @@
       <c r="C2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2471,8 +2512,14 @@
       <c r="C3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2482,8 +2529,14 @@
       <c r="C4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2493,8 +2546,14 @@
       <c r="C5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2504,8 +2563,14 @@
       <c r="C6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2515,8 +2580,14 @@
       <c r="C7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2526,8 +2597,14 @@
       <c r="C8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2537,8 +2614,14 @@
       <c r="C9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2548,8 +2631,14 @@
       <c r="C10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2559,8 +2648,14 @@
       <c r="C11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2570,8 +2665,14 @@
       <c r="C12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2581,8 +2682,14 @@
       <c r="C13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2592,8 +2699,14 @@
       <c r="C14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2603,8 +2716,14 @@
       <c r="C15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2614,8 +2733,14 @@
       <c r="C16" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2625,8 +2750,14 @@
       <c r="C17" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2636,8 +2767,14 @@
       <c r="C18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2647,8 +2784,14 @@
       <c r="C19" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2658,8 +2801,14 @@
       <c r="C20" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2669,8 +2818,14 @@
       <c r="C21" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2680,8 +2835,14 @@
       <c r="C22" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2691,8 +2852,14 @@
       <c r="C23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2702,8 +2869,14 @@
       <c r="C24" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2713,8 +2886,14 @@
       <c r="C25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2724,8 +2903,14 @@
       <c r="C26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2735,8 +2920,14 @@
       <c r="C27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2746,8 +2937,14 @@
       <c r="C28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2757,8 +2954,14 @@
       <c r="C29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2768,8 +2971,14 @@
       <c r="C30" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2779,8 +2988,14 @@
       <c r="C31" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2790,8 +3005,14 @@
       <c r="C32" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2801,8 +3022,14 @@
       <c r="C33" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2812,8 +3039,14 @@
       <c r="C34" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2823,8 +3056,14 @@
       <c r="C35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2834,8 +3073,14 @@
       <c r="C36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2845,8 +3090,14 @@
       <c r="C37" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2856,8 +3107,14 @@
       <c r="C38" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2867,8 +3124,14 @@
       <c r="C39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2878,8 +3141,14 @@
       <c r="C40" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2889,8 +3158,14 @@
       <c r="C41" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2900,8 +3175,14 @@
       <c r="C42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2911,8 +3192,14 @@
       <c r="C43" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2922,8 +3209,14 @@
       <c r="C44" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2933,8 +3226,14 @@
       <c r="C45" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2944,8 +3243,14 @@
       <c r="C46" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2955,8 +3260,14 @@
       <c r="C47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2966,8 +3277,14 @@
       <c r="C48" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2977,8 +3294,14 @@
       <c r="C49" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2988,8 +3311,14 @@
       <c r="C50" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2999,8 +3328,14 @@
       <c r="C51" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3010,8 +3345,14 @@
       <c r="C52" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3021,8 +3362,14 @@
       <c r="C53" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3032,8 +3379,14 @@
       <c r="C54" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3043,8 +3396,14 @@
       <c r="C55" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3054,8 +3413,14 @@
       <c r="C56" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3065,8 +3430,14 @@
       <c r="C57" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3076,8 +3447,14 @@
       <c r="C58" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3087,8 +3464,14 @@
       <c r="C59" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3098,8 +3481,14 @@
       <c r="C60" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3109,8 +3498,14 @@
       <c r="C61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3120,8 +3515,14 @@
       <c r="C62" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3131,8 +3532,14 @@
       <c r="C63" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3142,8 +3549,14 @@
       <c r="C64" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3153,8 +3566,14 @@
       <c r="C65" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3164,8 +3583,14 @@
       <c r="C66" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3175,8 +3600,14 @@
       <c r="C67" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3186,8 +3617,14 @@
       <c r="C68" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3197,8 +3634,14 @@
       <c r="C69" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3208,8 +3651,14 @@
       <c r="C70" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3219,8 +3668,14 @@
       <c r="C71" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3230,8 +3685,14 @@
       <c r="C72" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3241,8 +3702,14 @@
       <c r="C73" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3252,8 +3719,14 @@
       <c r="C74" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3263,8 +3736,14 @@
       <c r="C75" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3274,8 +3753,14 @@
       <c r="C76" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3285,8 +3770,14 @@
       <c r="C77" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3296,8 +3787,14 @@
       <c r="C78" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>75</v>
+      </c>
+      <c r="F78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3307,8 +3804,14 @@
       <c r="C79" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3318,8 +3821,14 @@
       <c r="C80" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3329,8 +3838,14 @@
       <c r="C81" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3340,8 +3855,14 @@
       <c r="C82" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3351,8 +3872,14 @@
       <c r="C83" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>80</v>
+      </c>
+      <c r="F83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3362,8 +3889,14 @@
       <c r="C84" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3373,8 +3906,14 @@
       <c r="C85" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>82</v>
+      </c>
+      <c r="F85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3384,8 +3923,14 @@
       <c r="C86" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3395,8 +3940,14 @@
       <c r="C87" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3406,8 +3957,14 @@
       <c r="C88" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>85</v>
+      </c>
+      <c r="F88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3417,8 +3974,14 @@
       <c r="C89" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>86</v>
+      </c>
+      <c r="F89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3428,8 +3991,14 @@
       <c r="C90" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>87</v>
+      </c>
+      <c r="F90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3439,8 +4008,14 @@
       <c r="C91" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3450,8 +4025,14 @@
       <c r="C92" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>89</v>
+      </c>
+      <c r="F92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3461,8 +4042,14 @@
       <c r="C93" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3472,8 +4059,14 @@
       <c r="C94" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>91</v>
+      </c>
+      <c r="F94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3483,8 +4076,14 @@
       <c r="C95" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3494,8 +4093,14 @@
       <c r="C96" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3505,8 +4110,14 @@
       <c r="C97" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3516,8 +4127,14 @@
       <c r="C98" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>95</v>
+      </c>
+      <c r="F98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3527,8 +4144,14 @@
       <c r="C99" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>96</v>
+      </c>
+      <c r="F99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3538,8 +4161,14 @@
       <c r="C100" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3549,8 +4178,14 @@
       <c r="C101" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3560,8 +4195,14 @@
       <c r="C102" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3571,8 +4212,14 @@
       <c r="C103" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3582,8 +4229,14 @@
       <c r="C104" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3593,8 +4246,14 @@
       <c r="C105" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E105" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3604,8 +4263,14 @@
       <c r="C106" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3615,8 +4280,14 @@
       <c r="C107" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3626,8 +4297,14 @@
       <c r="C108" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3637,8 +4314,14 @@
       <c r="C109" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3648,8 +4331,14 @@
       <c r="C110" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E110" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3659,8 +4348,14 @@
       <c r="C111" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3670,8 +4365,14 @@
       <c r="C112" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3681,8 +4382,14 @@
       <c r="C113" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E113" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3692,8 +4399,14 @@
       <c r="C114" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3703,8 +4416,14 @@
       <c r="C115" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F115" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3714,8 +4433,14 @@
       <c r="C116" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3725,8 +4450,14 @@
       <c r="C117" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E117" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F117" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3736,8 +4467,14 @@
       <c r="C118" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3747,8 +4484,14 @@
       <c r="C119" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3758,8 +4501,14 @@
       <c r="C120" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3769,8 +4518,14 @@
       <c r="C121" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3780,8 +4535,14 @@
       <c r="C122" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F122" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3791,8 +4552,14 @@
       <c r="C123" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F123" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3802,8 +4569,14 @@
       <c r="C124" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E124" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F124" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3813,8 +4586,14 @@
       <c r="C125" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3824,8 +4603,14 @@
       <c r="C126" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3835,8 +4620,14 @@
       <c r="C127" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E127" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F127" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3846,8 +4637,14 @@
       <c r="C128" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F128" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3857,8 +4654,14 @@
       <c r="C129" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F129" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3868,8 +4671,14 @@
       <c r="C130" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3879,8 +4688,14 @@
       <c r="C131" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3890,8 +4705,14 @@
       <c r="C132" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E132" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F132" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3901,8 +4722,14 @@
       <c r="C133" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3912,8 +4739,14 @@
       <c r="C134" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -3923,8 +4756,14 @@
       <c r="C135" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E135" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -3934,8 +4773,14 @@
       <c r="C136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E136" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -3945,8 +4790,14 @@
       <c r="C137" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E137">
+        <v>201801</v>
+      </c>
+      <c r="F137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -3956,8 +4807,14 @@
       <c r="C138" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E138">
+        <v>201802</v>
+      </c>
+      <c r="F138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -3967,8 +4824,14 @@
       <c r="C139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E139">
+        <v>201803</v>
+      </c>
+      <c r="F139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -3978,8 +4841,14 @@
       <c r="C140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E140">
+        <v>201804</v>
+      </c>
+      <c r="F140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -3989,8 +4858,14 @@
       <c r="C141" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E141">
+        <v>201805</v>
+      </c>
+      <c r="F141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4000,8 +4875,14 @@
       <c r="C142" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E142">
+        <v>201806</v>
+      </c>
+      <c r="F142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4011,8 +4892,14 @@
       <c r="C143" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E143">
+        <v>201807</v>
+      </c>
+      <c r="F143" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4022,8 +4909,14 @@
       <c r="C144" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E144">
+        <v>201808</v>
+      </c>
+      <c r="F144" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4033,8 +4926,14 @@
       <c r="C145" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E145">
+        <v>201809</v>
+      </c>
+      <c r="F145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4044,8 +4943,14 @@
       <c r="C146" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E146">
+        <v>201810</v>
+      </c>
+      <c r="F146" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4055,8 +4960,14 @@
       <c r="C147" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E147">
+        <v>201811</v>
+      </c>
+      <c r="F147" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4066,8 +4977,14 @@
       <c r="C148" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E148">
+        <v>201812</v>
+      </c>
+      <c r="F148" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4077,8 +4994,14 @@
       <c r="C149" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E149">
+        <v>201901</v>
+      </c>
+      <c r="F149" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -4088,8 +5011,14 @@
       <c r="C150" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E150">
+        <v>201902</v>
+      </c>
+      <c r="F150" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -4099,8 +5028,14 @@
       <c r="C151" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E151">
+        <v>201903</v>
+      </c>
+      <c r="F151" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -4110,8 +5045,14 @@
       <c r="C152" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E152">
+        <v>201904</v>
+      </c>
+      <c r="F152" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -4121,8 +5062,14 @@
       <c r="C153" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E153">
+        <v>201905</v>
+      </c>
+      <c r="F153" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -4132,8 +5079,14 @@
       <c r="C154" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E154">
+        <v>201906</v>
+      </c>
+      <c r="F154" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -4143,8 +5096,14 @@
       <c r="C155" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E155">
+        <v>201907</v>
+      </c>
+      <c r="F155" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -4154,8 +5113,14 @@
       <c r="C156" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E156">
+        <v>201908</v>
+      </c>
+      <c r="F156" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -4165,8 +5130,14 @@
       <c r="C157" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E157">
+        <v>201909</v>
+      </c>
+      <c r="F157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -4176,8 +5147,14 @@
       <c r="C158" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E158">
+        <v>201910</v>
+      </c>
+      <c r="F158" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -4187,8 +5164,14 @@
       <c r="C159" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E159">
+        <v>201911</v>
+      </c>
+      <c r="F159" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -4198,8 +5181,14 @@
       <c r="C160" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E160">
+        <v>201912</v>
+      </c>
+      <c r="F160" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -4209,8 +5198,14 @@
       <c r="C161" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E161">
+        <v>202001</v>
+      </c>
+      <c r="F161" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -4220,8 +5215,14 @@
       <c r="C162" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E162">
+        <v>202002</v>
+      </c>
+      <c r="F162" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -4231,8 +5232,14 @@
       <c r="C163" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E163">
+        <v>202003</v>
+      </c>
+      <c r="F163" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -4242,8 +5249,14 @@
       <c r="C164" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E164">
+        <v>202004</v>
+      </c>
+      <c r="F164" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -4253,8 +5266,14 @@
       <c r="C165" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E165">
+        <v>202005</v>
+      </c>
+      <c r="F165" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -4264,8 +5283,14 @@
       <c r="C166" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E166">
+        <v>202006</v>
+      </c>
+      <c r="F166" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -4275,8 +5300,14 @@
       <c r="C167" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E167">
+        <v>202007</v>
+      </c>
+      <c r="F167" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -4286,8 +5317,14 @@
       <c r="C168" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E168">
+        <v>202008</v>
+      </c>
+      <c r="F168" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -4297,8 +5334,14 @@
       <c r="C169" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E169">
+        <v>202009</v>
+      </c>
+      <c r="F169" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -4308,8 +5351,14 @@
       <c r="C170" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E170">
+        <v>202010</v>
+      </c>
+      <c r="F170" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -4319,8 +5368,14 @@
       <c r="C171" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E171">
+        <v>202011</v>
+      </c>
+      <c r="F171" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -4330,8 +5385,14 @@
       <c r="C172" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E172">
+        <v>202012</v>
+      </c>
+      <c r="F172" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -4341,8 +5402,14 @@
       <c r="C173" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E173">
+        <v>202101</v>
+      </c>
+      <c r="F173" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -4352,8 +5419,14 @@
       <c r="C174" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E174">
+        <v>202102</v>
+      </c>
+      <c r="F174" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -4363,8 +5436,14 @@
       <c r="C175" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E175">
+        <v>202103</v>
+      </c>
+      <c r="F175" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -4374,8 +5453,14 @@
       <c r="C176" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E176">
+        <v>202104</v>
+      </c>
+      <c r="F176" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -4385,8 +5470,14 @@
       <c r="C177" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E177">
+        <v>202105</v>
+      </c>
+      <c r="F177" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -4396,8 +5487,14 @@
       <c r="C178" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E178">
+        <v>202106</v>
+      </c>
+      <c r="F178" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -4407,8 +5504,14 @@
       <c r="C179" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E179">
+        <v>202107</v>
+      </c>
+      <c r="F179" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -4418,8 +5521,14 @@
       <c r="C180" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E180">
+        <v>202108</v>
+      </c>
+      <c r="F180" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -4429,8 +5538,14 @@
       <c r="C181" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E181">
+        <v>202109</v>
+      </c>
+      <c r="F181" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -4440,8 +5555,14 @@
       <c r="C182" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E182">
+        <v>202110</v>
+      </c>
+      <c r="F182" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -4451,8 +5572,14 @@
       <c r="C183" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E183">
+        <v>202111</v>
+      </c>
+      <c r="F183" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -4462,8 +5589,14 @@
       <c r="C184" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E184">
+        <v>202112</v>
+      </c>
+      <c r="F184" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -4473,8 +5606,14 @@
       <c r="C185" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E185">
+        <v>202201</v>
+      </c>
+      <c r="F185" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -4484,8 +5623,14 @@
       <c r="C186" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E186">
+        <v>202202</v>
+      </c>
+      <c r="F186" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -4495,8 +5640,14 @@
       <c r="C187" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E187">
+        <v>202203</v>
+      </c>
+      <c r="F187" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -4506,8 +5657,14 @@
       <c r="C188" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E188">
+        <v>202204</v>
+      </c>
+      <c r="F188" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -4517,8 +5674,14 @@
       <c r="C189" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E189">
+        <v>202205</v>
+      </c>
+      <c r="F189" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -4528,8 +5691,14 @@
       <c r="C190" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E190">
+        <v>202206</v>
+      </c>
+      <c r="F190" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -4539,8 +5708,14 @@
       <c r="C191" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E191">
+        <v>202207</v>
+      </c>
+      <c r="F191" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -4550,8 +5725,14 @@
       <c r="C192" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E192">
+        <v>202208</v>
+      </c>
+      <c r="F192" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -4561,8 +5742,14 @@
       <c r="C193" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E193">
+        <v>202209</v>
+      </c>
+      <c r="F193" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -4572,8 +5759,14 @@
       <c r="C194" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E194">
+        <v>202210</v>
+      </c>
+      <c r="F194" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -4583,8 +5776,14 @@
       <c r="C195" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E195">
+        <v>202211</v>
+      </c>
+      <c r="F195" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -4594,8 +5793,14 @@
       <c r="C196" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E196">
+        <v>202212</v>
+      </c>
+      <c r="F196" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -4605,8 +5810,14 @@
       <c r="C197" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E197">
+        <v>202301</v>
+      </c>
+      <c r="F197" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -4616,8 +5827,14 @@
       <c r="C198" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E198">
+        <v>202302</v>
+      </c>
+      <c r="F198" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -4627,8 +5844,14 @@
       <c r="C199" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E199">
+        <v>202303</v>
+      </c>
+      <c r="F199" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -4638,8 +5861,14 @@
       <c r="C200" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E200">
+        <v>202304</v>
+      </c>
+      <c r="F200" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -4649,11 +5878,18 @@
       <c r="C201" t="s">
         <v>138</v>
       </c>
+      <c r="E201">
+        <v>202305</v>
+      </c>
+      <c r="F201" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:C2" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Downloads\PDG 231001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7B4DA4-4335-4FDF-9A68-C00DF2E5F4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC79F850-0503-4157-BA4C-3007964ED5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
@@ -516,26 +516,17 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -847,9 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -857,10 +846,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -981,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2467,7 +2456,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="E2" sqref="E2:F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2476,14 +2465,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2">
+      <c r="B1" s="3">
         <v>20230901</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2">
+      <c r="C1" s="3"/>
+      <c r="E1" s="3">
         <v>20231001</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2495,10 +2484,10 @@
       <c r="C2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2754,7 +2743,7 @@
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">

--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Downloads\PDG 231001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDGI 231111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC79F850-0503-4157-BA4C-3007964ED5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3F932F-EC29-4AA9-8B14-ED3B79284B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
     <sheet name="Detalle" sheetId="1" r:id="rId2"/>
+    <sheet name="Descripciones" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Descripciones!$A$1:$E$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Detalle!$A$2:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$B$200</definedName>
   </definedNames>
@@ -32,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="264">
   <si>
     <t>COD_LLAVE_ADJ</t>
   </si>
@@ -458,13 +458,388 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Identificador único ajustado para cada registro en la base de datos</t>
+  </si>
+  <si>
+    <t>Identificador único original para cada registro</t>
+  </si>
+  <si>
+    <t>País al que pertenecen los datos, en este caso, todos los registros son de Colombia</t>
+  </si>
+  <si>
+    <t>Canal de distribución de los productos, que en todos los registros es 'Pais'</t>
+  </si>
+  <si>
+    <t>Código numérico que representa la fuente ajustada de los datos</t>
+  </si>
+  <si>
+    <t>Descripción textual detallada del producto farmacéutico</t>
+  </si>
+  <si>
+    <t>Información sobre la marca y la concentración del medicamento</t>
+  </si>
+  <si>
+    <t>Nombre del laboratorio que produce el medicamento</t>
+  </si>
+  <si>
+    <t>Nombre de la marca del producto</t>
+  </si>
+  <si>
+    <t>Indica si la marca está homologada</t>
+  </si>
+  <si>
+    <t>Nombre de la molécula principal del producto</t>
+  </si>
+  <si>
+    <t>Identificador de la molécula homologada</t>
+  </si>
+  <si>
+    <t>Nombre de la molécula homologada</t>
+  </si>
+  <si>
+    <t>Fecha de lanzamiento del producto en el mercado</t>
+  </si>
+  <si>
+    <t>Fecha de lanzamiento de la marca en el mercado</t>
+  </si>
+  <si>
+    <t>Indica si el producto es un medicamento de marca o es genérico</t>
+  </si>
+  <si>
+    <t>COLUMNA</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>Dosis</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>SMLV</t>
+  </si>
+  <si>
+    <t>Cambio porcentual en el Índice de Precios al Consumidor (IPC) durante un período semestral</t>
+  </si>
+  <si>
+    <t>Nombre técnico o químico de la forma farmacéutica del producto</t>
+  </si>
+  <si>
+    <t>Cantidad del principio activo en el producto farmacéutico</t>
+  </si>
+  <si>
+    <t>Categoría de seguimiento farmacéutico, posiblemente para fines de gestión de ventas o regulación</t>
+  </si>
+  <si>
+    <t>Clasificación de productos que se consideran éticos o que requieren prescripción</t>
+  </si>
+  <si>
+    <t>Indica si el producto está clasificado para uso pediátrico</t>
+  </si>
+  <si>
+    <t>Agrupación de áreas terapéuticas para fines de análisis o gestión</t>
+  </si>
+  <si>
+    <t>Estrategias de marketing asociadas a planes específicos para el producto</t>
+  </si>
+  <si>
+    <t>Estrategias de marketing o clasificación específica de productos relacionados con COVID-19</t>
+  </si>
+  <si>
+    <t>Información detallada sobre la terapia o el tratamiento que implica el producto</t>
+  </si>
+  <si>
+    <t>Estrategias o actividades de marketing relacionadas con el mercado en general</t>
+  </si>
+  <si>
+    <t>Estrategias o actividades de marketing enfocadas en un subsegmento del mercado</t>
+  </si>
+  <si>
+    <t>Clasificación de la segmentación dentro de un plan de marketing o ventas</t>
+  </si>
+  <si>
+    <t>Indica si una molécula específica está involucrada en las estrategias de marketing</t>
+  </si>
+  <si>
+    <t>Indica si el producto contiene sustancias psicotrópicas o estupefacientes</t>
+  </si>
+  <si>
+    <t>Información sobre la regulación de precios aplicada al producto</t>
+  </si>
+  <si>
+    <t>Indica si el producto es una monosustancia o una combinación de varias</t>
+  </si>
+  <si>
+    <t>Estrategias de marketing basadas en la forma farmacéutica del producto</t>
+  </si>
+  <si>
+    <t>Clasificación del producto basada en si se utiliza para tratamientos crónicos o agudos</t>
+  </si>
+  <si>
+    <t>Indica si el producto se utiliza en psiquiatría infantil</t>
+  </si>
+  <si>
+    <t>Clasificación de productos basada en el diagnóstico para el cual están indicados</t>
+  </si>
+  <si>
+    <t>Base de datos o registro de lanzamientos de productos para fines de marketing</t>
+  </si>
+  <si>
+    <t>Marco de tiempo o fecha específica relacionada con los datos (usualmente año y mes)</t>
+  </si>
+  <si>
+    <t>Cantidad recomendada o prescrita del producto</t>
+  </si>
+  <si>
+    <t>Valor de ventas o precio del producto en términos monetarios</t>
+  </si>
+  <si>
+    <t>Precio unitario del producto</t>
+  </si>
+  <si>
+    <t>Salario Mínimo Legal Vigente Representa el salario mínimo establecido por el gobierno</t>
+  </si>
+  <si>
+    <t>Cambio porcentual en el Índice de Precios al Consumidor (IPC) durante un período mensual</t>
+  </si>
+  <si>
+    <t>Cambio porcentual en el Índice de Precios al Consumidor (IPC) durante un período de lo que va del año corrido</t>
+  </si>
+  <si>
+    <t>Cambio porcentual en el Índice de Precios al Consumidor (IPC) durante un período anual</t>
+  </si>
+  <si>
+    <t>Cambio porcentual en el Índice de Precios al Consumidor (IPC) durante un período trimestral</t>
+  </si>
+  <si>
+    <t>Nombre de la corporación que produce el medicamente</t>
+  </si>
+  <si>
+    <t>Nombre del laboratorio que produce el medicamento - segmentación TQ</t>
+  </si>
+  <si>
+    <t>Nombre de la corporación que produce el medicamente - segmentación TQ</t>
+  </si>
+  <si>
+    <t>Código de clase I del producto</t>
+  </si>
+  <si>
+    <t>Nombre de la clase I del producto</t>
+  </si>
+  <si>
+    <t>Código de clase II del producto</t>
+  </si>
+  <si>
+    <t>Nombre de la clase II del producto</t>
+  </si>
+  <si>
+    <t>Código de clase III del producto</t>
+  </si>
+  <si>
+    <t>Nombre de la clase III del producto</t>
+  </si>
+  <si>
+    <t>Código de clase IV del producto</t>
+  </si>
+  <si>
+    <t>Nombre de la clase IV del producto</t>
+  </si>
+  <si>
+    <t>Nombre de la marca sombrilla homologada para el producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código que identifica la forma farmacéutica I del producto </t>
+  </si>
+  <si>
+    <t>Nombre de la  forma farmacéutica I del producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código que identifica la forma farmacéutica II del producto </t>
+  </si>
+  <si>
+    <t>Nombre de la  forma farmacéutica II del producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código que identifica la forma farmacéutica III del producto </t>
+  </si>
+  <si>
+    <t>Nombre de la  forma farmacéutica III del producto</t>
+  </si>
+  <si>
+    <t>BORRAR?</t>
+  </si>
+  <si>
+    <t>Clasificación general del producto dentro del mercado farmacéutico entre Ético y OTC</t>
+  </si>
+  <si>
+    <t>Borrar una de estas dos</t>
+  </si>
+  <si>
+    <t>Agrupación TQ</t>
+  </si>
+  <si>
+    <t>Clasificación de los productos farmacéuticos según su aplicación terapéutica o el sistema del cuerpo que tratan</t>
+  </si>
+  <si>
+    <t>Categoriza los medicamentos según la especialidad médica o el sistema del cuerpo a los que están dirigidos</t>
+  </si>
+  <si>
+    <t>Reivsar si Borrar una de estas dos</t>
+  </si>
+  <si>
+    <t>Lanzamiento</t>
+  </si>
+  <si>
+    <t>MES_STD</t>
+  </si>
+  <si>
+    <t>SMMLV</t>
+  </si>
+  <si>
+    <t>ANIO</t>
+  </si>
+  <si>
+    <t>TRIMESTRE</t>
+  </si>
+  <si>
+    <t>PxMAX_LINEA_ANIO</t>
+  </si>
+  <si>
+    <t>PxMAX_ETICO/OTC_ANIO</t>
+  </si>
+  <si>
+    <t>PxMAX_GENERICO/MARCA_ANIO</t>
+  </si>
+  <si>
+    <t>PxMAX_MCD_LINEA-ETICO/OTC_ANIO</t>
+  </si>
+  <si>
+    <t>RANK_ANUAL_LINEA</t>
+  </si>
+  <si>
+    <t>RANK_ANUAL_ETICO/OTC</t>
+  </si>
+  <si>
+    <t>RANK_ANUAL_GENERICO/MARCA</t>
+  </si>
+  <si>
+    <t>RANK_ANUAL_LINEA-ETICO/OTC</t>
+  </si>
+  <si>
+    <t>PxMAX_LINEA_TRIM</t>
+  </si>
+  <si>
+    <t>PxMAX_ETICO/OTC_TRIM</t>
+  </si>
+  <si>
+    <t>PxMAX_GENERICO/MARCA_TRIM</t>
+  </si>
+  <si>
+    <t>PxMAX_MCD_LINEA-ETICO/OTC_TRIM</t>
+  </si>
+  <si>
+    <t>RANK_TRIM_LINEA</t>
+  </si>
+  <si>
+    <t>RANK_TRIM_ETICO/OTC</t>
+  </si>
+  <si>
+    <t>RANK_TRIM_GENERICO/MARCA</t>
+  </si>
+  <si>
+    <t>RANK_TRIM_LINEA-ETICO/OTC</t>
+  </si>
+  <si>
+    <t>PxMAX_LINEA_MES</t>
+  </si>
+  <si>
+    <t>PxMAX_ETICO/OTC_MES</t>
+  </si>
+  <si>
+    <t>PxMAX_GENERICO/MARCA_MES</t>
+  </si>
+  <si>
+    <t>PxMAX_MCD_LINEA-ETICO/OTC_MES</t>
+  </si>
+  <si>
+    <t>RANK_MES_LINEA</t>
+  </si>
+  <si>
+    <t>RANK_MES_ETICO/OTC</t>
+  </si>
+  <si>
+    <t>RANK_MES_GENERICO/MARCA</t>
+  </si>
+  <si>
+    <t>RANK_MES_LINEA-ETICO/OTC</t>
+  </si>
+  <si>
+    <t>MCD_LINEA</t>
+  </si>
+  <si>
+    <t>MCD_ETICO/OTC</t>
+  </si>
+  <si>
+    <t>MCD_GENERICO/MARCA</t>
+  </si>
+  <si>
+    <t>MCD_LINEA-ETICO/OTC</t>
+  </si>
+  <si>
+    <t>MCD_LINEA_TRIM</t>
+  </si>
+  <si>
+    <t>MCD_ETICO/OTC_TRIM</t>
+  </si>
+  <si>
+    <t>MCD_GENERICO/MARCA_TRIM</t>
+  </si>
+  <si>
+    <t>MCD_LINEA-ETICO/OTC_TRIM</t>
+  </si>
+  <si>
+    <t>MCD_LINEA_MES</t>
+  </si>
+  <si>
+    <t>MCD_ETICO/OTC_MES</t>
+  </si>
+  <si>
+    <t>MCD_GENERICO/MARCA_MES</t>
+  </si>
+  <si>
+    <t>MCD_LINEA-ETICO/OTC_MES</t>
+  </si>
+  <si>
+    <t>Variacion_Mensual_IPC</t>
+  </si>
+  <si>
+    <t>Variacion_Año_Corrido_IPC</t>
+  </si>
+  <si>
+    <t>Variacion_Anual_IPC</t>
+  </si>
+  <si>
+    <t>Variacion_Trimestral_IPC</t>
+  </si>
+  <si>
+    <t>Variacion_Semestral_IPC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,8 +855,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +894,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -513,12 +937,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,7 +978,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -838,14 +1311,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>135</v>
       </c>
@@ -853,23 +1328,23 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -877,7 +1352,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -885,7 +1360,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -893,15 +1368,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -909,7 +1384,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -917,7 +1392,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -925,7 +1400,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -933,7 +1408,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -941,7 +1416,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -949,7 +1424,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -957,7 +1432,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -965,7 +1440,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -973,7 +1448,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -981,7 +1456,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -989,7 +1464,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -997,7 +1472,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1005,7 +1480,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1488,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1496,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1504,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1512,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1520,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1053,7 +1528,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1061,7 +1536,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1069,7 +1544,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1077,7 +1552,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1085,7 +1560,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1093,7 +1568,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1101,7 +1576,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1109,7 +1584,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1117,7 +1592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1125,7 +1600,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1133,7 +1608,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1141,7 +1616,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1624,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1157,7 +1632,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1165,7 +1640,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1173,7 +1648,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1181,7 +1656,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1189,7 +1664,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1197,7 +1672,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1205,7 +1680,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1213,7 +1688,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1221,23 +1696,23 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1245,7 +1720,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1253,31 +1728,31 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1285,7 +1760,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -1293,7 +1768,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -1301,7 +1776,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -1309,7 +1784,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -1317,7 +1792,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -1325,7 +1800,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -1333,7 +1808,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -1341,7 +1816,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1349,7 +1824,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1357,7 +1832,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1365,7 +1840,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1381,15 +1856,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1397,7 +1872,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -1405,15 +1880,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -1421,7 +1896,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1429,15 +1904,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1445,15 +1920,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1461,7 +1936,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1469,7 +1944,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1477,7 +1952,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -1485,7 +1960,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -1493,7 +1968,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1501,7 +1976,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -1509,7 +1984,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -1517,7 +1992,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -1525,7 +2000,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -1533,7 +2008,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -1541,7 +2016,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -1549,7 +2024,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -1557,15 +2032,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -1573,7 +2048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -1581,7 +2056,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -1589,15 +2064,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -1605,7 +2080,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -1613,7 +2088,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -1621,7 +2096,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -1629,7 +2104,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -1637,7 +2112,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -1645,7 +2120,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -1653,7 +2128,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -1661,7 +2136,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -1669,7 +2144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -1677,7 +2152,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -1685,7 +2160,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -1693,7 +2168,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -1701,7 +2176,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -1709,7 +2184,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -1717,7 +2192,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -1725,7 +2200,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -1733,7 +2208,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -1741,7 +2216,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -1749,7 +2224,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -1757,7 +2232,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -1765,7 +2240,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -1773,7 +2248,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -1781,7 +2256,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -1789,7 +2264,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -1797,7 +2272,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -1805,7 +2280,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -1813,7 +2288,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -1821,7 +2296,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -1829,7 +2304,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -1837,7 +2312,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -1845,7 +2320,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -1853,7 +2328,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -1861,7 +2336,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -1869,7 +2344,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -1877,7 +2352,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -1885,7 +2360,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -1893,7 +2368,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -1901,7 +2376,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -1909,7 +2384,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -1917,7 +2392,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -1925,7 +2400,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>201801</v>
       </c>
@@ -1933,7 +2408,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>201802</v>
       </c>
@@ -1941,7 +2416,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>201803</v>
       </c>
@@ -1949,7 +2424,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>201804</v>
       </c>
@@ -1957,7 +2432,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>201805</v>
       </c>
@@ -1965,7 +2440,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>201806</v>
       </c>
@@ -1973,7 +2448,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>201807</v>
       </c>
@@ -1981,7 +2456,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>201808</v>
       </c>
@@ -1989,7 +2464,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>201809</v>
       </c>
@@ -1997,7 +2472,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>201810</v>
       </c>
@@ -2005,7 +2480,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>201811</v>
       </c>
@@ -2013,7 +2488,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>201812</v>
       </c>
@@ -2021,7 +2496,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>201901</v>
       </c>
@@ -2029,7 +2504,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>201902</v>
       </c>
@@ -2037,7 +2512,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>201903</v>
       </c>
@@ -2045,7 +2520,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>201904</v>
       </c>
@@ -2053,7 +2528,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>201905</v>
       </c>
@@ -2061,7 +2536,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>201906</v>
       </c>
@@ -2069,7 +2544,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>201907</v>
       </c>
@@ -2077,7 +2552,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>201908</v>
       </c>
@@ -2085,7 +2560,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>201909</v>
       </c>
@@ -2093,7 +2568,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>201910</v>
       </c>
@@ -2101,7 +2576,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>201911</v>
       </c>
@@ -2109,7 +2584,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>201912</v>
       </c>
@@ -2117,7 +2592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>202001</v>
       </c>
@@ -2125,7 +2600,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>202002</v>
       </c>
@@ -2133,7 +2608,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>202003</v>
       </c>
@@ -2141,7 +2616,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>202004</v>
       </c>
@@ -2149,7 +2624,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>202005</v>
       </c>
@@ -2157,7 +2632,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>202006</v>
       </c>
@@ -2165,7 +2640,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>202007</v>
       </c>
@@ -2173,7 +2648,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>202008</v>
       </c>
@@ -2181,7 +2656,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>202009</v>
       </c>
@@ -2189,7 +2664,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>202010</v>
       </c>
@@ -2197,7 +2672,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>202011</v>
       </c>
@@ -2205,7 +2680,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>202012</v>
       </c>
@@ -2213,7 +2688,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>202101</v>
       </c>
@@ -2221,7 +2696,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>202102</v>
       </c>
@@ -2229,7 +2704,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>202103</v>
       </c>
@@ -2237,7 +2712,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>202104</v>
       </c>
@@ -2245,7 +2720,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>202105</v>
       </c>
@@ -2253,7 +2728,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>202106</v>
       </c>
@@ -2261,7 +2736,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>202107</v>
       </c>
@@ -2269,7 +2744,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>202108</v>
       </c>
@@ -2277,7 +2752,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>202109</v>
       </c>
@@ -2285,7 +2760,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>202110</v>
       </c>
@@ -2293,7 +2768,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>202111</v>
       </c>
@@ -2301,7 +2776,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>202112</v>
       </c>
@@ -2309,7 +2784,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>202201</v>
       </c>
@@ -2317,7 +2792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>202202</v>
       </c>
@@ -2325,7 +2800,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>202203</v>
       </c>
@@ -2333,7 +2808,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>202204</v>
       </c>
@@ -2341,7 +2816,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>202205</v>
       </c>
@@ -2349,7 +2824,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>202206</v>
       </c>
@@ -2357,7 +2832,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>202207</v>
       </c>
@@ -2365,7 +2840,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>202208</v>
       </c>
@@ -2373,7 +2848,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>202209</v>
       </c>
@@ -2381,7 +2856,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>202210</v>
       </c>
@@ -2389,7 +2864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>202211</v>
       </c>
@@ -2397,7 +2872,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>202212</v>
       </c>
@@ -2405,7 +2880,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>202301</v>
       </c>
@@ -2413,7 +2888,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>202302</v>
       </c>
@@ -2421,7 +2896,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>202303</v>
       </c>
@@ -2429,7 +2904,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>202304</v>
       </c>
@@ -2437,7 +2912,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>202305</v>
       </c>
@@ -2453,28 +2928,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F201"/>
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="19">
         <v>20230901</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3">
+      <c r="C1" s="19"/>
+      <c r="E1" s="19">
         <v>20231001</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="19"/>
+      <c r="H1" s="19">
+        <v>20231112</v>
+      </c>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -2490,8 +2970,14 @@
       <c r="F2" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2507,8 +2993,14 @@
       <c r="F3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2524,8 +3016,14 @@
       <c r="F4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2541,8 +3039,14 @@
       <c r="F5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2558,8 +3062,14 @@
       <c r="F6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2575,8 +3085,14 @@
       <c r="F7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2592,8 +3108,14 @@
       <c r="F8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2609,8 +3131,14 @@
       <c r="F9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2626,8 +3154,14 @@
       <c r="F10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2643,8 +3177,14 @@
       <c r="F11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2660,8 +3200,14 @@
       <c r="F12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2677,8 +3223,14 @@
       <c r="F13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2694,8 +3246,14 @@
       <c r="F14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2711,8 +3269,14 @@
       <c r="F15" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2728,8 +3292,14 @@
       <c r="F16" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2745,8 +3315,14 @@
       <c r="F17" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2762,8 +3338,14 @@
       <c r="F18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2779,8 +3361,14 @@
       <c r="F19" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2796,8 +3384,14 @@
       <c r="F20" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2813,8 +3407,14 @@
       <c r="F21" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2830,8 +3430,14 @@
       <c r="F22" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2847,8 +3453,14 @@
       <c r="F23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2864,8 +3476,14 @@
       <c r="F24" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2881,8 +3499,14 @@
       <c r="F25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2898,8 +3522,14 @@
       <c r="F26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2915,8 +3545,14 @@
       <c r="F27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2932,8 +3568,14 @@
       <c r="F28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2949,8 +3591,14 @@
       <c r="F29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2966,8 +3614,14 @@
       <c r="F30" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2983,8 +3637,14 @@
       <c r="F31" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3000,8 +3660,14 @@
       <c r="F32" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3017,8 +3683,14 @@
       <c r="F33" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3034,8 +3706,14 @@
       <c r="F34" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3051,8 +3729,14 @@
       <c r="F35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3068,8 +3752,14 @@
       <c r="F36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3085,8 +3775,14 @@
       <c r="F37" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3102,8 +3798,14 @@
       <c r="F38" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3119,8 +3821,14 @@
       <c r="F39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3136,8 +3844,14 @@
       <c r="F40" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3153,8 +3867,14 @@
       <c r="F41" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3170,8 +3890,14 @@
       <c r="F42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3187,8 +3913,14 @@
       <c r="F43" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3204,8 +3936,14 @@
       <c r="F44" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3221,8 +3959,14 @@
       <c r="F45" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3238,8 +3982,14 @@
       <c r="F46" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3255,8 +4005,14 @@
       <c r="F47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3272,8 +4028,14 @@
       <c r="F48" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3289,8 +4051,14 @@
       <c r="F49" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3306,8 +4074,14 @@
       <c r="F50" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3323,8 +4097,14 @@
       <c r="F51" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3340,8 +4120,14 @@
       <c r="F52" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3357,8 +4143,14 @@
       <c r="F53" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3374,8 +4166,14 @@
       <c r="F54" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3391,8 +4189,14 @@
       <c r="F55" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3408,8 +4212,14 @@
       <c r="F56" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3425,8 +4235,14 @@
       <c r="F57" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3442,8 +4258,14 @@
       <c r="F58" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3459,8 +4281,14 @@
       <c r="F59" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3476,8 +4304,14 @@
       <c r="F60" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3493,8 +4327,14 @@
       <c r="F61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3510,8 +4350,14 @@
       <c r="F62" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3527,8 +4373,14 @@
       <c r="F63" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3544,8 +4396,14 @@
       <c r="F64" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>61</v>
+      </c>
+      <c r="I64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3561,8 +4419,14 @@
       <c r="F65" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>62</v>
+      </c>
+      <c r="I65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3578,8 +4442,14 @@
       <c r="F66" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3595,8 +4465,14 @@
       <c r="F67" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>64</v>
+      </c>
+      <c r="I67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3612,8 +4488,14 @@
       <c r="F68" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>65</v>
+      </c>
+      <c r="I68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3629,8 +4511,14 @@
       <c r="F69" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>66</v>
+      </c>
+      <c r="I69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3646,8 +4534,14 @@
       <c r="F70" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>67</v>
+      </c>
+      <c r="I70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3663,8 +4557,14 @@
       <c r="F71" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3680,8 +4580,14 @@
       <c r="F72" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3697,8 +4603,14 @@
       <c r="F73" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3714,8 +4626,14 @@
       <c r="F74" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3731,8 +4649,14 @@
       <c r="F75" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3748,8 +4672,14 @@
       <c r="F76" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3765,8 +4695,14 @@
       <c r="F77" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3782,8 +4718,14 @@
       <c r="F78" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3799,8 +4741,14 @@
       <c r="F79" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3816,8 +4764,14 @@
       <c r="F80" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3833,8 +4787,14 @@
       <c r="F81" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3850,8 +4810,14 @@
       <c r="F82" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3867,8 +4833,14 @@
       <c r="F83" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>80</v>
+      </c>
+      <c r="I83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3884,8 +4856,14 @@
       <c r="F84" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>81</v>
+      </c>
+      <c r="I84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3901,8 +4879,14 @@
       <c r="F85" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3918,8 +4902,14 @@
       <c r="F86" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>83</v>
+      </c>
+      <c r="I86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3935,8 +4925,14 @@
       <c r="F87" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3952,8 +4948,14 @@
       <c r="F88" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3969,8 +4971,14 @@
       <c r="F89" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>86</v>
+      </c>
+      <c r="I89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3986,8 +4994,14 @@
       <c r="F90" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>87</v>
+      </c>
+      <c r="I90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4003,8 +5017,14 @@
       <c r="F91" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>88</v>
+      </c>
+      <c r="I91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4020,8 +5040,14 @@
       <c r="F92" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>89</v>
+      </c>
+      <c r="I92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4037,8 +5063,14 @@
       <c r="F93" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>90</v>
+      </c>
+      <c r="I93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4054,8 +5086,14 @@
       <c r="F94" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>91</v>
+      </c>
+      <c r="I94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4071,8 +5109,14 @@
       <c r="F95" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>92</v>
+      </c>
+      <c r="I95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4088,8 +5132,14 @@
       <c r="F96" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4105,8 +5155,14 @@
       <c r="F97" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>94</v>
+      </c>
+      <c r="I97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4122,8 +5178,14 @@
       <c r="F98" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>95</v>
+      </c>
+      <c r="I98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4139,8 +5201,14 @@
       <c r="F99" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>96</v>
+      </c>
+      <c r="I99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4156,8 +5224,14 @@
       <c r="F100" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4173,8 +5247,14 @@
       <c r="F101" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4190,8 +5270,14 @@
       <c r="F102" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4207,8 +5293,14 @@
       <c r="F103" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4224,8 +5316,14 @@
       <c r="F104" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4241,8 +5339,14 @@
       <c r="F105" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H105" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4258,8 +5362,14 @@
       <c r="F106" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4275,8 +5385,14 @@
       <c r="F107" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4292,8 +5408,14 @@
       <c r="F108" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4309,8 +5431,14 @@
       <c r="F109" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4326,8 +5454,14 @@
       <c r="F110" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H110" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4343,8 +5477,14 @@
       <c r="F111" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4360,8 +5500,14 @@
       <c r="F112" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4377,8 +5523,14 @@
       <c r="F113" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H113" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4394,8 +5546,14 @@
       <c r="F114" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4411,8 +5569,14 @@
       <c r="F115" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I115" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4428,8 +5592,14 @@
       <c r="F116" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4445,8 +5615,14 @@
       <c r="F117" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H117" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I117" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4462,8 +5638,14 @@
       <c r="F118" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4479,8 +5661,14 @@
       <c r="F119" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
@@ -4496,8 +5684,14 @@
       <c r="F120" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
@@ -4513,8 +5707,14 @@
       <c r="F121" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
@@ -4530,8 +5730,14 @@
       <c r="F122" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I122" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>
@@ -4547,8 +5753,14 @@
       <c r="F123" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I123" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
@@ -4564,8 +5776,14 @@
       <c r="F124" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H124" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I124" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>123</v>
       </c>
@@ -4581,8 +5799,14 @@
       <c r="F125" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>124</v>
       </c>
@@ -4598,8 +5822,14 @@
       <c r="F126" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
@@ -4615,8 +5845,14 @@
       <c r="F127" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H127" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I127" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>126</v>
       </c>
@@ -4632,8 +5868,14 @@
       <c r="F128" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I128" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>127</v>
       </c>
@@ -4649,8 +5891,14 @@
       <c r="F129" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I129" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>128</v>
       </c>
@@ -4666,8 +5914,14 @@
       <c r="F130" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>129</v>
       </c>
@@ -4683,8 +5937,14 @@
       <c r="F131" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
@@ -4700,8 +5960,14 @@
       <c r="F132" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H132" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I132" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4717,8 +5983,14 @@
       <c r="F133" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>132</v>
       </c>
@@ -4734,8 +6006,14 @@
       <c r="F134" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4751,8 +6029,14 @@
       <c r="F135" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H135" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4768,8 +6052,14 @@
       <c r="F136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H136" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
@@ -4785,8 +6075,14 @@
       <c r="F137" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>201801</v>
+      </c>
+      <c r="I137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4802,8 +6098,14 @@
       <c r="F138" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>201802</v>
+      </c>
+      <c r="I138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4819,8 +6121,14 @@
       <c r="F139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>201803</v>
+      </c>
+      <c r="I139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4836,8 +6144,14 @@
       <c r="F140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>201804</v>
+      </c>
+      <c r="I140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4853,8 +6167,14 @@
       <c r="F141" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>201805</v>
+      </c>
+      <c r="I141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4870,8 +6190,14 @@
       <c r="F142" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>201806</v>
+      </c>
+      <c r="I142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4887,8 +6213,14 @@
       <c r="F143" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>201807</v>
+      </c>
+      <c r="I143" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4904,8 +6236,14 @@
       <c r="F144" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>201808</v>
+      </c>
+      <c r="I144" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4921,8 +6259,14 @@
       <c r="F145" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>201809</v>
+      </c>
+      <c r="I145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4938,8 +6282,14 @@
       <c r="F146" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>201810</v>
+      </c>
+      <c r="I146" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4955,8 +6305,14 @@
       <c r="F147" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <v>201811</v>
+      </c>
+      <c r="I147" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4972,8 +6328,14 @@
       <c r="F148" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <v>201812</v>
+      </c>
+      <c r="I148" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4989,8 +6351,14 @@
       <c r="F149" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>201901</v>
+      </c>
+      <c r="I149" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
@@ -5006,8 +6374,14 @@
       <c r="F150" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>201902</v>
+      </c>
+      <c r="I150" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
@@ -5023,8 +6397,14 @@
       <c r="F151" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>201903</v>
+      </c>
+      <c r="I151" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
@@ -5040,8 +6420,14 @@
       <c r="F152" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <v>201904</v>
+      </c>
+      <c r="I152" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
@@ -5057,8 +6443,14 @@
       <c r="F153" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <v>201905</v>
+      </c>
+      <c r="I153" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
@@ -5074,8 +6466,14 @@
       <c r="F154" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <v>201906</v>
+      </c>
+      <c r="I154" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
@@ -5091,8 +6489,14 @@
       <c r="F155" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>201907</v>
+      </c>
+      <c r="I155" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
@@ -5108,8 +6512,14 @@
       <c r="F156" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <v>201908</v>
+      </c>
+      <c r="I156" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
@@ -5125,8 +6535,14 @@
       <c r="F157" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H157">
+        <v>201909</v>
+      </c>
+      <c r="I157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
@@ -5142,8 +6558,14 @@
       <c r="F158" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <v>201910</v>
+      </c>
+      <c r="I158" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
@@ -5159,8 +6581,14 @@
       <c r="F159" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <v>201911</v>
+      </c>
+      <c r="I159" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
@@ -5176,8 +6604,14 @@
       <c r="F160" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>201912</v>
+      </c>
+      <c r="I160" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>159</v>
       </c>
@@ -5193,8 +6627,14 @@
       <c r="F161" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>202001</v>
+      </c>
+      <c r="I161" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>160</v>
       </c>
@@ -5210,8 +6650,14 @@
       <c r="F162" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <v>202002</v>
+      </c>
+      <c r="I162" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>161</v>
       </c>
@@ -5227,8 +6673,14 @@
       <c r="F163" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <v>202003</v>
+      </c>
+      <c r="I163" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5244,8 +6696,14 @@
       <c r="F164" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>202004</v>
+      </c>
+      <c r="I164" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5261,8 +6719,14 @@
       <c r="F165" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <v>202005</v>
+      </c>
+      <c r="I165" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5278,8 +6742,14 @@
       <c r="F166" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <v>202006</v>
+      </c>
+      <c r="I166" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5295,8 +6765,14 @@
       <c r="F167" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <v>202007</v>
+      </c>
+      <c r="I167" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5312,8 +6788,14 @@
       <c r="F168" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <v>202008</v>
+      </c>
+      <c r="I168" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5329,8 +6811,14 @@
       <c r="F169" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <v>202009</v>
+      </c>
+      <c r="I169" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5346,8 +6834,14 @@
       <c r="F170" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <v>202010</v>
+      </c>
+      <c r="I170" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5363,8 +6857,14 @@
       <c r="F171" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <v>202011</v>
+      </c>
+      <c r="I171" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5380,8 +6880,14 @@
       <c r="F172" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <v>202012</v>
+      </c>
+      <c r="I172" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5397,8 +6903,14 @@
       <c r="F173" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H173">
+        <v>202101</v>
+      </c>
+      <c r="I173" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5414,8 +6926,14 @@
       <c r="F174" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <v>202102</v>
+      </c>
+      <c r="I174" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5431,8 +6949,14 @@
       <c r="F175" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <v>202103</v>
+      </c>
+      <c r="I175" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5448,8 +6972,14 @@
       <c r="F176" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <v>202104</v>
+      </c>
+      <c r="I176" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5465,8 +6995,14 @@
       <c r="F177" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <v>202105</v>
+      </c>
+      <c r="I177" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5482,8 +7018,14 @@
       <c r="F178" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <v>202106</v>
+      </c>
+      <c r="I178" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5499,8 +7041,14 @@
       <c r="F179" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <v>202107</v>
+      </c>
+      <c r="I179" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5516,8 +7064,14 @@
       <c r="F180" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <v>202108</v>
+      </c>
+      <c r="I180" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>179</v>
       </c>
@@ -5533,8 +7087,14 @@
       <c r="F181" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>202109</v>
+      </c>
+      <c r="I181" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5550,8 +7110,14 @@
       <c r="F182" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>202110</v>
+      </c>
+      <c r="I182" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>181</v>
       </c>
@@ -5567,8 +7133,14 @@
       <c r="F183" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <v>202111</v>
+      </c>
+      <c r="I183" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>182</v>
       </c>
@@ -5584,8 +7156,14 @@
       <c r="F184" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <v>202112</v>
+      </c>
+      <c r="I184" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>183</v>
       </c>
@@ -5601,8 +7179,14 @@
       <c r="F185" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <v>202201</v>
+      </c>
+      <c r="I185" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>184</v>
       </c>
@@ -5618,8 +7202,14 @@
       <c r="F186" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <v>202202</v>
+      </c>
+      <c r="I186" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>185</v>
       </c>
@@ -5635,8 +7225,14 @@
       <c r="F187" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <v>202203</v>
+      </c>
+      <c r="I187" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>186</v>
       </c>
@@ -5652,8 +7248,14 @@
       <c r="F188" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <v>202204</v>
+      </c>
+      <c r="I188" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>187</v>
       </c>
@@ -5669,8 +7271,14 @@
       <c r="F189" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <v>202205</v>
+      </c>
+      <c r="I189" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5686,8 +7294,14 @@
       <c r="F190" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H190">
+        <v>202206</v>
+      </c>
+      <c r="I190" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5703,8 +7317,14 @@
       <c r="F191" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H191">
+        <v>202207</v>
+      </c>
+      <c r="I191" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5720,8 +7340,14 @@
       <c r="F192" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H192">
+        <v>202208</v>
+      </c>
+      <c r="I192" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5737,8 +7363,14 @@
       <c r="F193" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H193">
+        <v>202209</v>
+      </c>
+      <c r="I193" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5754,8 +7386,14 @@
       <c r="F194" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H194">
+        <v>202210</v>
+      </c>
+      <c r="I194" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>193</v>
       </c>
@@ -5771,8 +7409,14 @@
       <c r="F195" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <v>202211</v>
+      </c>
+      <c r="I195" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>194</v>
       </c>
@@ -5788,8 +7432,14 @@
       <c r="F196" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H196">
+        <v>202212</v>
+      </c>
+      <c r="I196" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>195</v>
       </c>
@@ -5805,8 +7455,14 @@
       <c r="F197" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <v>202301</v>
+      </c>
+      <c r="I197" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>196</v>
       </c>
@@ -5822,8 +7478,14 @@
       <c r="F198" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H198">
+        <v>202302</v>
+      </c>
+      <c r="I198" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>197</v>
       </c>
@@ -5839,8 +7501,14 @@
       <c r="F199" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H199">
+        <v>202303</v>
+      </c>
+      <c r="I199" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>198</v>
       </c>
@@ -5856,8 +7524,14 @@
       <c r="F200" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H200">
+        <v>202304</v>
+      </c>
+      <c r="I200" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>199</v>
       </c>
@@ -5873,13 +7547,1324 @@
       <c r="F201" t="s">
         <v>138</v>
       </c>
+      <c r="H201">
+        <v>202305</v>
+      </c>
+      <c r="I201" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:C2" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88D4FE0-2075-4178-8C8F-50E189450DEA}">
+  <dimension ref="A1:E111"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.08203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="117.9140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(B2,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(B3,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(B4,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(B5,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(B6,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(B7,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(B8,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(B9,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(B10,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(B11,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(B12,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(B13,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(B14,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(B15,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(B16,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(B17,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(B18,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(B19,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(B20,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(B21,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(B22,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(B23,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(B24,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(B25,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP(B26,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(B27,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" t="str">
+        <f>VLOOKUP(B28,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(B29,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(B30,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(B31,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(B32,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(B33,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(B34,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(B35,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="17" t="str">
+        <f>VLOOKUP(B36,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(B37,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="8" t="str">
+        <f>VLOOKUP(B38,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="8" t="str">
+        <f>VLOOKUP(B39,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(B40,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(B41,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="11" t="str">
+        <f>VLOOKUP(B42,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="11" t="str">
+        <f>VLOOKUP(B43,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(B44,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="14" t="str">
+        <f>VLOOKUP(B45,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="14" t="str">
+        <f>VLOOKUP(B46,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(B47,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(B48,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(B49,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(B50,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="14" t="str">
+        <f>VLOOKUP(B51,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="14" t="str">
+        <f>VLOOKUP(B52,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(B53,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(B54,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(B55,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="16">
+        <v>55</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="17" t="str">
+        <f>VLOOKUP(B56,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(B57,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(B58,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(B59,Diccionario!A:B,2,FALSE)</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(B60,Diccionario!A:B,2,FALSE)</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" t="e">
+        <f>VLOOKUP(B61,Diccionario!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" t="e">
+        <f>VLOOKUP(B62,Diccionario!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" t="e">
+        <f>VLOOKUP(B63,Diccionario!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" t="e">
+        <f>VLOOKUP(B64,Diccionario!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" t="e">
+        <f>VLOOKUP(B65,Diccionario!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" t="e">
+        <f>VLOOKUP(B66,Diccionario!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" t="e">
+        <f>VLOOKUP(B67,Diccionario!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" t="e">
+        <f>VLOOKUP(B68,Diccionario!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" t="e">
+        <f>VLOOKUP(B69,Diccionario!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" t="e">
+        <f>VLOOKUP(B70,Diccionario!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E111" xr:uid="{D88D4FE0-2075-4178-8C8F-50E189450DEA}"/>
+  <conditionalFormatting sqref="B112:B1048576 B1:B35">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B70">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDGI 231111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3F932F-EC29-4AA9-8B14-ED3B79284B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84445141-D889-4A87-9691-09FD07AFA671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Descripciones" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Descripciones!$A$1:$E$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Descripciones!$A$1:$D$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Detalle!$A$2:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$B$200</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="263">
   <si>
     <t>COD_LLAVE_ADJ</t>
   </si>
@@ -460,21 +460,9 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Identificador único ajustado para cada registro en la base de datos</t>
-  </si>
-  <si>
-    <t>Identificador único original para cada registro</t>
-  </si>
-  <si>
     <t>País al que pertenecen los datos, en este caso, todos los registros son de Colombia</t>
   </si>
   <si>
-    <t>Canal de distribución de los productos, que en todos los registros es 'Pais'</t>
-  </si>
-  <si>
-    <t>Código numérico que representa la fuente ajustada de los datos</t>
-  </si>
-  <si>
     <t>Descripción textual detallada del producto farmacéutico</t>
   </si>
   <si>
@@ -526,9 +514,6 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>SMLV</t>
-  </si>
-  <si>
     <t>Cambio porcentual en el Índice de Precios al Consumidor (IPC) durante un período semestral</t>
   </si>
   <si>
@@ -541,15 +526,6 @@
     <t>Categoría de seguimiento farmacéutico, posiblemente para fines de gestión de ventas o regulación</t>
   </si>
   <si>
-    <t>Clasificación de productos que se consideran éticos o que requieren prescripción</t>
-  </si>
-  <si>
-    <t>Indica si el producto está clasificado para uso pediátrico</t>
-  </si>
-  <si>
-    <t>Agrupación de áreas terapéuticas para fines de análisis o gestión</t>
-  </si>
-  <si>
     <t>Estrategias de marketing asociadas a planes específicos para el producto</t>
   </si>
   <si>
@@ -559,18 +535,6 @@
     <t>Información detallada sobre la terapia o el tratamiento que implica el producto</t>
   </si>
   <si>
-    <t>Estrategias o actividades de marketing relacionadas con el mercado en general</t>
-  </si>
-  <si>
-    <t>Estrategias o actividades de marketing enfocadas en un subsegmento del mercado</t>
-  </si>
-  <si>
-    <t>Clasificación de la segmentación dentro de un plan de marketing o ventas</t>
-  </si>
-  <si>
-    <t>Indica si una molécula específica está involucrada en las estrategias de marketing</t>
-  </si>
-  <si>
     <t>Indica si el producto contiene sustancias psicotrópicas o estupefacientes</t>
   </si>
   <si>
@@ -580,9 +544,6 @@
     <t>Indica si el producto es una monosustancia o una combinación de varias</t>
   </si>
   <si>
-    <t>Estrategias de marketing basadas en la forma farmacéutica del producto</t>
-  </si>
-  <si>
     <t>Clasificación del producto basada en si se utiliza para tratamientos crónicos o agudos</t>
   </si>
   <si>
@@ -592,9 +553,6 @@
     <t>Clasificación de productos basada en el diagnóstico para el cual están indicados</t>
   </si>
   <si>
-    <t>Base de datos o registro de lanzamientos de productos para fines de marketing</t>
-  </si>
-  <si>
     <t>Marco de tiempo o fecha específica relacionada con los datos (usualmente año y mes)</t>
   </si>
   <si>
@@ -682,21 +640,9 @@
     <t>Clasificación general del producto dentro del mercado farmacéutico entre Ético y OTC</t>
   </si>
   <si>
-    <t>Borrar una de estas dos</t>
-  </si>
-  <si>
-    <t>Agrupación TQ</t>
-  </si>
-  <si>
     <t>Clasificación de los productos farmacéuticos según su aplicación terapéutica o el sistema del cuerpo que tratan</t>
   </si>
   <si>
-    <t>Categoriza los medicamentos según la especialidad médica o el sistema del cuerpo a los que están dirigidos</t>
-  </si>
-  <si>
-    <t>Reivsar si Borrar una de estas dos</t>
-  </si>
-  <si>
     <t>Lanzamiento</t>
   </si>
   <si>
@@ -712,18 +658,6 @@
     <t>TRIMESTRE</t>
   </si>
   <si>
-    <t>PxMAX_LINEA_ANIO</t>
-  </si>
-  <si>
-    <t>PxMAX_ETICO/OTC_ANIO</t>
-  </si>
-  <si>
-    <t>PxMAX_GENERICO/MARCA_ANIO</t>
-  </si>
-  <si>
-    <t>PxMAX_MCD_LINEA-ETICO/OTC_ANIO</t>
-  </si>
-  <si>
     <t>RANK_ANUAL_LINEA</t>
   </si>
   <si>
@@ -736,18 +670,6 @@
     <t>RANK_ANUAL_LINEA-ETICO/OTC</t>
   </si>
   <si>
-    <t>PxMAX_LINEA_TRIM</t>
-  </si>
-  <si>
-    <t>PxMAX_ETICO/OTC_TRIM</t>
-  </si>
-  <si>
-    <t>PxMAX_GENERICO/MARCA_TRIM</t>
-  </si>
-  <si>
-    <t>PxMAX_MCD_LINEA-ETICO/OTC_TRIM</t>
-  </si>
-  <si>
     <t>RANK_TRIM_LINEA</t>
   </si>
   <si>
@@ -760,18 +682,6 @@
     <t>RANK_TRIM_LINEA-ETICO/OTC</t>
   </si>
   <si>
-    <t>PxMAX_LINEA_MES</t>
-  </si>
-  <si>
-    <t>PxMAX_ETICO/OTC_MES</t>
-  </si>
-  <si>
-    <t>PxMAX_GENERICO/MARCA_MES</t>
-  </si>
-  <si>
-    <t>PxMAX_MCD_LINEA-ETICO/OTC_MES</t>
-  </si>
-  <si>
     <t>RANK_MES_LINEA</t>
   </si>
   <si>
@@ -784,18 +694,6 @@
     <t>RANK_MES_LINEA-ETICO/OTC</t>
   </si>
   <si>
-    <t>MCD_LINEA</t>
-  </si>
-  <si>
-    <t>MCD_ETICO/OTC</t>
-  </si>
-  <si>
-    <t>MCD_GENERICO/MARCA</t>
-  </si>
-  <si>
-    <t>MCD_LINEA-ETICO/OTC</t>
-  </si>
-  <si>
     <t>MCD_LINEA_TRIM</t>
   </si>
   <si>
@@ -823,9 +721,6 @@
     <t>Variacion_Mensual_IPC</t>
   </si>
   <si>
-    <t>Variacion_Año_Corrido_IPC</t>
-  </si>
-  <si>
     <t>Variacion_Anual_IPC</t>
   </si>
   <si>
@@ -833,6 +728,108 @@
   </si>
   <si>
     <t>Variacion_Semestral_IPC</t>
+  </si>
+  <si>
+    <t>Periodo en año y mes (AAAAMM) en el que se lanzo el producto en el mercado</t>
+  </si>
+  <si>
+    <t>Numero de mes consecutivo desde la 1ra vez en la que se comezó a vender el producto en el mercado</t>
+  </si>
+  <si>
+    <t>Año en el que se generó el registro</t>
+  </si>
+  <si>
+    <t>mes en el que se generó el registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valor total del mercado anual correspondiente a una categoría específica de productos o línea de artículos, consolidando todas las ventas o unidades distribuidas durante el año</t>
+  </si>
+  <si>
+    <t>Ranking anual de precios dentro de una línea específica de productos Se calcula basándose en el precio máximo registrado en la categoría analizada durante el año</t>
+  </si>
+  <si>
+    <t>Ranking anual de precios comparando productos éticos y de venta libre (OTC, por sus siglas en inglés) Se determina a partir del precio máximo encontrado en los registros de la categoría pertinente durante el año</t>
+  </si>
+  <si>
+    <t>Ranking anual de precios que contrasta productos genéricos con productos de marca Se establece tomando como referencia el precio máximo registrado en la categoría correspondiente a lo largo del año</t>
+  </si>
+  <si>
+    <t>Ranking anual de precios que compara líneas de productos éticos con productos OTC dentro de la misma categoría Se basa en el precio máximo reportado en los registros de dicha categoría durante el año</t>
+  </si>
+  <si>
+    <t>Ranking trimestral de precios dentro de una línea específica de productos Se calcula basándose en el precio máximo registrado en la categoría analizada durante el trimestre del año</t>
+  </si>
+  <si>
+    <t>Ranking trimestral de precios comparando productos éticos y de venta libre (OTC, por sus siglas en inglés) Se determina a partir del precio máximo encontrado en los registros de la categoría pertinente durante el trimestre del año</t>
+  </si>
+  <si>
+    <t>Ranking trimestral de precios que contrasta productos genéricos con productos de marca Se establece tomando como referencia el precio máximo registrado en la categoría correspondiente a lo largo del trimestre del año</t>
+  </si>
+  <si>
+    <t>Ranking trimestral de precios que compara líneas de productos éticos con productos OTC dentro de la misma categoría Se basa en el precio máximo reportado en los registros de dicha categoría durante el trimestre del año</t>
+  </si>
+  <si>
+    <t>Ranking mensual de precios dentro de una línea específica de productos Se calcula basándose en el precio máximo registrado en la categoría analizada durante el mes del año</t>
+  </si>
+  <si>
+    <t>Ranking mensual de precios comparando productos éticos y de venta libre (OTC, por sus siglas en inglés) Se determina a partir del precio máximo encontrado en los registros de la categoría pertinente durante el mes del año</t>
+  </si>
+  <si>
+    <t>Ranking mensual de precios que contrasta productos genéricos con productos de marca Se establece tomando como referencia el precio máximo registrado en la categoría correspondiente a lo largo del mes del año</t>
+  </si>
+  <si>
+    <t>Ranking mensual de precios que compara líneas de productos éticos con productos OTC dentro de la misma categoría Se basa en el precio máximo reportado en los registros de dicha categoría durante el mes del año</t>
+  </si>
+  <si>
+    <t>Valor total anual del mercado para productos éticos (prescripción) y OTC (venta libre), sumando todas las ventas o unidades distribuidas durante el año</t>
+  </si>
+  <si>
+    <t>Valor total anual del mercado que compara los productos genéricos con los de marca, reflejando la suma de todas las ventas o unidades vendidas durante el año</t>
+  </si>
+  <si>
+    <t>Valor anual agregado del mercado de una línea específica de productos, incluyendo tanto medicamentos éticos como OTC, basado en las ventas o unidades distribuidas anualmente</t>
+  </si>
+  <si>
+    <t>Valor de mercado total para una línea específica de productos, calculado trimestralmente</t>
+  </si>
+  <si>
+    <t>Valor de mercado trimestral para productos éticos y OTC, reflejando la suma de ventas o unidades distribuidas en ese trimestre</t>
+  </si>
+  <si>
+    <t>Valor de mercado trimestral que contrasta productos genéricos con productos de marca, basado en las ventas o unidades vendidas en el trimestre</t>
+  </si>
+  <si>
+    <t>Valor de mercado trimestral para una línea específica de productos éticos y OTC</t>
+  </si>
+  <si>
+    <t>Valor de mercado mensual para una línea específica de productos, sumando las ventas o unidades distribuidas en ese mes</t>
+  </si>
+  <si>
+    <t>Valor de mercado mensual para productos éticos y OTC</t>
+  </si>
+  <si>
+    <t>Valor de mercado mensual que compara productos genéricos con productos de marca</t>
+  </si>
+  <si>
+    <t>Valor de mercado mensual para una línea específica de productos, que incluye medicamentos éticos y de venta libre</t>
+  </si>
+  <si>
+    <t>Variacion_Anio_Corrido_IPC</t>
+  </si>
+  <si>
+    <t>MCD_LINEA_ANIO</t>
+  </si>
+  <si>
+    <t>MCD_ETICO/OTC_ANIO</t>
+  </si>
+  <si>
+    <t>MCD_GENERICO/MARCA_ANIO</t>
+  </si>
+  <si>
+    <t>MCD_LINEA-ETICO/OTC_ANIO</t>
+  </si>
+  <si>
+    <t>Identificador numérico único asignado para la distinción  de cada producto dentro de la base de datos</t>
   </si>
 </sst>
 </file>
@@ -869,13 +866,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF0F0F0F"/>
-      <name val="Segoe UI"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,30 +897,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -937,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -950,29 +923,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2941,18 +2900,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="19">
+      <c r="B1" s="6">
         <v>20230901</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="E1" s="19">
+      <c r="C1" s="6"/>
+      <c r="E1" s="6">
         <v>20231001</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="H1" s="19">
+      <c r="F1" s="6"/>
+      <c r="H1" s="6">
         <v>20231112</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -7567,18 +7526,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88D4FE0-2075-4178-8C8F-50E189450DEA}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.08203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="117.9140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.9140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -7586,13 +7546,13 @@
         <v>134</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>211</v>
+        <v>152</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -7600,14 +7560,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(B2,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
+      <c r="D2" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B2,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -7615,14 +7575,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(B3,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
+        <v>262</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B3,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -7630,13 +7590,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(B4,Diccionario!A:B,2,FALSE)</f>
+        <v>140</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B4,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7645,14 +7605,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(B5,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
+        <v>141</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B5,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -7660,13 +7620,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(B6,Diccionario!A:B,2,FALSE)</f>
+        <v>142</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B6,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7675,13 +7635,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(B7,Diccionario!A:B,2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B7,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7690,13 +7650,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(B8,Diccionario!A:B,2,FALSE)</f>
+        <v>179</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B8,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7705,13 +7665,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(B9,Diccionario!A:B,2,FALSE)</f>
+        <v>181</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B9,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7720,13 +7680,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(B10,Diccionario!A:B,2,FALSE)</f>
+        <v>182</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B10,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7735,13 +7695,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(B11,Diccionario!A:B,2,FALSE)</f>
+        <v>183</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B11,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7750,13 +7710,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(B12,Diccionario!A:B,2,FALSE)</f>
+        <v>184</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B12,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7765,13 +7725,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(B13,Diccionario!A:B,2,FALSE)</f>
+        <v>185</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B13,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7780,13 +7740,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(B14,Diccionario!A:B,2,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B14,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7795,13 +7755,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(B15,Diccionario!A:B,2,FALSE)</f>
+        <v>187</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B15,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7810,13 +7770,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" t="str">
-        <f>VLOOKUP(B16,Diccionario!A:B,2,FALSE)</f>
+        <v>188</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B16,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7825,13 +7785,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(B17,Diccionario!A:B,2,FALSE)</f>
+        <v>189</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B17,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7840,13 +7800,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(B18,Diccionario!A:B,2,FALSE)</f>
+        <v>143</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B18,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7855,13 +7815,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(B19,Diccionario!A:B,2,FALSE)</f>
+        <v>190</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B19,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7870,13 +7830,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" t="str">
-        <f>VLOOKUP(B20,Diccionario!A:B,2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B20,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7885,13 +7845,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" t="str">
-        <f>VLOOKUP(B21,Diccionario!A:B,2,FALSE)</f>
+        <v>145</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B21,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7900,13 +7860,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D22" t="str">
-        <f>VLOOKUP(B22,Diccionario!A:B,2,FALSE)</f>
+        <v>146</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B22,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7915,13 +7875,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" t="str">
-        <f>VLOOKUP(B23,Diccionario!A:B,2,FALSE)</f>
+        <v>147</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B23,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7930,13 +7890,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" t="str">
-        <f>VLOOKUP(B24,Diccionario!A:B,2,FALSE)</f>
+        <v>148</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B24,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7945,13 +7905,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" t="str">
-        <f>VLOOKUP(B25,Diccionario!A:B,2,FALSE)</f>
+        <v>149</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B25,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7960,13 +7920,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" t="str">
-        <f>VLOOKUP(B26,Diccionario!A:B,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B26,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7975,13 +7935,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" t="str">
-        <f>VLOOKUP(B27,Diccionario!A:B,2,FALSE)</f>
+        <v>191</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B27,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -7990,13 +7950,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" t="str">
-        <f>VLOOKUP(B28,Diccionario!A:B,2,FALSE)</f>
+        <v>192</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B28,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -8005,13 +7965,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" t="str">
-        <f>VLOOKUP(B29,Diccionario!A:B,2,FALSE)</f>
+        <v>193</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B29,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -8020,13 +7980,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" t="str">
-        <f>VLOOKUP(B30,Diccionario!A:B,2,FALSE)</f>
+        <v>194</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B30,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -8035,13 +7995,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" t="str">
-        <f>VLOOKUP(B31,Diccionario!A:B,2,FALSE)</f>
+        <v>195</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B31,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -8050,515 +8010,494 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" t="str">
-        <f>VLOOKUP(B32,Diccionario!A:B,2,FALSE)</f>
+        <v>196</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B32,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" t="str">
-        <f>VLOOKUP(B33,Diccionario!A:B,2,FALSE)</f>
+        <v>158</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B33,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" t="str">
-        <f>VLOOKUP(B34,Diccionario!A:B,2,FALSE)</f>
+        <v>159</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B34,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" t="str">
-        <f>VLOOKUP(B35,Diccionario!A:B,2,FALSE)</f>
+        <v>160</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B35,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="17" t="str">
-        <f>VLOOKUP(B36,Diccionario!A:B,2,FALSE)</f>
+      <c r="B36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B36,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" t="str">
-        <f>VLOOKUP(B37,Diccionario!A:B,2,FALSE)</f>
+        <v>199</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B37,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="8" t="str">
-        <f>VLOOKUP(B38,Diccionario!A:B,2,FALSE)</f>
+      <c r="B38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B38,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="8" t="str">
-        <f>VLOOKUP(B39,Diccionario!A:B,2,FALSE)</f>
+      <c r="B39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B39,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" t="str">
-        <f>VLOOKUP(B40,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B40,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" t="str">
-        <f>VLOOKUP(B41,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
+        <v>164</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B41,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D42" s="11" t="str">
-        <f>VLOOKUP(B42,Diccionario!A:B,2,FALSE)</f>
+      <c r="B42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B42,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" s="11" t="str">
-        <f>VLOOKUP(B43,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B43,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D44" t="str">
-        <f>VLOOKUP(B44,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12">
+      <c r="D44" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B44,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="12" t="s">
+      <c r="B45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="14" t="str">
-        <f>VLOOKUP(B45,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12">
+      <c r="D45" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B45,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="12" t="s">
+      <c r="B46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="14" t="str">
-        <f>VLOOKUP(B46,Diccionario!A:B,2,FALSE)</f>
+      <c r="D46" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B46,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D47" t="str">
-        <f>VLOOKUP(B47,Diccionario!A:B,2,FALSE)</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D47" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B47,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D48" t="str">
-        <f>VLOOKUP(B48,Diccionario!A:B,2,FALSE)</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D48" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B48,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D49" t="str">
-        <f>VLOOKUP(B49,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D49" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B49,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D50" t="str">
-        <f>VLOOKUP(B50,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12">
+      <c r="D50" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B50,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="14" t="str">
-        <f>VLOOKUP(B51,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="12">
+      <c r="B51" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B51,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="14" t="str">
-        <f>VLOOKUP(B52,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B52,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" t="str">
-        <f>VLOOKUP(B53,Diccionario!A:B,2,FALSE)</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="D53" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B53,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" t="str">
-        <f>VLOOKUP(B54,Diccionario!A:B,2,FALSE)</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B54,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B55,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D55" t="str">
-        <f>VLOOKUP(B55,Diccionario!A:B,2,FALSE)</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="16">
-        <v>55</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="17" t="str">
-        <f>VLOOKUP(B56,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D56" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B56,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D57" t="str">
-        <f>VLOOKUP(B57,Diccionario!A:B,2,FALSE)</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+      <c r="D57" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B57,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" t="str">
-        <f>VLOOKUP(B58,Diccionario!A:B,2,FALSE)</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B58,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" t="str">
-        <f>VLOOKUP(B59,Diccionario!A:B,2,FALSE)</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+      <c r="D59" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B59,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" t="str">
-        <f>VLOOKUP(B60,Diccionario!A:B,2,FALSE)</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B60,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" t="e">
-        <f>VLOOKUP(B61,Diccionario!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+      <c r="D61" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B61,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" t="e">
-        <f>VLOOKUP(B62,Diccionario!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B62,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" t="e">
-        <f>VLOOKUP(B63,Diccionario!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+      <c r="D63" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B63,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" t="e">
-        <f>VLOOKUP(B64,Diccionario!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>237</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B64,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -8566,14 +8505,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D65" t="e">
-        <f>VLOOKUP(B65,Diccionario!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>238</v>
+      </c>
+      <c r="D65" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B65,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -8581,14 +8520,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" t="e">
-        <f>VLOOKUP(B66,Diccionario!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>239</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B66,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -8596,14 +8535,14 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D67" t="e">
-        <f>VLOOKUP(B67,Diccionario!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="D67" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B67,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -8611,14 +8550,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" t="e">
-        <f>VLOOKUP(B68,Diccionario!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B68,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -8626,14 +8565,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D69" t="e">
-        <f>VLOOKUP(B69,Diccionario!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="D69" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B69,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -8641,228 +8580,266 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D70" t="e">
-        <f>VLOOKUP(B70,Diccionario!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B70,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B71,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B72,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B73,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B74,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D75" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B75,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B76,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B77,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
+      <c r="C78" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B78,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
+      <c r="C79" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B79,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
+      <c r="C80" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B80,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
+      <c r="C81" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B81,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
+      <c r="C82" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B82,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B77" t="s">
+      <c r="C83" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B83,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B78" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B80" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" t="s">
+      <c r="C84" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" t="s">
-        <v>258</v>
-      </c>
+      <c r="D84" s="4" t="str">
+        <f>IFERROR(VLOOKUP(B84,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C97" s="9"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C99" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E111" xr:uid="{D88D4FE0-2075-4178-8C8F-50E189450DEA}"/>
-  <conditionalFormatting sqref="B112:B1048576 B1:B35">
+  <autoFilter ref="A1:D84" xr:uid="{D88D4FE0-2075-4178-8C8F-50E189450DEA}"/>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B70">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="B2:B84">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDGI 231111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84445141-D889-4A87-9691-09FD07AFA671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF734FE-2B18-4FE9-9C20-9377F5413959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -496,9 +496,6 @@
     <t>Indica si el producto es un medicamento de marca o es genérico</t>
   </si>
   <si>
-    <t>COLUMNA</t>
-  </si>
-  <si>
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
@@ -619,24 +616,12 @@
     <t xml:space="preserve">Código que identifica la forma farmacéutica I del producto </t>
   </si>
   <si>
-    <t>Nombre de la  forma farmacéutica I del producto</t>
-  </si>
-  <si>
     <t xml:space="preserve">Código que identifica la forma farmacéutica II del producto </t>
   </si>
   <si>
-    <t>Nombre de la  forma farmacéutica II del producto</t>
-  </si>
-  <si>
     <t xml:space="preserve">Código que identifica la forma farmacéutica III del producto </t>
   </si>
   <si>
-    <t>Nombre de la  forma farmacéutica III del producto</t>
-  </si>
-  <si>
-    <t>BORRAR?</t>
-  </si>
-  <si>
     <t>Clasificación general del producto dentro del mercado farmacéutico entre Ético y OTC</t>
   </si>
   <si>
@@ -730,12 +715,6 @@
     <t>Variacion_Semestral_IPC</t>
   </si>
   <si>
-    <t>Periodo en año y mes (AAAAMM) en el que se lanzo el producto en el mercado</t>
-  </si>
-  <si>
-    <t>Numero de mes consecutivo desde la 1ra vez en la que se comezó a vender el producto en el mercado</t>
-  </si>
-  <si>
     <t>Año en el que se generó el registro</t>
   </si>
   <si>
@@ -829,7 +808,28 @@
     <t>MCD_LINEA-ETICO/OTC_ANIO</t>
   </si>
   <si>
-    <t>Identificador numérico único asignado para la distinción  de cada producto dentro de la base de datos</t>
+    <t>CAMPO</t>
+  </si>
+  <si>
+    <t>ORIGEN CAMPO</t>
+  </si>
+  <si>
+    <t>Nombre de la forma farmacéutica I del producto</t>
+  </si>
+  <si>
+    <t>Nombre de la forma farmacéutica II del producto</t>
+  </si>
+  <si>
+    <t>Nombre de la forma farmacéutica III del producto</t>
+  </si>
+  <si>
+    <t>Periodo en año y mes (AAAAMM) en el que se lanzó el producto en el mercado</t>
+  </si>
+  <si>
+    <t>Numero de mes consecutivo desde la 1ra vez en la que se comenzó a vender el producto en el mercado</t>
+  </si>
+  <si>
+    <t>Identificador numérico único asignado para la distinción de cada producto dentro de la base de datos</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -906,32 +906,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2900,18 +2918,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="6">
+      <c r="B1" s="5">
         <v>20230901</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="E1" s="6">
+      <c r="C1" s="5"/>
+      <c r="E1" s="5">
         <v>20231001</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="H1" s="6">
+      <c r="F1" s="5"/>
+      <c r="H1" s="5">
         <v>20231112</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -7528,1313 +7546,1311 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88D4FE0-2075-4178-8C8F-50E189450DEA}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.08203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="117.9140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.58203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="7"/>
+    <col min="1" max="1" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.08203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B2,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B3,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B4,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B5,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B6,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B7,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B8,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B9,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B10,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B11,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B12,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B13,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B14,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B15,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B16,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B17,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B18,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B19,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B20,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B21,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B22,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B23,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B24,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B25,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B26,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B27,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B28,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B29,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B30,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B31,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B32,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B33,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B34,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B35,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B36,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B37,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B38,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B39,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B40,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B41,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B42,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B43,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B44,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B45,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B46,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>BASE MCDOS</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C47" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B47,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B48,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B49,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B50,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B51,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B52,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B53,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B54,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B55,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B56,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B57,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B2,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B3,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B4,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B5,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B6,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B7,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B8,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B9,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B10,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B11,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B12,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B13,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B14,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B15,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B16,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B17,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B18,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B19,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B20,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B21,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B22,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B23,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B24,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B25,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B26,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D27" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B27,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B28,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B29,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B30,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B31,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D32" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B32,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D33" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B33,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B34,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B35,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="C58" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B58,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D36" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B36,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="C59" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B59,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B37,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="C60" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B60,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B61,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="9">
         <v>61</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B38,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="B62" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B62,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B63,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="9">
         <v>63</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B39,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="B64" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D64" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B64,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B65,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="9">
         <v>65</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B40,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="B66" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B66,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B67,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B68,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B69,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B70,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B71,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B72,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B73,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D74" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B74,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B75,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="9">
         <v>75</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B41,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="B76" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D76" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B76,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A77" s="9">
         <v>76</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B42,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="B77" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D77" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B77,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A78" s="9">
         <v>77</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B43,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B44,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B45,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B46,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D47" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B47,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+      <c r="B78" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D78" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B78,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B48,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+    <row r="79" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B79,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B49,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B80,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B50,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+    <row r="81" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B81,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D51" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B51,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="9">
+        <v>81</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B82,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D52" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B52,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+    <row r="83" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B83,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D53" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B53,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
+    <row r="84" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A84" s="9">
+        <v>83</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D84" s="7" t="str">
+        <f>IFERROR(IF(VLOOKUP(B84,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B54,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B55,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B56,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="4">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B57,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="4">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B58,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D59" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B59,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="4">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D60" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B60,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="4">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D61" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B61,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D62" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B62,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="4">
-        <v>62</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D63" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B63,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D64" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B64,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
-        <v>64</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D65" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B65,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="4">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D66" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B66,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
-        <v>66</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D67" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B67,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="4">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B68,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="4">
-        <v>68</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D69" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B69,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="4">
-        <v>69</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D70" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B70,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D71" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B71,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="4">
-        <v>71</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D72" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B72,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="4">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D73" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B73,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="4">
-        <v>73</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B74,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="4">
-        <v>74</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D75" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B75,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="4">
-        <v>75</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D76" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B76,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="4">
-        <v>76</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D77" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B77,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="4">
-        <v>77</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D78" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B78,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="4">
-        <v>78</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D79" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B79,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="4">
-        <v>79</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D80" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B80,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
-        <v>80</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D81" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B81,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="4">
-        <v>81</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D82" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B82,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="4">
-        <v>82</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D83" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B83,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="4">
-        <v>83</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D84" s="4" t="str">
-        <f>IFERROR(VLOOKUP(B84,Diccionario!A:B,2,FALSE),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C89" s="9"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C90" s="9"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C91" s="9"/>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C92" s="9"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C93" s="9"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C94" s="9"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C95" s="9"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C96" s="9"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C97" s="9"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C98" s="9"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C99" s="9"/>
+      <c r="C99" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D84" xr:uid="{D88D4FE0-2075-4178-8C8F-50E189450DEA}"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>

--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDGI 231111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDGI 231122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF734FE-2B18-4FE9-9C20-9377F5413959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3707AB86-4A7F-44A4-A54A-3CA29769D9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Descripciones" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Descripciones!$A$1:$D$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Descripciones!$A$1:$D$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Detalle!$A$2:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$B$200</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="259">
   <si>
     <t>COD_LLAVE_ADJ</t>
   </si>
@@ -517,21 +517,12 @@
     <t>Nombre técnico o químico de la forma farmacéutica del producto</t>
   </si>
   <si>
-    <t>Cantidad del principio activo en el producto farmacéutico</t>
-  </si>
-  <si>
     <t>Categoría de seguimiento farmacéutico, posiblemente para fines de gestión de ventas o regulación</t>
   </si>
   <si>
     <t>Estrategias de marketing asociadas a planes específicos para el producto</t>
   </si>
   <si>
-    <t>Estrategias de marketing o clasificación específica de productos relacionados con COVID-19</t>
-  </si>
-  <si>
-    <t>Información detallada sobre la terapia o el tratamiento que implica el producto</t>
-  </si>
-  <si>
     <t>Indica si el producto contiene sustancias psicotrópicas o estupefacientes</t>
   </si>
   <si>
@@ -545,9 +536,6 @@
   </si>
   <si>
     <t>Indica si el producto se utiliza en psiquiatría infantil</t>
-  </si>
-  <si>
-    <t>Clasificación de productos basada en el diagnóstico para el cual están indicados</t>
   </si>
   <si>
     <t>Marco de tiempo o fecha específica relacionada con los datos (usualmente año y mes)</t>
@@ -935,9 +923,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,6 +935,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,9 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1638,7 +1624,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1814,7 +1800,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1830,7 +1816,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2038,7 +2024,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2905,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2917,21 +2903,25 @@
     <col min="8" max="8" width="32.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="10">
         <v>20230901</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5">
+      <c r="C1" s="10"/>
+      <c r="E1" s="10">
         <v>20231001</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="H1" s="5">
+      <c r="F1" s="10"/>
+      <c r="H1" s="10">
         <v>20231112</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I1" s="10"/>
+      <c r="K1" s="10">
+        <v>20231122</v>
+      </c>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -2953,8 +2943,14 @@
       <c r="I2" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2976,8 +2972,14 @@
       <c r="I3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2999,8 +3001,14 @@
       <c r="I4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3022,8 +3030,14 @@
       <c r="I5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3045,8 +3059,14 @@
       <c r="I6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3068,8 +3088,14 @@
       <c r="I7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3091,8 +3117,14 @@
       <c r="I8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3114,8 +3146,14 @@
       <c r="I9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3137,8 +3175,14 @@
       <c r="I10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3160,8 +3204,14 @@
       <c r="I11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3183,8 +3233,14 @@
       <c r="I12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3206,8 +3262,14 @@
       <c r="I13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3229,8 +3291,14 @@
       <c r="I14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3252,8 +3320,14 @@
       <c r="I15" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3275,8 +3349,14 @@
       <c r="I16" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3298,8 +3378,14 @@
       <c r="I17" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3321,8 +3407,14 @@
       <c r="I18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3344,8 +3436,14 @@
       <c r="I19" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3367,8 +3465,14 @@
       <c r="I20" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3390,8 +3494,14 @@
       <c r="I21" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3413,8 +3523,14 @@
       <c r="I22" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3436,8 +3552,14 @@
       <c r="I23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3459,8 +3581,14 @@
       <c r="I24" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3482,8 +3610,14 @@
       <c r="I25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3505,8 +3639,14 @@
       <c r="I26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3528,8 +3668,14 @@
       <c r="I27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3551,8 +3697,14 @@
       <c r="I28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3574,8 +3726,14 @@
       <c r="I29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3597,8 +3755,14 @@
       <c r="I30" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3620,8 +3784,14 @@
       <c r="I31" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3643,8 +3813,14 @@
       <c r="I32" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3666,8 +3842,14 @@
       <c r="I33" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3689,8 +3871,14 @@
       <c r="I34" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3712,8 +3900,14 @@
       <c r="I35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3735,8 +3929,14 @@
       <c r="I36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3758,8 +3958,14 @@
       <c r="I37" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3781,8 +3987,14 @@
       <c r="I38" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3804,8 +4016,14 @@
       <c r="I39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3827,8 +4045,14 @@
       <c r="I40" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3850,8 +4074,14 @@
       <c r="I41" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3873,8 +4103,14 @@
       <c r="I42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K42" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3896,8 +4132,14 @@
       <c r="I43" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3919,8 +4161,14 @@
       <c r="I44" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3942,8 +4190,14 @@
       <c r="I45" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3965,8 +4219,14 @@
       <c r="I46" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3988,8 +4248,14 @@
       <c r="I47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4011,8 +4277,14 @@
       <c r="I48" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4034,8 +4306,14 @@
       <c r="I49" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K49" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4057,8 +4335,14 @@
       <c r="I50" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K50" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4080,8 +4364,14 @@
       <c r="I51" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K51" t="s">
+        <v>48</v>
+      </c>
+      <c r="L51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4103,8 +4393,14 @@
       <c r="I52" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K52" t="s">
+        <v>49</v>
+      </c>
+      <c r="L52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4126,8 +4422,14 @@
       <c r="I53" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K53" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4149,8 +4451,14 @@
       <c r="I54" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4172,8 +4480,14 @@
       <c r="I55" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4195,8 +4509,14 @@
       <c r="I56" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4218,8 +4538,14 @@
       <c r="I57" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4241,8 +4567,14 @@
       <c r="I58" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4264,8 +4596,14 @@
       <c r="I59" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4287,8 +4625,14 @@
       <c r="I60" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4310,8 +4654,14 @@
       <c r="I61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4333,8 +4683,14 @@
       <c r="I62" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4356,8 +4712,14 @@
       <c r="I63" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4379,8 +4741,14 @@
       <c r="I64" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K64" t="s">
+        <v>61</v>
+      </c>
+      <c r="L64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4402,8 +4770,14 @@
       <c r="I65" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K65" t="s">
+        <v>62</v>
+      </c>
+      <c r="L65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4425,8 +4799,14 @@
       <c r="I66" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K66" t="s">
+        <v>63</v>
+      </c>
+      <c r="L66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4448,8 +4828,14 @@
       <c r="I67" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K67" t="s">
+        <v>64</v>
+      </c>
+      <c r="L67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4471,8 +4857,14 @@
       <c r="I68" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K68" t="s">
+        <v>65</v>
+      </c>
+      <c r="L68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4494,8 +4886,14 @@
       <c r="I69" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K69" t="s">
+        <v>66</v>
+      </c>
+      <c r="L69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4517,8 +4915,14 @@
       <c r="I70" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K70" t="s">
+        <v>67</v>
+      </c>
+      <c r="L70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4540,8 +4944,14 @@
       <c r="I71" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4563,8 +4973,14 @@
       <c r="I72" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K72" t="s">
+        <v>69</v>
+      </c>
+      <c r="L72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4586,8 +5002,14 @@
       <c r="I73" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4609,8 +5031,14 @@
       <c r="I74" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K74" t="s">
+        <v>71</v>
+      </c>
+      <c r="L74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4632,8 +5060,14 @@
       <c r="I75" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K75" t="s">
+        <v>72</v>
+      </c>
+      <c r="L75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4655,8 +5089,14 @@
       <c r="I76" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K76" t="s">
+        <v>73</v>
+      </c>
+      <c r="L76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4678,8 +5118,14 @@
       <c r="I77" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K77" t="s">
+        <v>74</v>
+      </c>
+      <c r="L77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4701,8 +5147,14 @@
       <c r="I78" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K78" t="s">
+        <v>75</v>
+      </c>
+      <c r="L78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4724,8 +5176,14 @@
       <c r="I79" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K79" t="s">
+        <v>76</v>
+      </c>
+      <c r="L79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4747,8 +5205,14 @@
       <c r="I80" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K80" t="s">
+        <v>77</v>
+      </c>
+      <c r="L80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4770,8 +5234,14 @@
       <c r="I81" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K81" t="s">
+        <v>78</v>
+      </c>
+      <c r="L81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4793,8 +5263,14 @@
       <c r="I82" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K82" t="s">
+        <v>79</v>
+      </c>
+      <c r="L82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4816,8 +5292,14 @@
       <c r="I83" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K83" t="s">
+        <v>80</v>
+      </c>
+      <c r="L83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4839,8 +5321,14 @@
       <c r="I84" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K84" t="s">
+        <v>81</v>
+      </c>
+      <c r="L84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4862,8 +5350,14 @@
       <c r="I85" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K85" t="s">
+        <v>82</v>
+      </c>
+      <c r="L85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4885,8 +5379,14 @@
       <c r="I86" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K86" t="s">
+        <v>83</v>
+      </c>
+      <c r="L86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4908,8 +5408,14 @@
       <c r="I87" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K87" t="s">
+        <v>84</v>
+      </c>
+      <c r="L87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4931,8 +5437,14 @@
       <c r="I88" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4954,8 +5466,14 @@
       <c r="I89" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K89" t="s">
+        <v>86</v>
+      </c>
+      <c r="L89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4977,8 +5495,14 @@
       <c r="I90" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K90" t="s">
+        <v>87</v>
+      </c>
+      <c r="L90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5000,8 +5524,14 @@
       <c r="I91" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K91" t="s">
+        <v>88</v>
+      </c>
+      <c r="L91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5023,8 +5553,14 @@
       <c r="I92" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K92" t="s">
+        <v>89</v>
+      </c>
+      <c r="L92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5046,8 +5582,14 @@
       <c r="I93" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K93" t="s">
+        <v>90</v>
+      </c>
+      <c r="L93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5069,8 +5611,14 @@
       <c r="I94" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K94" t="s">
+        <v>91</v>
+      </c>
+      <c r="L94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5092,8 +5640,14 @@
       <c r="I95" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K95" t="s">
+        <v>92</v>
+      </c>
+      <c r="L95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5115,8 +5669,14 @@
       <c r="I96" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K96" t="s">
+        <v>93</v>
+      </c>
+      <c r="L96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5138,8 +5698,14 @@
       <c r="I97" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K97" t="s">
+        <v>94</v>
+      </c>
+      <c r="L97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5161,8 +5727,14 @@
       <c r="I98" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K98" t="s">
+        <v>95</v>
+      </c>
+      <c r="L98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5184,8 +5756,14 @@
       <c r="I99" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K99" t="s">
+        <v>96</v>
+      </c>
+      <c r="L99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5207,8 +5785,14 @@
       <c r="I100" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5230,8 +5814,14 @@
       <c r="I101" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5253,8 +5843,14 @@
       <c r="I102" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5276,8 +5872,14 @@
       <c r="I103" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5299,8 +5901,14 @@
       <c r="I104" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5322,8 +5930,14 @@
       <c r="I105" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K105" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5345,8 +5959,14 @@
       <c r="I106" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5368,8 +5988,14 @@
       <c r="I107" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5391,8 +6017,14 @@
       <c r="I108" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5414,8 +6046,14 @@
       <c r="I109" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5437,8 +6075,14 @@
       <c r="I110" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K110" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5460,8 +6104,14 @@
       <c r="I111" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5483,8 +6133,14 @@
       <c r="I112" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5506,8 +6162,14 @@
       <c r="I113" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K113" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5529,8 +6191,14 @@
       <c r="I114" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5552,8 +6220,14 @@
       <c r="I115" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L115" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5575,8 +6249,14 @@
       <c r="I116" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5598,8 +6278,14 @@
       <c r="I117" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K117" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L117" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5621,8 +6307,14 @@
       <c r="I118" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5644,8 +6336,14 @@
       <c r="I119" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5667,8 +6365,14 @@
       <c r="I120" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5690,8 +6394,14 @@
       <c r="I121" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5713,8 +6423,14 @@
       <c r="I122" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L122" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5736,8 +6452,14 @@
       <c r="I123" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L123" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5759,8 +6481,14 @@
       <c r="I124" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K124" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L124" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5782,8 +6510,14 @@
       <c r="I125" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5805,8 +6539,14 @@
       <c r="I126" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5828,8 +6568,14 @@
       <c r="I127" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K127" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L127" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5851,8 +6597,14 @@
       <c r="I128" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L128" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5874,8 +6626,14 @@
       <c r="I129" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L129" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5897,8 +6655,14 @@
       <c r="I130" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5920,8 +6684,14 @@
       <c r="I131" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5943,8 +6713,14 @@
       <c r="I132" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K132" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L132" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5966,8 +6742,14 @@
       <c r="I133" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5989,8 +6771,14 @@
       <c r="I134" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6012,8 +6800,14 @@
       <c r="I135" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K135" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6035,8 +6829,14 @@
       <c r="I136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K136" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6058,8 +6858,14 @@
       <c r="I137" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K137">
+        <v>201801</v>
+      </c>
+      <c r="L137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>136</v>
       </c>
@@ -6081,8 +6887,14 @@
       <c r="I138" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K138">
+        <v>201802</v>
+      </c>
+      <c r="L138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>137</v>
       </c>
@@ -6104,8 +6916,14 @@
       <c r="I139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K139">
+        <v>201803</v>
+      </c>
+      <c r="L139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>138</v>
       </c>
@@ -6127,8 +6945,14 @@
       <c r="I140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K140">
+        <v>201804</v>
+      </c>
+      <c r="L140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
@@ -6150,8 +6974,14 @@
       <c r="I141" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K141">
+        <v>201805</v>
+      </c>
+      <c r="L141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>140</v>
       </c>
@@ -6173,8 +7003,14 @@
       <c r="I142" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K142">
+        <v>201806</v>
+      </c>
+      <c r="L142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>141</v>
       </c>
@@ -6196,8 +7032,14 @@
       <c r="I143" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K143">
+        <v>201807</v>
+      </c>
+      <c r="L143" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>142</v>
       </c>
@@ -6219,8 +7061,14 @@
       <c r="I144" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K144">
+        <v>201808</v>
+      </c>
+      <c r="L144" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
@@ -6242,8 +7090,14 @@
       <c r="I145" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K145">
+        <v>201809</v>
+      </c>
+      <c r="L145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
@@ -6265,8 +7119,14 @@
       <c r="I146" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K146">
+        <v>201810</v>
+      </c>
+      <c r="L146" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6288,8 +7148,14 @@
       <c r="I147" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K147">
+        <v>201811</v>
+      </c>
+      <c r="L147" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6311,8 +7177,14 @@
       <c r="I148" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K148">
+        <v>201812</v>
+      </c>
+      <c r="L148" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6334,8 +7206,14 @@
       <c r="I149" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K149">
+        <v>201901</v>
+      </c>
+      <c r="L149" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6357,8 +7235,14 @@
       <c r="I150" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K150">
+        <v>201902</v>
+      </c>
+      <c r="L150" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6380,8 +7264,14 @@
       <c r="I151" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K151">
+        <v>201903</v>
+      </c>
+      <c r="L151" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6403,8 +7293,14 @@
       <c r="I152" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K152">
+        <v>201904</v>
+      </c>
+      <c r="L152" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6426,8 +7322,14 @@
       <c r="I153" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K153">
+        <v>201905</v>
+      </c>
+      <c r="L153" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6449,8 +7351,14 @@
       <c r="I154" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K154">
+        <v>201906</v>
+      </c>
+      <c r="L154" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6472,8 +7380,14 @@
       <c r="I155" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K155">
+        <v>201907</v>
+      </c>
+      <c r="L155" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6495,8 +7409,14 @@
       <c r="I156" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K156">
+        <v>201908</v>
+      </c>
+      <c r="L156" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6518,8 +7438,14 @@
       <c r="I157" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K157">
+        <v>201909</v>
+      </c>
+      <c r="L157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6541,8 +7467,14 @@
       <c r="I158" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K158">
+        <v>201910</v>
+      </c>
+      <c r="L158" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6564,8 +7496,14 @@
       <c r="I159" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K159">
+        <v>201911</v>
+      </c>
+      <c r="L159" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6587,8 +7525,14 @@
       <c r="I160" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K160">
+        <v>201912</v>
+      </c>
+      <c r="L160" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6610,8 +7554,14 @@
       <c r="I161" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K161">
+        <v>202001</v>
+      </c>
+      <c r="L161" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6633,8 +7583,14 @@
       <c r="I162" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K162">
+        <v>202002</v>
+      </c>
+      <c r="L162" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6656,8 +7612,14 @@
       <c r="I163" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K163">
+        <v>202003</v>
+      </c>
+      <c r="L163" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6679,8 +7641,14 @@
       <c r="I164" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K164">
+        <v>202004</v>
+      </c>
+      <c r="L164" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6702,8 +7670,14 @@
       <c r="I165" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K165">
+        <v>202005</v>
+      </c>
+      <c r="L165" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6725,8 +7699,14 @@
       <c r="I166" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K166">
+        <v>202006</v>
+      </c>
+      <c r="L166" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6748,8 +7728,14 @@
       <c r="I167" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K167">
+        <v>202007</v>
+      </c>
+      <c r="L167" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6771,8 +7757,14 @@
       <c r="I168" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K168">
+        <v>202008</v>
+      </c>
+      <c r="L168" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6794,8 +7786,14 @@
       <c r="I169" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K169">
+        <v>202009</v>
+      </c>
+      <c r="L169" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6817,8 +7815,14 @@
       <c r="I170" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K170">
+        <v>202010</v>
+      </c>
+      <c r="L170" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6840,8 +7844,14 @@
       <c r="I171" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K171">
+        <v>202011</v>
+      </c>
+      <c r="L171" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6863,8 +7873,14 @@
       <c r="I172" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K172">
+        <v>202012</v>
+      </c>
+      <c r="L172" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6886,8 +7902,14 @@
       <c r="I173" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K173">
+        <v>202101</v>
+      </c>
+      <c r="L173" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6909,8 +7931,14 @@
       <c r="I174" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K174">
+        <v>202102</v>
+      </c>
+      <c r="L174" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>173</v>
       </c>
@@ -6932,8 +7960,14 @@
       <c r="I175" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K175">
+        <v>202103</v>
+      </c>
+      <c r="L175" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>174</v>
       </c>
@@ -6955,8 +7989,14 @@
       <c r="I176" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K176">
+        <v>202104</v>
+      </c>
+      <c r="L176" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
@@ -6978,8 +8018,14 @@
       <c r="I177" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K177">
+        <v>202105</v>
+      </c>
+      <c r="L177" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7001,8 +8047,14 @@
       <c r="I178" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K178">
+        <v>202106</v>
+      </c>
+      <c r="L178" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7024,8 +8076,14 @@
       <c r="I179" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K179">
+        <v>202107</v>
+      </c>
+      <c r="L179" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7047,8 +8105,14 @@
       <c r="I180" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K180">
+        <v>202108</v>
+      </c>
+      <c r="L180" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7070,8 +8134,14 @@
       <c r="I181" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K181">
+        <v>202109</v>
+      </c>
+      <c r="L181" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7093,8 +8163,14 @@
       <c r="I182" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K182">
+        <v>202110</v>
+      </c>
+      <c r="L182" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7116,8 +8192,14 @@
       <c r="I183" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K183">
+        <v>202111</v>
+      </c>
+      <c r="L183" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7139,8 +8221,14 @@
       <c r="I184" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K184">
+        <v>202112</v>
+      </c>
+      <c r="L184" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7162,8 +8250,14 @@
       <c r="I185" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K185">
+        <v>202201</v>
+      </c>
+      <c r="L185" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7185,8 +8279,14 @@
       <c r="I186" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K186">
+        <v>202202</v>
+      </c>
+      <c r="L186" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7208,8 +8308,14 @@
       <c r="I187" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K187">
+        <v>202203</v>
+      </c>
+      <c r="L187" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7231,8 +8337,14 @@
       <c r="I188" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K188">
+        <v>202204</v>
+      </c>
+      <c r="L188" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7254,8 +8366,14 @@
       <c r="I189" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K189">
+        <v>202205</v>
+      </c>
+      <c r="L189" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7277,8 +8395,14 @@
       <c r="I190" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K190">
+        <v>202206</v>
+      </c>
+      <c r="L190" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>189</v>
       </c>
@@ -7300,8 +8424,14 @@
       <c r="I191" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K191">
+        <v>202207</v>
+      </c>
+      <c r="L191" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>190</v>
       </c>
@@ -7323,8 +8453,14 @@
       <c r="I192" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K192">
+        <v>202208</v>
+      </c>
+      <c r="L192" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7346,8 +8482,14 @@
       <c r="I193" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K193">
+        <v>202209</v>
+      </c>
+      <c r="L193" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>192</v>
       </c>
@@ -7369,8 +8511,14 @@
       <c r="I194" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K194">
+        <v>202210</v>
+      </c>
+      <c r="L194" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>193</v>
       </c>
@@ -7392,8 +8540,14 @@
       <c r="I195" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K195">
+        <v>202211</v>
+      </c>
+      <c r="L195" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>194</v>
       </c>
@@ -7415,8 +8569,14 @@
       <c r="I196" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K196">
+        <v>202212</v>
+      </c>
+      <c r="L196" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7438,8 +8598,14 @@
       <c r="I197" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K197">
+        <v>202301</v>
+      </c>
+      <c r="L197" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7461,8 +8627,14 @@
       <c r="I198" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K198">
+        <v>202302</v>
+      </c>
+      <c r="L198" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7484,8 +8656,14 @@
       <c r="I199" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K199">
+        <v>202303</v>
+      </c>
+      <c r="L199" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7507,8 +8685,14 @@
       <c r="I200" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K200">
+        <v>202304</v>
+      </c>
+      <c r="L200" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7530,13 +8714,20 @@
       <c r="I201" t="s">
         <v>138</v>
       </c>
+      <c r="K201">
+        <v>202305</v>
+      </c>
+      <c r="L201" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:C2" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7544,10 +8735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88D4FE0-2075-4178-8C8F-50E189450DEA}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7559,1303 +8750,1244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>256</v>
+      <c r="D1" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B2,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="7" t="str">
+      <c r="C3" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B3,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="7" t="str">
+      <c r="D4" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B4,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="7" t="str">
+      <c r="D5" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B5,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="7" t="str">
+      <c r="D6" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B6,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="7" t="str">
+      <c r="C7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B7,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="7" t="str">
+      <c r="C8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B8,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="7" t="str">
+      <c r="C9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B9,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="7" t="str">
+      <c r="C10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B10,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="7" t="str">
+      <c r="C11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B11,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="7" t="str">
+      <c r="C12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B12,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="7" t="str">
+      <c r="C13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B13,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="7" t="str">
+      <c r="C14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B14,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="7" t="str">
+      <c r="C15" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B15,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="7" t="str">
+      <c r="C16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B16,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="7" t="str">
+      <c r="C17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B17,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="7" t="str">
+      <c r="D18" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B18,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="7" t="str">
+      <c r="C19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B19,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="7" t="str">
+      <c r="D20" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B20,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="7" t="str">
+      <c r="D21" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B21,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="7" t="str">
+      <c r="D22" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B22,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="7" t="str">
+      <c r="D23" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B23,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B24,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B25,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="7" t="str">
+      <c r="D26" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B26,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="7" t="str">
+      <c r="C27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B27,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D28" s="7" t="str">
+      <c r="C28" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B28,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="7" t="str">
+      <c r="C29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B29,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="7" t="str">
+      <c r="C30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B30,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="7" t="str">
+      <c r="C31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B31,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="7" t="str">
+      <c r="C32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B32,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="7" t="str">
+      <c r="D33" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B33,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="8" t="s">
+    <row r="34" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
+        <v>34</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="7" t="str">
+      <c r="D34" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B34,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="7" t="str">
+      <c r="A35" s="8">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B35,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="7" t="str">
+      <c r="A36" s="8">
+        <v>36</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B36,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="7" t="str">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
+        <v>37</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B37,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="A38" s="8">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="7" t="str">
+      <c r="D38" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B38,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="8" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <v>41</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="7" t="str">
+      <c r="D39" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B39,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="A40" s="8">
+        <v>42</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D40" s="7" t="str">
+      <c r="D40" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B40,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="8" t="s">
+    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>43</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="7" t="str">
+      <c r="D41" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B41,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="A42" s="8">
+        <v>44</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D42" s="7" t="str">
+      <c r="D42" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B42,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>BASE MCDOS</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
-        <v>42</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="8" t="s">
+    <row r="43" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
+        <v>46</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="7" t="str">
+      <c r="D43" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B43,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
-        <v>43</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="8" t="s">
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
+        <v>47</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="7" t="str">
+      <c r="D44" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B44,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
-        <v>44</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="8" t="s">
+      <c r="A45" s="8">
+        <v>48</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="7" t="str">
+      <c r="D45" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B45,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
-        <v>45</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="A46" s="8">
+        <v>49</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D46" s="7" t="str">
+      <c r="D46" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B46,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
-        <v>46</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="7" t="str">
+        <v>CAMPO GENERADO</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
+        <v>50</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B47,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
-        <v>47</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="7" t="str">
+    <row r="48" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
+        <v>51</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B48,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="7" t="str">
+    <row r="49" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A49" s="8">
+        <v>52</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B49,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="9">
-        <v>49</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="7" t="str">
+    <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
+        <v>53</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B50,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="9">
-        <v>50</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D51" s="7" t="str">
+    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A51" s="8">
+        <v>54</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B51,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A52" s="9">
-        <v>51</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D52" s="7" t="str">
+      <c r="A52" s="8">
+        <v>55</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B52,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A53" s="9">
-        <v>52</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" s="7" t="str">
+      <c r="A53" s="8">
+        <v>56</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B53,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A54" s="9">
-        <v>53</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="7" t="str">
+      <c r="A54" s="8">
+        <v>57</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B54,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
-        <v>54</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" s="7" t="str">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="8">
+        <v>58</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B55,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A56" s="9">
-        <v>55</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="7" t="str">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="8">
+        <v>59</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B56,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A57" s="9">
-        <v>56</v>
-      </c>
-      <c r="B57" s="10" t="s">
+    <row r="57" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="8">
+        <v>60</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="7" t="str">
+      <c r="D57" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B57,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A58" s="9">
-        <v>57</v>
-      </c>
-      <c r="B58" s="10" t="s">
+    <row r="58" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="8">
+        <v>61</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="7" t="str">
+      <c r="C58" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B58,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="9">
-        <v>58</v>
-      </c>
-      <c r="B59" s="10" t="s">
+    <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="8">
+        <v>62</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" s="7" t="str">
+      <c r="C59" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B59,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="9">
-        <v>59</v>
-      </c>
-      <c r="B60" s="10" t="s">
+    <row r="60" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="8">
+        <v>63</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D60" s="7" t="str">
+      <c r="C60" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B60,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A61" s="9">
-        <v>60</v>
-      </c>
-      <c r="B61" s="10" t="s">
+    <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="8">
+        <v>64</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D61" s="7" t="str">
+      <c r="D61" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B61,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="9">
-        <v>61</v>
-      </c>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="8">
+        <v>65</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D62" s="7" t="str">
+      <c r="D62" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B62,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="9">
-        <v>62</v>
-      </c>
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="8">
+        <v>66</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D63" s="7" t="str">
+      <c r="D63" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B63,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="9">
-        <v>63</v>
-      </c>
-      <c r="B64" s="10" t="s">
+      <c r="A64" s="8">
+        <v>67</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D64" s="7" t="str">
+      <c r="D64" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B64,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="9">
-        <v>64</v>
-      </c>
-      <c r="B65" s="10" t="s">
+      <c r="A65" s="8">
+        <v>68</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D65" s="7" t="str">
+      <c r="D65" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B65,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="9">
-        <v>65</v>
-      </c>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="8">
+        <v>69</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D66" s="7" t="str">
+      <c r="D66" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B66,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="9">
-        <v>66</v>
-      </c>
-      <c r="B67" s="10" t="s">
+      <c r="A67" s="8">
+        <v>70</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D67" s="7" t="str">
+      <c r="D67" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B67,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="9">
-        <v>67</v>
-      </c>
-      <c r="B68" s="10" t="s">
+      <c r="A68" s="8">
+        <v>71</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D68" s="7" t="str">
+      <c r="D68" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B68,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="9">
-        <v>68</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D69" s="7" t="str">
+      <c r="A69" s="8">
+        <v>72</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B69,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="9">
-        <v>69</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D70" s="7" t="str">
+    <row r="70" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A70" s="8">
+        <v>73</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B70,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="9">
-        <v>70</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="7" t="str">
+      <c r="A71" s="8">
+        <v>74</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B71,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="9">
-        <v>71</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" s="7" t="str">
+      <c r="A72" s="8">
+        <v>75</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B72,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="9">
-        <v>72</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D73" s="7" t="str">
+    <row r="73" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A73" s="8">
+        <v>76</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B73,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A74" s="9">
-        <v>73</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C74" s="8" t="s">
+      <c r="A74" s="8">
+        <v>77</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="7" t="str">
+      <c r="D74" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B74,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A75" s="9">
-        <v>74</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="A75" s="8">
+        <v>78</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D75" s="7" t="str">
+      <c r="D75" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B75,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="9">
-        <v>75</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C76" s="8" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="8">
+        <v>79</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="7" t="str">
+      <c r="D76" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B76,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A77" s="9">
-        <v>76</v>
-      </c>
-      <c r="B77" s="10" t="s">
+      <c r="A77" s="8">
+        <v>80</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D77" s="7" t="str">
+      <c r="D77" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B77,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A78" s="9">
-        <v>77</v>
-      </c>
-      <c r="B78" s="10" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="8">
+        <v>81</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D78" s="7" t="str">
+      <c r="D78" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B78,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A79" s="9">
-        <v>78</v>
-      </c>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="8">
+        <v>82</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D79" s="7" t="str">
+      <c r="D79" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B79,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="9">
-        <v>79</v>
-      </c>
-      <c r="B80" s="10" t="s">
+    <row r="80" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A80" s="8">
+        <v>83</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D80" s="7" t="str">
+      <c r="D80" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B80,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A81" s="9">
-        <v>80</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" s="7" t="str">
-        <f>IFERROR(IF(VLOOKUP(B81,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="9">
-        <v>81</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D82" s="7" t="str">
-        <f>IFERROR(IF(VLOOKUP(B82,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A83" s="9">
-        <v>82</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D83" s="7" t="str">
-        <f>IFERROR(IF(VLOOKUP(B83,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A84" s="9">
-        <v>83</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D84" s="7" t="str">
-        <f>IFERROR(IF(VLOOKUP(B84,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C99" s="4"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:D80" xr:uid="{D88D4FE0-2075-4178-8C8F-50E189450DEA}"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B84">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  <conditionalFormatting sqref="B2:B80">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDGI 231122\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDG 240324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3707AB86-4A7F-44A4-A54A-3CA29769D9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79A8B62-8229-4308-AD61-B923BD0A0644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Descripciones!$A$1:$D$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Detalle!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$B$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$B$198</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="260">
   <si>
     <t>COD_LLAVE_ADJ</t>
   </si>
@@ -818,6 +818,9 @@
   </si>
   <si>
     <t>Identificador numérico único asignado para la distinción de cada producto dentro de la base de datos</t>
+  </si>
+  <si>
+    <t>YA NO EXISTE</t>
   </si>
 </sst>
 </file>
@@ -1274,9 +1277,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1637,7 +1642,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>138</v>
@@ -1645,15 +1650,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>137</v>
@@ -1661,7 +1666,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>137</v>
@@ -1669,23 +1674,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>137</v>
@@ -1693,7 +1698,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>137</v>
@@ -1701,15 +1706,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>52</v>
+      <c r="A54" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>137</v>
@@ -1717,7 +1722,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>137</v>
@@ -1725,7 +1730,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>137</v>
@@ -1733,7 +1738,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>137</v>
@@ -1741,7 +1746,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>137</v>
@@ -1749,7 +1754,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>137</v>
@@ -1757,7 +1762,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>137</v>
@@ -1765,15 +1770,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
+      <c r="A62" t="s">
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>137</v>
@@ -1781,15 +1786,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>137</v>
@@ -1797,7 +1802,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>137</v>
@@ -1805,7 +1810,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>137</v>
@@ -1813,15 +1818,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>66</v>
+      <c r="A68" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>137</v>
@@ -1829,7 +1834,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>137</v>
@@ -1837,7 +1842,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>137</v>
@@ -1845,15 +1850,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
+      <c r="A72" t="s">
+        <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>137</v>
@@ -1861,7 +1866,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>137</v>
@@ -1869,7 +1874,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>137</v>
@@ -1877,23 +1882,23 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>138</v>
@@ -1901,23 +1906,23 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>137</v>
@@ -1925,7 +1930,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>137</v>
@@ -1933,7 +1938,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>137</v>
@@ -1941,7 +1946,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>137</v>
@@ -1949,7 +1954,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>137</v>
@@ -1957,7 +1962,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>137</v>
@@ -1965,7 +1970,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>137</v>
@@ -1973,7 +1978,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>137</v>
@@ -1981,7 +1986,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>137</v>
@@ -1989,39 +1994,39 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
         <v>137</v>
@@ -2029,7 +2034,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
         <v>137</v>
@@ -2037,7 +2042,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>137</v>
@@ -2045,23 +2050,23 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>95</v>
+      <c r="A97" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>96</v>
+      <c r="A98" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>137</v>
@@ -2069,7 +2074,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>137</v>
@@ -2077,7 +2082,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>137</v>
@@ -2085,7 +2090,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>137</v>
@@ -2093,7 +2098,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
         <v>137</v>
@@ -2101,7 +2106,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
         <v>137</v>
@@ -2109,7 +2114,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
         <v>137</v>
@@ -2117,7 +2122,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
         <v>137</v>
@@ -2125,7 +2130,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
         <v>137</v>
@@ -2133,7 +2138,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
         <v>137</v>
@@ -2141,7 +2146,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
         <v>137</v>
@@ -2149,7 +2154,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
         <v>137</v>
@@ -2157,7 +2162,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
         <v>137</v>
@@ -2165,7 +2170,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
         <v>137</v>
@@ -2173,7 +2178,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
         <v>137</v>
@@ -2181,7 +2186,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
         <v>137</v>
@@ -2189,7 +2194,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
         <v>137</v>
@@ -2197,7 +2202,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
         <v>137</v>
@@ -2205,7 +2210,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
         <v>137</v>
@@ -2213,7 +2218,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
         <v>137</v>
@@ -2221,7 +2226,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
         <v>137</v>
@@ -2229,7 +2234,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
         <v>137</v>
@@ -2237,7 +2242,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
         <v>137</v>
@@ -2245,7 +2250,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
         <v>137</v>
@@ -2253,7 +2258,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
         <v>137</v>
@@ -2261,7 +2266,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
         <v>137</v>
@@ -2269,7 +2274,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
         <v>137</v>
@@ -2277,7 +2282,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
         <v>137</v>
@@ -2285,7 +2290,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
         <v>137</v>
@@ -2293,7 +2298,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
         <v>137</v>
@@ -2301,7 +2306,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
         <v>137</v>
@@ -2309,7 +2314,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
         <v>137</v>
@@ -2317,7 +2322,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
         <v>137</v>
@@ -2325,7 +2330,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
         <v>137</v>
@@ -2333,7 +2338,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
         <v>137</v>
@@ -2341,31 +2346,31 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
-        <v>132</v>
+      <c r="A134">
+        <v>201801</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>133</v>
+      <c r="A135">
+        <v>201802</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>201801</v>
+        <v>201803</v>
       </c>
       <c r="B136" t="s">
         <v>138</v>
@@ -2373,7 +2378,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>201802</v>
+        <v>201804</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
@@ -2381,7 +2386,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>201803</v>
+        <v>201805</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
@@ -2389,7 +2394,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>201804</v>
+        <v>201806</v>
       </c>
       <c r="B139" t="s">
         <v>138</v>
@@ -2397,7 +2402,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>201805</v>
+        <v>201807</v>
       </c>
       <c r="B140" t="s">
         <v>138</v>
@@ -2405,7 +2410,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>201806</v>
+        <v>201808</v>
       </c>
       <c r="B141" t="s">
         <v>138</v>
@@ -2413,7 +2418,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>201807</v>
+        <v>201809</v>
       </c>
       <c r="B142" t="s">
         <v>138</v>
@@ -2421,7 +2426,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>201808</v>
+        <v>201810</v>
       </c>
       <c r="B143" t="s">
         <v>138</v>
@@ -2429,7 +2434,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>201809</v>
+        <v>201811</v>
       </c>
       <c r="B144" t="s">
         <v>138</v>
@@ -2437,7 +2442,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>201810</v>
+        <v>201812</v>
       </c>
       <c r="B145" t="s">
         <v>138</v>
@@ -2445,7 +2450,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>201811</v>
+        <v>201901</v>
       </c>
       <c r="B146" t="s">
         <v>138</v>
@@ -2453,7 +2458,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>201812</v>
+        <v>201902</v>
       </c>
       <c r="B147" t="s">
         <v>138</v>
@@ -2461,7 +2466,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>201901</v>
+        <v>201903</v>
       </c>
       <c r="B148" t="s">
         <v>138</v>
@@ -2469,7 +2474,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>201902</v>
+        <v>201904</v>
       </c>
       <c r="B149" t="s">
         <v>138</v>
@@ -2477,7 +2482,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>201903</v>
+        <v>201905</v>
       </c>
       <c r="B150" t="s">
         <v>138</v>
@@ -2485,7 +2490,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>201904</v>
+        <v>201906</v>
       </c>
       <c r="B151" t="s">
         <v>138</v>
@@ -2493,7 +2498,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>201905</v>
+        <v>201907</v>
       </c>
       <c r="B152" t="s">
         <v>138</v>
@@ -2501,7 +2506,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>201906</v>
+        <v>201908</v>
       </c>
       <c r="B153" t="s">
         <v>138</v>
@@ -2509,7 +2514,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>201907</v>
+        <v>201909</v>
       </c>
       <c r="B154" t="s">
         <v>138</v>
@@ -2517,7 +2522,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>201908</v>
+        <v>201910</v>
       </c>
       <c r="B155" t="s">
         <v>138</v>
@@ -2525,7 +2530,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>201909</v>
+        <v>201911</v>
       </c>
       <c r="B156" t="s">
         <v>138</v>
@@ -2533,7 +2538,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>201910</v>
+        <v>201912</v>
       </c>
       <c r="B157" t="s">
         <v>138</v>
@@ -2541,7 +2546,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>201911</v>
+        <v>202001</v>
       </c>
       <c r="B158" t="s">
         <v>138</v>
@@ -2549,7 +2554,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>201912</v>
+        <v>202002</v>
       </c>
       <c r="B159" t="s">
         <v>138</v>
@@ -2557,7 +2562,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>202001</v>
+        <v>202003</v>
       </c>
       <c r="B160" t="s">
         <v>138</v>
@@ -2565,7 +2570,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>202002</v>
+        <v>202004</v>
       </c>
       <c r="B161" t="s">
         <v>138</v>
@@ -2573,7 +2578,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>202003</v>
+        <v>202005</v>
       </c>
       <c r="B162" t="s">
         <v>138</v>
@@ -2581,7 +2586,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>202004</v>
+        <v>202006</v>
       </c>
       <c r="B163" t="s">
         <v>138</v>
@@ -2589,7 +2594,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>202005</v>
+        <v>202007</v>
       </c>
       <c r="B164" t="s">
         <v>138</v>
@@ -2597,7 +2602,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>202006</v>
+        <v>202008</v>
       </c>
       <c r="B165" t="s">
         <v>138</v>
@@ -2605,7 +2610,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>202007</v>
+        <v>202009</v>
       </c>
       <c r="B166" t="s">
         <v>138</v>
@@ -2613,7 +2618,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>202008</v>
+        <v>202010</v>
       </c>
       <c r="B167" t="s">
         <v>138</v>
@@ -2621,7 +2626,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>202009</v>
+        <v>202011</v>
       </c>
       <c r="B168" t="s">
         <v>138</v>
@@ -2629,7 +2634,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>202010</v>
+        <v>202012</v>
       </c>
       <c r="B169" t="s">
         <v>138</v>
@@ -2637,7 +2642,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>202011</v>
+        <v>202101</v>
       </c>
       <c r="B170" t="s">
         <v>138</v>
@@ -2645,7 +2650,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>202012</v>
+        <v>202102</v>
       </c>
       <c r="B171" t="s">
         <v>138</v>
@@ -2653,7 +2658,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>202101</v>
+        <v>202103</v>
       </c>
       <c r="B172" t="s">
         <v>138</v>
@@ -2661,7 +2666,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>202102</v>
+        <v>202104</v>
       </c>
       <c r="B173" t="s">
         <v>138</v>
@@ -2669,7 +2674,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>202103</v>
+        <v>202105</v>
       </c>
       <c r="B174" t="s">
         <v>138</v>
@@ -2677,7 +2682,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>202104</v>
+        <v>202106</v>
       </c>
       <c r="B175" t="s">
         <v>138</v>
@@ -2685,7 +2690,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>202105</v>
+        <v>202107</v>
       </c>
       <c r="B176" t="s">
         <v>138</v>
@@ -2693,7 +2698,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>202106</v>
+        <v>202108</v>
       </c>
       <c r="B177" t="s">
         <v>138</v>
@@ -2701,7 +2706,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>202107</v>
+        <v>202109</v>
       </c>
       <c r="B178" t="s">
         <v>138</v>
@@ -2709,7 +2714,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>202108</v>
+        <v>202110</v>
       </c>
       <c r="B179" t="s">
         <v>138</v>
@@ -2717,7 +2722,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>202109</v>
+        <v>202111</v>
       </c>
       <c r="B180" t="s">
         <v>138</v>
@@ -2725,7 +2730,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>202110</v>
+        <v>202112</v>
       </c>
       <c r="B181" t="s">
         <v>138</v>
@@ -2733,7 +2738,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>202111</v>
+        <v>202201</v>
       </c>
       <c r="B182" t="s">
         <v>138</v>
@@ -2741,7 +2746,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>202112</v>
+        <v>202202</v>
       </c>
       <c r="B183" t="s">
         <v>138</v>
@@ -2749,7 +2754,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>202201</v>
+        <v>202203</v>
       </c>
       <c r="B184" t="s">
         <v>138</v>
@@ -2757,7 +2762,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>202202</v>
+        <v>202204</v>
       </c>
       <c r="B185" t="s">
         <v>138</v>
@@ -2765,7 +2770,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>202203</v>
+        <v>202205</v>
       </c>
       <c r="B186" t="s">
         <v>138</v>
@@ -2773,7 +2778,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>202204</v>
+        <v>202206</v>
       </c>
       <c r="B187" t="s">
         <v>138</v>
@@ -2781,7 +2786,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>202205</v>
+        <v>202207</v>
       </c>
       <c r="B188" t="s">
         <v>138</v>
@@ -2789,7 +2794,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>202206</v>
+        <v>202208</v>
       </c>
       <c r="B189" t="s">
         <v>138</v>
@@ -2797,7 +2802,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>202207</v>
+        <v>202209</v>
       </c>
       <c r="B190" t="s">
         <v>138</v>
@@ -2805,7 +2810,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>202208</v>
+        <v>202210</v>
       </c>
       <c r="B191" t="s">
         <v>138</v>
@@ -2813,7 +2818,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>202209</v>
+        <v>202211</v>
       </c>
       <c r="B192" t="s">
         <v>138</v>
@@ -2821,7 +2826,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>202210</v>
+        <v>202212</v>
       </c>
       <c r="B193" t="s">
         <v>138</v>
@@ -2829,7 +2834,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>202211</v>
+        <v>202301</v>
       </c>
       <c r="B194" t="s">
         <v>138</v>
@@ -2837,7 +2842,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>202212</v>
+        <v>202302</v>
       </c>
       <c r="B195" t="s">
         <v>138</v>
@@ -2845,7 +2850,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>202301</v>
+        <v>202303</v>
       </c>
       <c r="B196" t="s">
         <v>138</v>
@@ -2853,7 +2858,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>202302</v>
+        <v>202304</v>
       </c>
       <c r="B197" t="s">
         <v>138</v>
@@ -2861,40 +2866,24 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>202303</v>
+        <v>202305</v>
       </c>
       <c r="B198" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199">
-        <v>202304</v>
-      </c>
-      <c r="B199" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200">
-        <v>202305</v>
-      </c>
-      <c r="B200" t="s">
-        <v>138</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B200" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}"/>
+  <autoFilter ref="A1:B198" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2903,7 +2892,7 @@
     <col min="8" max="8" width="32.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="10">
         <v>20230901</v>
       </c>
@@ -2920,8 +2909,12 @@
         <v>20231122</v>
       </c>
       <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N1" s="10">
+        <v>20240324</v>
+      </c>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -2949,8 +2942,14 @@
       <c r="L2" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2978,8 +2977,14 @@
       <c r="L3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3007,8 +3012,14 @@
       <c r="L4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3036,8 +3047,14 @@
       <c r="L5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3065,8 +3082,14 @@
       <c r="L6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3094,8 +3117,14 @@
       <c r="L7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3123,8 +3152,14 @@
       <c r="L8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3152,8 +3187,14 @@
       <c r="L9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3181,8 +3222,14 @@
       <c r="L10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3210,8 +3257,14 @@
       <c r="L11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3239,8 +3292,14 @@
       <c r="L12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3268,8 +3327,14 @@
       <c r="L13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3297,8 +3362,14 @@
       <c r="L14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3326,8 +3397,14 @@
       <c r="L15" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3355,8 +3432,14 @@
       <c r="L16" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3384,8 +3467,14 @@
       <c r="L17" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3413,8 +3502,14 @@
       <c r="L18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3442,8 +3537,14 @@
       <c r="L19" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3471,8 +3572,14 @@
       <c r="L20" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3500,8 +3607,14 @@
       <c r="L21" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3529,8 +3642,14 @@
       <c r="L22" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3558,8 +3677,14 @@
       <c r="L23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3587,8 +3712,14 @@
       <c r="L24" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3616,8 +3747,14 @@
       <c r="L25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3645,8 +3782,14 @@
       <c r="L26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3674,8 +3817,14 @@
       <c r="L27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N27" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3703,8 +3852,14 @@
       <c r="L28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3732,8 +3887,14 @@
       <c r="L29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3761,8 +3922,14 @@
       <c r="L30" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3790,8 +3957,14 @@
       <c r="L31" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N31" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3819,8 +3992,14 @@
       <c r="L32" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3848,8 +4027,14 @@
       <c r="L33" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3877,8 +4062,14 @@
       <c r="L34" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3906,8 +4097,14 @@
       <c r="L35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3935,8 +4132,14 @@
       <c r="L36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N36" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3964,8 +4167,14 @@
       <c r="L37" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3993,8 +4202,14 @@
       <c r="L38" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N38" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4022,8 +4237,14 @@
       <c r="L39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4051,8 +4272,14 @@
       <c r="L40" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4080,8 +4307,14 @@
       <c r="L41" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4109,8 +4342,14 @@
       <c r="L42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N42" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4138,8 +4377,14 @@
       <c r="L43" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N43" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4167,8 +4412,14 @@
       <c r="L44" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N44" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4196,8 +4447,14 @@
       <c r="L45" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4225,8 +4482,14 @@
       <c r="L46" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N46" t="s">
+        <v>43</v>
+      </c>
+      <c r="O46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4254,8 +4517,14 @@
       <c r="L47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N47" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4283,8 +4552,14 @@
       <c r="L48" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N48" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4312,8 +4587,14 @@
       <c r="L49" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N49" t="s">
+        <v>46</v>
+      </c>
+      <c r="O49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4341,8 +4622,14 @@
       <c r="L50" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N50" t="s">
+        <v>47</v>
+      </c>
+      <c r="O50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4370,8 +4657,14 @@
       <c r="L51" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N51" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4399,8 +4692,14 @@
       <c r="L52" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N52" t="s">
+        <v>49</v>
+      </c>
+      <c r="O52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4428,8 +4727,14 @@
       <c r="L53" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N53" t="s">
+        <v>50</v>
+      </c>
+      <c r="O53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4457,8 +4762,14 @@
       <c r="L54" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N54" t="s">
+        <v>51</v>
+      </c>
+      <c r="O54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4486,8 +4797,14 @@
       <c r="L55" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N55" t="s">
+        <v>52</v>
+      </c>
+      <c r="O55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4515,8 +4832,14 @@
       <c r="L56" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4544,8 +4867,14 @@
       <c r="L57" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4573,8 +4902,14 @@
       <c r="L58" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4602,8 +4937,14 @@
       <c r="L59" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4631,8 +4972,14 @@
       <c r="L60" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4660,8 +5007,14 @@
       <c r="L61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4689,8 +5042,14 @@
       <c r="L62" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4718,8 +5077,14 @@
       <c r="L63" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4747,8 +5112,14 @@
       <c r="L64" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4776,8 +5147,14 @@
       <c r="L65" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N65" t="s">
+        <v>62</v>
+      </c>
+      <c r="O65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4805,8 +5182,14 @@
       <c r="L66" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N66" t="s">
+        <v>63</v>
+      </c>
+      <c r="O66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4834,8 +5217,14 @@
       <c r="L67" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N67" t="s">
+        <v>64</v>
+      </c>
+      <c r="O67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4863,8 +5252,14 @@
       <c r="L68" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N68" t="s">
+        <v>65</v>
+      </c>
+      <c r="O68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4892,8 +5287,14 @@
       <c r="L69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N69" t="s">
+        <v>66</v>
+      </c>
+      <c r="O69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4921,8 +5322,14 @@
       <c r="L70" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N70" t="s">
+        <v>67</v>
+      </c>
+      <c r="O70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4950,8 +5357,14 @@
       <c r="L71" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4979,8 +5392,14 @@
       <c r="L72" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N72" t="s">
+        <v>69</v>
+      </c>
+      <c r="O72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5008,8 +5427,14 @@
       <c r="L73" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5037,8 +5462,14 @@
       <c r="L74" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N74" t="s">
+        <v>71</v>
+      </c>
+      <c r="O74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5066,8 +5497,14 @@
       <c r="L75" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5095,8 +5532,14 @@
       <c r="L76" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N76" t="s">
+        <v>73</v>
+      </c>
+      <c r="O76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5124,8 +5567,14 @@
       <c r="L77" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N77" t="s">
+        <v>74</v>
+      </c>
+      <c r="O77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5153,8 +5602,14 @@
       <c r="L78" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N78" t="s">
+        <v>75</v>
+      </c>
+      <c r="O78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5182,8 +5637,14 @@
       <c r="L79" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N79" t="s">
+        <v>76</v>
+      </c>
+      <c r="O79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5211,8 +5672,14 @@
       <c r="L80" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N80" t="s">
+        <v>77</v>
+      </c>
+      <c r="O80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5240,8 +5707,14 @@
       <c r="L81" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N81" t="s">
+        <v>78</v>
+      </c>
+      <c r="O81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5269,8 +5742,14 @@
       <c r="L82" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N82" t="s">
+        <v>79</v>
+      </c>
+      <c r="O82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5298,8 +5777,14 @@
       <c r="L83" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N83" t="s">
+        <v>80</v>
+      </c>
+      <c r="O83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5327,8 +5812,14 @@
       <c r="L84" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N84" t="s">
+        <v>81</v>
+      </c>
+      <c r="O84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5356,8 +5847,14 @@
       <c r="L85" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N85" t="s">
+        <v>82</v>
+      </c>
+      <c r="O85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5385,8 +5882,14 @@
       <c r="L86" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N86" t="s">
+        <v>83</v>
+      </c>
+      <c r="O86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5414,8 +5917,14 @@
       <c r="L87" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N87" t="s">
+        <v>84</v>
+      </c>
+      <c r="O87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5443,8 +5952,14 @@
       <c r="L88" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N88" t="s">
+        <v>85</v>
+      </c>
+      <c r="O88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5472,8 +5987,14 @@
       <c r="L89" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N89" t="s">
+        <v>86</v>
+      </c>
+      <c r="O89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5501,8 +6022,14 @@
       <c r="L90" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N90" t="s">
+        <v>87</v>
+      </c>
+      <c r="O90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5530,8 +6057,14 @@
       <c r="L91" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N91" t="s">
+        <v>88</v>
+      </c>
+      <c r="O91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5559,8 +6092,14 @@
       <c r="L92" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N92" t="s">
+        <v>89</v>
+      </c>
+      <c r="O92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5588,8 +6127,14 @@
       <c r="L93" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N93" t="s">
+        <v>90</v>
+      </c>
+      <c r="O93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5617,8 +6162,14 @@
       <c r="L94" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N94" t="s">
+        <v>91</v>
+      </c>
+      <c r="O94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5646,8 +6197,14 @@
       <c r="L95" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N95" t="s">
+        <v>92</v>
+      </c>
+      <c r="O95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5675,8 +6232,14 @@
       <c r="L96" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N96" t="s">
+        <v>93</v>
+      </c>
+      <c r="O96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5704,8 +6267,14 @@
       <c r="L97" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N97" t="s">
+        <v>94</v>
+      </c>
+      <c r="O97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5733,8 +6302,14 @@
       <c r="L98" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N98" t="s">
+        <v>95</v>
+      </c>
+      <c r="O98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5762,8 +6337,14 @@
       <c r="L99" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N99" t="s">
+        <v>96</v>
+      </c>
+      <c r="O99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5791,8 +6372,14 @@
       <c r="L100" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5820,8 +6407,14 @@
       <c r="L101" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5849,8 +6442,14 @@
       <c r="L102" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5878,8 +6477,14 @@
       <c r="L103" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5907,8 +6512,14 @@
       <c r="L104" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5936,8 +6547,14 @@
       <c r="L105" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N105" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5965,8 +6582,14 @@
       <c r="L106" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5994,8 +6617,14 @@
       <c r="L107" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6023,8 +6652,14 @@
       <c r="L108" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6052,8 +6687,14 @@
       <c r="L109" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6081,8 +6722,14 @@
       <c r="L110" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N110" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6110,8 +6757,14 @@
       <c r="L111" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6139,8 +6792,14 @@
       <c r="L112" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6168,8 +6827,14 @@
       <c r="L113" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N113" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6197,8 +6862,14 @@
       <c r="L114" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6226,8 +6897,14 @@
       <c r="L115" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O115" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6255,8 +6932,14 @@
       <c r="L116" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6284,8 +6967,14 @@
       <c r="L117" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N117" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O117" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6313,8 +7002,14 @@
       <c r="L118" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6342,8 +7037,14 @@
       <c r="L119" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
@@ -6371,8 +7072,14 @@
       <c r="L120" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
@@ -6400,8 +7107,14 @@
       <c r="L121" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
@@ -6429,8 +7142,14 @@
       <c r="L122" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O122" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>
@@ -6458,8 +7177,14 @@
       <c r="L123" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O123" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
@@ -6487,8 +7212,14 @@
       <c r="L124" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N124" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O124" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>123</v>
       </c>
@@ -6516,8 +7247,14 @@
       <c r="L125" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>124</v>
       </c>
@@ -6545,8 +7282,14 @@
       <c r="L126" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
@@ -6574,8 +7317,14 @@
       <c r="L127" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N127" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O127" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>126</v>
       </c>
@@ -6603,8 +7352,14 @@
       <c r="L128" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O128" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>127</v>
       </c>
@@ -6632,8 +7387,14 @@
       <c r="L129" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O129" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6661,8 +7422,14 @@
       <c r="L130" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6690,8 +7457,14 @@
       <c r="L131" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6719,8 +7492,14 @@
       <c r="L132" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N132" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O132" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6748,8 +7527,14 @@
       <c r="L133" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6777,8 +7562,14 @@
       <c r="L134" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6806,8 +7597,14 @@
       <c r="L135" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N135" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6835,8 +7632,14 @@
       <c r="L136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N136" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6864,8 +7667,14 @@
       <c r="L137" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N137">
+        <v>201801</v>
+      </c>
+      <c r="O137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>136</v>
       </c>
@@ -6893,8 +7702,14 @@
       <c r="L138" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N138">
+        <v>201802</v>
+      </c>
+      <c r="O138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>137</v>
       </c>
@@ -6922,8 +7737,14 @@
       <c r="L139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N139">
+        <v>201803</v>
+      </c>
+      <c r="O139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>138</v>
       </c>
@@ -6951,8 +7772,14 @@
       <c r="L140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N140">
+        <v>201804</v>
+      </c>
+      <c r="O140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
@@ -6980,8 +7807,14 @@
       <c r="L141" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N141">
+        <v>201805</v>
+      </c>
+      <c r="O141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>140</v>
       </c>
@@ -7009,8 +7842,14 @@
       <c r="L142" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N142">
+        <v>201806</v>
+      </c>
+      <c r="O142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>141</v>
       </c>
@@ -7038,8 +7877,14 @@
       <c r="L143" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N143">
+        <v>201807</v>
+      </c>
+      <c r="O143" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>142</v>
       </c>
@@ -7067,8 +7912,14 @@
       <c r="L144" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N144">
+        <v>201808</v>
+      </c>
+      <c r="O144" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
@@ -7096,8 +7947,14 @@
       <c r="L145" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N145">
+        <v>201809</v>
+      </c>
+      <c r="O145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
@@ -7125,8 +7982,14 @@
       <c r="L146" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N146">
+        <v>201810</v>
+      </c>
+      <c r="O146" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
@@ -7154,8 +8017,14 @@
       <c r="L147" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N147">
+        <v>201811</v>
+      </c>
+      <c r="O147" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
@@ -7183,8 +8052,14 @@
       <c r="L148" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N148">
+        <v>201812</v>
+      </c>
+      <c r="O148" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
@@ -7212,8 +8087,14 @@
       <c r="L149" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N149">
+        <v>201901</v>
+      </c>
+      <c r="O149" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
@@ -7241,8 +8122,14 @@
       <c r="L150" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N150">
+        <v>201902</v>
+      </c>
+      <c r="O150" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
@@ -7270,8 +8157,14 @@
       <c r="L151" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N151">
+        <v>201903</v>
+      </c>
+      <c r="O151" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
@@ -7299,8 +8192,14 @@
       <c r="L152" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N152">
+        <v>201904</v>
+      </c>
+      <c r="O152" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
@@ -7328,8 +8227,14 @@
       <c r="L153" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N153">
+        <v>201905</v>
+      </c>
+      <c r="O153" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
@@ -7357,8 +8262,14 @@
       <c r="L154" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N154">
+        <v>201906</v>
+      </c>
+      <c r="O154" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
@@ -7386,8 +8297,14 @@
       <c r="L155" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N155">
+        <v>201907</v>
+      </c>
+      <c r="O155" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
@@ -7415,8 +8332,14 @@
       <c r="L156" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N156">
+        <v>201908</v>
+      </c>
+      <c r="O156" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
@@ -7444,8 +8367,14 @@
       <c r="L157" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N157">
+        <v>201909</v>
+      </c>
+      <c r="O157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
@@ -7473,8 +8402,14 @@
       <c r="L158" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N158">
+        <v>201910</v>
+      </c>
+      <c r="O158" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
@@ -7502,8 +8437,14 @@
       <c r="L159" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N159">
+        <v>201911</v>
+      </c>
+      <c r="O159" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
@@ -7531,8 +8472,14 @@
       <c r="L160" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N160">
+        <v>201912</v>
+      </c>
+      <c r="O160" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>159</v>
       </c>
@@ -7560,8 +8507,14 @@
       <c r="L161" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N161">
+        <v>202001</v>
+      </c>
+      <c r="O161" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>160</v>
       </c>
@@ -7589,8 +8542,14 @@
       <c r="L162" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N162">
+        <v>202002</v>
+      </c>
+      <c r="O162" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>161</v>
       </c>
@@ -7618,8 +8577,14 @@
       <c r="L163" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N163">
+        <v>202003</v>
+      </c>
+      <c r="O163" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>162</v>
       </c>
@@ -7647,8 +8612,14 @@
       <c r="L164" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N164">
+        <v>202004</v>
+      </c>
+      <c r="O164" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>163</v>
       </c>
@@ -7676,8 +8647,14 @@
       <c r="L165" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N165">
+        <v>202005</v>
+      </c>
+      <c r="O165" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>164</v>
       </c>
@@ -7705,8 +8682,14 @@
       <c r="L166" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N166">
+        <v>202006</v>
+      </c>
+      <c r="O166" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
@@ -7734,8 +8717,14 @@
       <c r="L167" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N167">
+        <v>202007</v>
+      </c>
+      <c r="O167" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>166</v>
       </c>
@@ -7763,8 +8752,14 @@
       <c r="L168" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N168">
+        <v>202008</v>
+      </c>
+      <c r="O168" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>167</v>
       </c>
@@ -7792,8 +8787,14 @@
       <c r="L169" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N169">
+        <v>202009</v>
+      </c>
+      <c r="O169" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>168</v>
       </c>
@@ -7821,8 +8822,14 @@
       <c r="L170" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N170">
+        <v>202010</v>
+      </c>
+      <c r="O170" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>169</v>
       </c>
@@ -7850,8 +8857,14 @@
       <c r="L171" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N171">
+        <v>202011</v>
+      </c>
+      <c r="O171" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>170</v>
       </c>
@@ -7879,8 +8892,14 @@
       <c r="L172" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N172">
+        <v>202012</v>
+      </c>
+      <c r="O172" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>171</v>
       </c>
@@ -7908,8 +8927,14 @@
       <c r="L173" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N173">
+        <v>202101</v>
+      </c>
+      <c r="O173" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>172</v>
       </c>
@@ -7937,8 +8962,14 @@
       <c r="L174" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N174">
+        <v>202102</v>
+      </c>
+      <c r="O174" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7966,8 +8997,14 @@
       <c r="L175" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N175">
+        <v>202103</v>
+      </c>
+      <c r="O175" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7995,8 +9032,14 @@
       <c r="L176" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N176">
+        <v>202104</v>
+      </c>
+      <c r="O176" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
@@ -8024,8 +9067,14 @@
       <c r="L177" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N177">
+        <v>202105</v>
+      </c>
+      <c r="O177" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>176</v>
       </c>
@@ -8053,8 +9102,14 @@
       <c r="L178" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N178">
+        <v>202106</v>
+      </c>
+      <c r="O178" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>177</v>
       </c>
@@ -8082,8 +9137,14 @@
       <c r="L179" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N179">
+        <v>202107</v>
+      </c>
+      <c r="O179" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>178</v>
       </c>
@@ -8111,8 +9172,14 @@
       <c r="L180" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N180">
+        <v>202108</v>
+      </c>
+      <c r="O180" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>179</v>
       </c>
@@ -8140,8 +9207,14 @@
       <c r="L181" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N181">
+        <v>202109</v>
+      </c>
+      <c r="O181" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
@@ -8169,8 +9242,14 @@
       <c r="L182" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N182">
+        <v>202110</v>
+      </c>
+      <c r="O182" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>181</v>
       </c>
@@ -8198,8 +9277,14 @@
       <c r="L183" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N183">
+        <v>202111</v>
+      </c>
+      <c r="O183" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>182</v>
       </c>
@@ -8227,8 +9312,14 @@
       <c r="L184" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N184">
+        <v>202112</v>
+      </c>
+      <c r="O184" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>183</v>
       </c>
@@ -8256,8 +9347,14 @@
       <c r="L185" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N185">
+        <v>202201</v>
+      </c>
+      <c r="O185" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>184</v>
       </c>
@@ -8285,8 +9382,14 @@
       <c r="L186" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N186">
+        <v>202202</v>
+      </c>
+      <c r="O186" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>185</v>
       </c>
@@ -8314,8 +9417,14 @@
       <c r="L187" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N187">
+        <v>202203</v>
+      </c>
+      <c r="O187" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>186</v>
       </c>
@@ -8343,8 +9452,14 @@
       <c r="L188" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N188">
+        <v>202204</v>
+      </c>
+      <c r="O188" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>187</v>
       </c>
@@ -8372,8 +9487,14 @@
       <c r="L189" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N189">
+        <v>202205</v>
+      </c>
+      <c r="O189" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>188</v>
       </c>
@@ -8401,8 +9522,14 @@
       <c r="L190" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N190">
+        <v>202206</v>
+      </c>
+      <c r="O190" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>189</v>
       </c>
@@ -8430,8 +9557,14 @@
       <c r="L191" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N191">
+        <v>202207</v>
+      </c>
+      <c r="O191" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>190</v>
       </c>
@@ -8459,8 +9592,14 @@
       <c r="L192" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N192">
+        <v>202208</v>
+      </c>
+      <c r="O192" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>191</v>
       </c>
@@ -8488,8 +9627,14 @@
       <c r="L193" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N193">
+        <v>202209</v>
+      </c>
+      <c r="O193" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>192</v>
       </c>
@@ -8517,8 +9662,14 @@
       <c r="L194" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N194">
+        <v>202210</v>
+      </c>
+      <c r="O194" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>193</v>
       </c>
@@ -8546,8 +9697,14 @@
       <c r="L195" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N195">
+        <v>202211</v>
+      </c>
+      <c r="O195" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>194</v>
       </c>
@@ -8575,8 +9732,14 @@
       <c r="L196" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N196">
+        <v>202212</v>
+      </c>
+      <c r="O196" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>195</v>
       </c>
@@ -8604,8 +9767,14 @@
       <c r="L197" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N197">
+        <v>202301</v>
+      </c>
+      <c r="O197" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>196</v>
       </c>
@@ -8633,8 +9802,14 @@
       <c r="L198" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N198">
+        <v>202302</v>
+      </c>
+      <c r="O198" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>197</v>
       </c>
@@ -8662,8 +9837,14 @@
       <c r="L199" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N199">
+        <v>202303</v>
+      </c>
+      <c r="O199" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>198</v>
       </c>
@@ -8691,8 +9872,14 @@
       <c r="L200" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N200">
+        <v>202304</v>
+      </c>
+      <c r="O200" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>199</v>
       </c>
@@ -8720,14 +9907,21 @@
       <c r="L201" t="s">
         <v>138</v>
       </c>
+      <c r="N201">
+        <v>202305</v>
+      </c>
+      <c r="O201" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:C2" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9255,7 +10449,7 @@
       </c>
       <c r="D34" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B34,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -9300,7 +10494,7 @@
       </c>
       <c r="D37" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B37,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>CAMPO GENERADO</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -9588,7 +10782,7 @@
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>60</v>
       </c>
@@ -9798,7 +10992,7 @@
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A71" s="8">
         <v>74</v>
       </c>

--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDG 240324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79A8B62-8229-4308-AD61-B923BD0A0644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F5614E-C657-4EA4-B016-024DCAB63B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Descripciones!$A$1:$D$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Detalle!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$B$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Detalle!$N$2:$Q$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$D$215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="271">
   <si>
     <t>COD_LLAVE_ADJ</t>
   </si>
@@ -820,7 +820,40 @@
     <t>Identificador numérico único asignado para la distinción de cada producto dentro de la base de datos</t>
   </si>
   <si>
-    <t>YA NO EXISTE</t>
+    <t>OFTA_SEG_CONSUMIDOR</t>
+  </si>
+  <si>
+    <t>MK_SIN_LIRAGLUTIDA</t>
+  </si>
+  <si>
+    <t>MK_TERAPIA</t>
+  </si>
+  <si>
+    <t>MK_SUBTERAPIA</t>
+  </si>
+  <si>
+    <t>MK_FOCO_ES</t>
+  </si>
+  <si>
+    <t>MK_FOCO_CR</t>
+  </si>
+  <si>
+    <t>MK_SEGUIMIENTO_MEDICINA_GENERAL</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Base 2023</t>
+  </si>
+  <si>
+    <t>Base 2024</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>Ya no exite el cmapo</t>
   </si>
 </sst>
 </file>
@@ -1277,1622 +1310,2411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="B74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="B81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="B82" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="B83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B83" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="B85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="B86" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B86" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="B88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="B89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B88" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="B90" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B89" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="B91" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="B92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="B93" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="B95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="B96" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="B97" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="B98" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+      <c r="B99" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+      <c r="B100" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="B101" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+      <c r="B102" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+      <c r="B104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
+      <c r="B105" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
+      <c r="B106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
+      <c r="B107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
+      <c r="B108" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
+      <c r="B109" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
+      <c r="B110" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+      <c r="B111" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
+      <c r="B112" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
+      <c r="B113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
+      <c r="B114" t="s">
+        <v>137</v>
+      </c>
+      <c r="C114" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
+      <c r="B115" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
+      <c r="B116" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B115" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
+      <c r="B117" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
+      <c r="B118" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
+      <c r="B120" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
+      <c r="B121" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
+      <c r="B122" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+      <c r="B123" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
+      <c r="B124" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
+      <c r="B125" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
+      <c r="B126" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B127" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
+      <c r="B129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B128" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
+      <c r="B130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
+      <c r="B131" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B130" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
+      <c r="B132" t="s">
+        <v>137</v>
+      </c>
+      <c r="C132" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B131" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="1" t="s">
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B132" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B133" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134">
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136">
         <v>201801</v>
       </c>
-      <c r="B134" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135">
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137">
         <v>201802</v>
       </c>
-      <c r="B135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136">
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138">
         <v>201803</v>
       </c>
-      <c r="B136" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137">
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139">
         <v>201804</v>
       </c>
-      <c r="B137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138">
+      <c r="B139" t="s">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140">
         <v>201805</v>
       </c>
-      <c r="B138" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139">
+      <c r="B140" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141">
         <v>201806</v>
       </c>
-      <c r="B139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140">
+      <c r="B141" t="s">
+        <v>138</v>
+      </c>
+      <c r="C141" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142">
         <v>201807</v>
       </c>
-      <c r="B140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141">
+      <c r="B142" t="s">
+        <v>138</v>
+      </c>
+      <c r="C142" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143">
         <v>201808</v>
       </c>
-      <c r="B141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142">
+      <c r="B143" t="s">
+        <v>138</v>
+      </c>
+      <c r="C143" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144">
         <v>201809</v>
       </c>
-      <c r="B142" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143">
+      <c r="B144" t="s">
+        <v>138</v>
+      </c>
+      <c r="C144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145">
         <v>201810</v>
       </c>
-      <c r="B143" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144">
+      <c r="B145" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146">
         <v>201811</v>
       </c>
-      <c r="B144" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145">
+      <c r="B146" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147">
         <v>201812</v>
       </c>
-      <c r="B145" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146">
+      <c r="B147" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148">
         <v>201901</v>
       </c>
-      <c r="B146" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147">
+      <c r="B148" t="s">
+        <v>138</v>
+      </c>
+      <c r="C148" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149">
         <v>201902</v>
       </c>
-      <c r="B147" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148">
+      <c r="B149" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150">
         <v>201903</v>
       </c>
-      <c r="B148" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149">
+      <c r="B150" t="s">
+        <v>138</v>
+      </c>
+      <c r="C150" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151">
         <v>201904</v>
       </c>
-      <c r="B149" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150">
+      <c r="B151" t="s">
+        <v>138</v>
+      </c>
+      <c r="C151" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152">
         <v>201905</v>
       </c>
-      <c r="B150" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151">
+      <c r="B152" t="s">
+        <v>138</v>
+      </c>
+      <c r="C152" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153">
         <v>201906</v>
       </c>
-      <c r="B151" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152">
+      <c r="B153" t="s">
+        <v>138</v>
+      </c>
+      <c r="C153" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154">
         <v>201907</v>
       </c>
-      <c r="B152" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153">
+      <c r="B154" t="s">
+        <v>138</v>
+      </c>
+      <c r="C154" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155">
         <v>201908</v>
       </c>
-      <c r="B153" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154">
+      <c r="B155" t="s">
+        <v>138</v>
+      </c>
+      <c r="C155" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156">
         <v>201909</v>
       </c>
-      <c r="B154" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155">
+      <c r="B156" t="s">
+        <v>138</v>
+      </c>
+      <c r="C156" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157">
         <v>201910</v>
       </c>
-      <c r="B155" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156">
+      <c r="B157" t="s">
+        <v>138</v>
+      </c>
+      <c r="C157" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158">
         <v>201911</v>
       </c>
-      <c r="B156" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157">
+      <c r="B158" t="s">
+        <v>138</v>
+      </c>
+      <c r="C158" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159">
         <v>201912</v>
       </c>
-      <c r="B157" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158">
+      <c r="B159" t="s">
+        <v>138</v>
+      </c>
+      <c r="C159" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160">
         <v>202001</v>
       </c>
-      <c r="B158" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159">
+      <c r="B160" t="s">
+        <v>138</v>
+      </c>
+      <c r="C160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161">
         <v>202002</v>
       </c>
-      <c r="B159" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160">
+      <c r="B161" t="s">
+        <v>138</v>
+      </c>
+      <c r="C161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162">
         <v>202003</v>
       </c>
-      <c r="B160" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161">
+      <c r="B162" t="s">
+        <v>138</v>
+      </c>
+      <c r="C162" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163">
         <v>202004</v>
       </c>
-      <c r="B161" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162">
+      <c r="B163" t="s">
+        <v>138</v>
+      </c>
+      <c r="C163" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164">
         <v>202005</v>
       </c>
-      <c r="B162" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163">
+      <c r="B164" t="s">
+        <v>138</v>
+      </c>
+      <c r="C164" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165">
         <v>202006</v>
       </c>
-      <c r="B163" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164">
+      <c r="B165" t="s">
+        <v>138</v>
+      </c>
+      <c r="C165" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166">
         <v>202007</v>
       </c>
-      <c r="B164" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165">
+      <c r="B166" t="s">
+        <v>138</v>
+      </c>
+      <c r="C166" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167">
         <v>202008</v>
       </c>
-      <c r="B165" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166">
+      <c r="B167" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168">
         <v>202009</v>
       </c>
-      <c r="B166" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167">
+      <c r="B168" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169">
         <v>202010</v>
       </c>
-      <c r="B167" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168">
+      <c r="B169" t="s">
+        <v>138</v>
+      </c>
+      <c r="C169" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170">
         <v>202011</v>
       </c>
-      <c r="B168" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169">
+      <c r="B170" t="s">
+        <v>138</v>
+      </c>
+      <c r="C170" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171">
         <v>202012</v>
       </c>
-      <c r="B169" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170">
+      <c r="B171" t="s">
+        <v>138</v>
+      </c>
+      <c r="C171" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172">
         <v>202101</v>
       </c>
-      <c r="B170" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171">
+      <c r="B172" t="s">
+        <v>138</v>
+      </c>
+      <c r="C172" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173">
         <v>202102</v>
       </c>
-      <c r="B171" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172">
+      <c r="B173" t="s">
+        <v>138</v>
+      </c>
+      <c r="C173" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174">
         <v>202103</v>
       </c>
-      <c r="B172" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173">
+      <c r="B174" t="s">
+        <v>138</v>
+      </c>
+      <c r="C174" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175">
         <v>202104</v>
       </c>
-      <c r="B173" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174">
+      <c r="B175" t="s">
+        <v>138</v>
+      </c>
+      <c r="C175" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176">
         <v>202105</v>
       </c>
-      <c r="B174" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175">
+      <c r="B176" t="s">
+        <v>138</v>
+      </c>
+      <c r="C176" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177">
         <v>202106</v>
       </c>
-      <c r="B175" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176">
+      <c r="B177" t="s">
+        <v>138</v>
+      </c>
+      <c r="C177" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178">
         <v>202107</v>
       </c>
-      <c r="B176" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177">
+      <c r="B178" t="s">
+        <v>138</v>
+      </c>
+      <c r="C178" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179">
         <v>202108</v>
       </c>
-      <c r="B177" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178">
+      <c r="B179" t="s">
+        <v>138</v>
+      </c>
+      <c r="C179" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180">
         <v>202109</v>
       </c>
-      <c r="B178" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179">
+      <c r="B180" t="s">
+        <v>138</v>
+      </c>
+      <c r="C180" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181">
         <v>202110</v>
       </c>
-      <c r="B179" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180">
+      <c r="B181" t="s">
+        <v>138</v>
+      </c>
+      <c r="C181" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182">
         <v>202111</v>
       </c>
-      <c r="B180" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181">
+      <c r="B182" t="s">
+        <v>138</v>
+      </c>
+      <c r="C182" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183">
         <v>202112</v>
       </c>
-      <c r="B181" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182">
+      <c r="B183" t="s">
+        <v>138</v>
+      </c>
+      <c r="C183" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184">
         <v>202201</v>
       </c>
-      <c r="B182" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183">
+      <c r="B184" t="s">
+        <v>138</v>
+      </c>
+      <c r="C184" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185">
         <v>202202</v>
       </c>
-      <c r="B183" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184">
+      <c r="B185" t="s">
+        <v>138</v>
+      </c>
+      <c r="C185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186">
         <v>202203</v>
       </c>
-      <c r="B184" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185">
+      <c r="B186" t="s">
+        <v>138</v>
+      </c>
+      <c r="C186" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187">
         <v>202204</v>
       </c>
-      <c r="B185" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186">
+      <c r="B187" t="s">
+        <v>138</v>
+      </c>
+      <c r="C187" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188">
         <v>202205</v>
       </c>
-      <c r="B186" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187">
+      <c r="B188" t="s">
+        <v>138</v>
+      </c>
+      <c r="C188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189">
         <v>202206</v>
       </c>
-      <c r="B187" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188">
+      <c r="B189" t="s">
+        <v>138</v>
+      </c>
+      <c r="C189" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190">
         <v>202207</v>
       </c>
-      <c r="B188" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189">
+      <c r="B190" t="s">
+        <v>138</v>
+      </c>
+      <c r="C190" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191">
         <v>202208</v>
       </c>
-      <c r="B189" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190">
+      <c r="B191" t="s">
+        <v>138</v>
+      </c>
+      <c r="C191" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192">
         <v>202209</v>
       </c>
-      <c r="B190" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191">
+      <c r="B192" t="s">
+        <v>138</v>
+      </c>
+      <c r="C192" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193">
         <v>202210</v>
       </c>
-      <c r="B191" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192">
+      <c r="B193" t="s">
+        <v>138</v>
+      </c>
+      <c r="C193" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194">
         <v>202211</v>
       </c>
-      <c r="B192" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193">
+      <c r="B194" t="s">
+        <v>138</v>
+      </c>
+      <c r="C194" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195">
         <v>202212</v>
       </c>
-      <c r="B193" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194">
+      <c r="B195" t="s">
+        <v>138</v>
+      </c>
+      <c r="C195" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196">
         <v>202301</v>
       </c>
-      <c r="B194" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195">
+      <c r="B196" t="s">
+        <v>138</v>
+      </c>
+      <c r="C196" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197">
         <v>202302</v>
       </c>
-      <c r="B195" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196">
+      <c r="B197" t="s">
+        <v>138</v>
+      </c>
+      <c r="C197" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198">
         <v>202303</v>
       </c>
-      <c r="B196" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197">
+      <c r="B198" t="s">
+        <v>138</v>
+      </c>
+      <c r="C198" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199">
         <v>202304</v>
       </c>
-      <c r="B197" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198">
+      <c r="B199" t="s">
+        <v>138</v>
+      </c>
+      <c r="C199" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200">
         <v>202305</v>
       </c>
-      <c r="B198" t="s">
-        <v>138</v>
+      <c r="B200" t="s">
+        <v>138</v>
+      </c>
+      <c r="C200" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>259</v>
+      </c>
+      <c r="B201" t="s">
+        <v>137</v>
+      </c>
+      <c r="C201" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>260</v>
+      </c>
+      <c r="B202" t="s">
+        <v>137</v>
+      </c>
+      <c r="C202" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>261</v>
+      </c>
+      <c r="B203" t="s">
+        <v>137</v>
+      </c>
+      <c r="C203" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>262</v>
+      </c>
+      <c r="B204" t="s">
+        <v>137</v>
+      </c>
+      <c r="C204" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>263</v>
+      </c>
+      <c r="B205" t="s">
+        <v>137</v>
+      </c>
+      <c r="C205" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>264</v>
+      </c>
+      <c r="B206" t="s">
+        <v>137</v>
+      </c>
+      <c r="C206" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>265</v>
+      </c>
+      <c r="B207" t="s">
+        <v>137</v>
+      </c>
+      <c r="C207" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>202306</v>
+      </c>
+      <c r="B208" t="s">
+        <v>138</v>
+      </c>
+      <c r="C208" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>202307</v>
+      </c>
+      <c r="B209" t="s">
+        <v>138</v>
+      </c>
+      <c r="C209" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>202308</v>
+      </c>
+      <c r="B210" t="s">
+        <v>138</v>
+      </c>
+      <c r="C210" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>202309</v>
+      </c>
+      <c r="B211" t="s">
+        <v>138</v>
+      </c>
+      <c r="C211" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>202310</v>
+      </c>
+      <c r="B212" t="s">
+        <v>138</v>
+      </c>
+      <c r="C212" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>202311</v>
+      </c>
+      <c r="B213" t="s">
+        <v>138</v>
+      </c>
+      <c r="C213" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>202312</v>
+      </c>
+      <c r="B214" t="s">
+        <v>138</v>
+      </c>
+      <c r="C214" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>202401</v>
+      </c>
+      <c r="B215" t="s">
+        <v>138</v>
+      </c>
+      <c r="C215" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B198" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}"/>
+  <autoFilter ref="A1:D215" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}">
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1"/>
+      <selection activeCell="N2" sqref="N2:Q216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" s="10">
         <v>20230901</v>
       </c>
@@ -2913,8 +3735,9 @@
         <v>20240324</v>
       </c>
       <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -2948,8 +3771,14 @@
       <c r="O2" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2983,8 +3812,11 @@
       <c r="O3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3018,8 +3850,11 @@
       <c r="O4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3053,8 +3888,11 @@
       <c r="O5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3088,8 +3926,11 @@
       <c r="O6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3123,8 +3964,11 @@
       <c r="O7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3158,8 +4002,11 @@
       <c r="O8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3193,8 +4040,11 @@
       <c r="O9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3228,8 +4078,11 @@
       <c r="O10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3263,8 +4116,11 @@
       <c r="O11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3298,8 +4154,11 @@
       <c r="O12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3333,8 +4192,11 @@
       <c r="O13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3368,8 +4230,11 @@
       <c r="O14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3403,8 +4268,11 @@
       <c r="O15" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3438,8 +4306,11 @@
       <c r="O16" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3473,8 +4344,11 @@
       <c r="O17" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3508,8 +4382,11 @@
       <c r="O18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3543,8 +4420,11 @@
       <c r="O19" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3578,8 +4458,11 @@
       <c r="O20" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3613,8 +4496,11 @@
       <c r="O21" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3648,8 +4534,11 @@
       <c r="O22" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3683,8 +4572,11 @@
       <c r="O23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3718,8 +4610,11 @@
       <c r="O24" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3753,8 +4648,11 @@
       <c r="O25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3788,8 +4686,11 @@
       <c r="O26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3823,8 +4724,11 @@
       <c r="O27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3858,8 +4762,11 @@
       <c r="O28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3893,8 +4800,11 @@
       <c r="O29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3928,8 +4838,11 @@
       <c r="O30" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3963,8 +4876,11 @@
       <c r="O31" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3998,8 +4914,11 @@
       <c r="O32" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4033,8 +4952,11 @@
       <c r="O33" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4068,8 +4990,11 @@
       <c r="O34" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4103,8 +5028,11 @@
       <c r="O35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4138,8 +5066,11 @@
       <c r="O36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4173,8 +5104,11 @@
       <c r="O37" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4208,8 +5142,11 @@
       <c r="O38" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4243,8 +5180,11 @@
       <c r="O39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4278,8 +5218,11 @@
       <c r="O40" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4313,8 +5256,11 @@
       <c r="O41" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4348,8 +5294,11 @@
       <c r="O42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4383,8 +5332,11 @@
       <c r="O43" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4418,8 +5370,11 @@
       <c r="O44" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4453,8 +5408,11 @@
       <c r="O45" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4486,10 +5444,19 @@
         <v>43</v>
       </c>
       <c r="O46" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="P46" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>270</v>
+      </c>
+      <c r="S46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4523,8 +5490,11 @@
       <c r="O47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4558,8 +5528,11 @@
       <c r="O48" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4593,8 +5566,11 @@
       <c r="O49" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4628,8 +5604,11 @@
       <c r="O50" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4663,8 +5642,11 @@
       <c r="O51" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4698,8 +5680,11 @@
       <c r="O52" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4733,8 +5718,11 @@
       <c r="O53" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4768,8 +5756,11 @@
       <c r="O54" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4803,8 +5794,11 @@
       <c r="O55" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4838,8 +5832,11 @@
       <c r="O56" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P56" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4873,8 +5870,11 @@
       <c r="O57" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P57" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4908,8 +5908,11 @@
       <c r="O58" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4943,8 +5946,11 @@
       <c r="O59" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4978,8 +5984,11 @@
       <c r="O60" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5013,8 +6022,11 @@
       <c r="O61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5048,8 +6060,11 @@
       <c r="O62" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5083,8 +6098,11 @@
       <c r="O63" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5116,10 +6134,19 @@
         <v>61</v>
       </c>
       <c r="O64" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="P64" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>270</v>
+      </c>
+      <c r="S64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5153,8 +6180,11 @@
       <c r="O65" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P65" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5188,8 +6218,11 @@
       <c r="O66" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5223,8 +6256,11 @@
       <c r="O67" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5258,8 +6294,11 @@
       <c r="O68" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5293,8 +6332,11 @@
       <c r="O69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5328,8 +6370,11 @@
       <c r="O70" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P70" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5363,8 +6408,11 @@
       <c r="O71" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5398,8 +6446,11 @@
       <c r="O72" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5433,8 +6484,11 @@
       <c r="O73" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5468,8 +6522,11 @@
       <c r="O74" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5503,8 +6560,11 @@
       <c r="O75" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5538,8 +6598,11 @@
       <c r="O76" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P76" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5573,8 +6636,11 @@
       <c r="O77" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P77" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5608,8 +6674,11 @@
       <c r="O78" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P78" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5643,8 +6712,11 @@
       <c r="O79" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P79" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5678,8 +6750,11 @@
       <c r="O80" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P80" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5713,8 +6788,11 @@
       <c r="O81" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5748,8 +6826,11 @@
       <c r="O82" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5783,8 +6864,11 @@
       <c r="O83" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5818,8 +6902,11 @@
       <c r="O84" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5853,8 +6940,11 @@
       <c r="O85" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P85" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5888,8 +6978,11 @@
       <c r="O86" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5923,8 +7016,11 @@
       <c r="O87" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P87" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5958,8 +7054,11 @@
       <c r="O88" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P88" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5993,8 +7092,11 @@
       <c r="O89" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6028,8 +7130,11 @@
       <c r="O90" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6063,8 +7168,11 @@
       <c r="O91" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6098,8 +7206,11 @@
       <c r="O92" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6133,8 +7244,11 @@
       <c r="O93" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6168,8 +7282,11 @@
       <c r="O94" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6203,8 +7320,11 @@
       <c r="O95" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6238,8 +7358,11 @@
       <c r="O96" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6273,8 +7396,11 @@
       <c r="O97" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P97" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6308,8 +7434,11 @@
       <c r="O98" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P98" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6343,8 +7472,11 @@
       <c r="O99" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P99" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6378,8 +7510,11 @@
       <c r="O100" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P100" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6413,8 +7548,11 @@
       <c r="O101" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6448,8 +7586,11 @@
       <c r="O102" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6483,8 +7624,11 @@
       <c r="O103" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P103" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6518,8 +7662,11 @@
       <c r="O104" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P104" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6553,8 +7700,11 @@
       <c r="O105" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6588,8 +7738,11 @@
       <c r="O106" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6623,8 +7776,11 @@
       <c r="O107" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P107" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6658,8 +7814,11 @@
       <c r="O108" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P108" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6693,8 +7852,11 @@
       <c r="O109" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P109" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6728,8 +7890,11 @@
       <c r="O110" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P110" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6763,8 +7928,11 @@
       <c r="O111" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P111" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6798,8 +7966,11 @@
       <c r="O112" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P112" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6833,8 +8004,11 @@
       <c r="O113" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6868,8 +8042,11 @@
       <c r="O114" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P114" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6903,8 +8080,11 @@
       <c r="O115" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P115" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6938,8 +8118,11 @@
       <c r="O116" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P116" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6973,8 +8156,11 @@
       <c r="O117" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7008,8 +8194,11 @@
       <c r="O118" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P118" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7043,8 +8232,11 @@
       <c r="O119" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7078,8 +8270,11 @@
       <c r="O120" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P120" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7113,8 +8308,11 @@
       <c r="O121" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P121" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7148,8 +8346,11 @@
       <c r="O122" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P122" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7183,8 +8384,11 @@
       <c r="O123" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P123" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7218,8 +8422,11 @@
       <c r="O124" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7253,8 +8460,11 @@
       <c r="O125" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7288,8 +8498,11 @@
       <c r="O126" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P126" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
@@ -7323,8 +8536,11 @@
       <c r="O127" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P127" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>126</v>
       </c>
@@ -7358,8 +8574,11 @@
       <c r="O128" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P128" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>127</v>
       </c>
@@ -7393,8 +8612,11 @@
       <c r="O129" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P129" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>128</v>
       </c>
@@ -7428,8 +8650,11 @@
       <c r="O130" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P130" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>129</v>
       </c>
@@ -7463,8 +8688,11 @@
       <c r="O131" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P131" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
@@ -7498,8 +8726,11 @@
       <c r="O132" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P132" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
@@ -7533,8 +8764,11 @@
       <c r="O133" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>132</v>
       </c>
@@ -7568,8 +8802,11 @@
       <c r="O134" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>133</v>
       </c>
@@ -7603,8 +8840,11 @@
       <c r="O135" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>134</v>
       </c>
@@ -7638,8 +8878,11 @@
       <c r="O136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
@@ -7673,8 +8916,11 @@
       <c r="O137" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P137" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>136</v>
       </c>
@@ -7708,8 +8954,11 @@
       <c r="O138" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P138" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>137</v>
       </c>
@@ -7743,8 +8992,11 @@
       <c r="O139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P139" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>138</v>
       </c>
@@ -7778,8 +9030,11 @@
       <c r="O140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P140" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
@@ -7813,8 +9068,11 @@
       <c r="O141" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P141" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>140</v>
       </c>
@@ -7848,8 +9106,11 @@
       <c r="O142" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P142" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>141</v>
       </c>
@@ -7883,8 +9144,11 @@
       <c r="O143" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P143" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>142</v>
       </c>
@@ -7918,8 +9182,11 @@
       <c r="O144" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
@@ -7953,8 +9220,11 @@
       <c r="O145" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P145" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
@@ -7988,8 +9258,11 @@
       <c r="O146" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P146" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
@@ -8023,8 +9296,11 @@
       <c r="O147" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P147" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
@@ -8058,8 +9334,11 @@
       <c r="O148" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P148" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
@@ -8093,8 +9372,11 @@
       <c r="O149" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P149" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
@@ -8128,8 +9410,11 @@
       <c r="O150" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P150" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
@@ -8163,8 +9448,11 @@
       <c r="O151" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P151" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
@@ -8198,8 +9486,11 @@
       <c r="O152" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P152" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
@@ -8233,8 +9524,11 @@
       <c r="O153" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P153" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
@@ -8268,8 +9562,11 @@
       <c r="O154" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P154" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
@@ -8303,8 +9600,11 @@
       <c r="O155" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P155" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
@@ -8338,8 +9638,11 @@
       <c r="O156" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P156" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
@@ -8373,8 +9676,11 @@
       <c r="O157" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P157" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
@@ -8408,8 +9714,11 @@
       <c r="O158" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P158" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
@@ -8443,8 +9752,11 @@
       <c r="O159" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P159" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
@@ -8478,8 +9790,11 @@
       <c r="O160" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>159</v>
       </c>
@@ -8513,8 +9828,11 @@
       <c r="O161" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>160</v>
       </c>
@@ -8548,8 +9866,11 @@
       <c r="O162" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P162" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>161</v>
       </c>
@@ -8583,8 +9904,11 @@
       <c r="O163" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P163" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>162</v>
       </c>
@@ -8618,8 +9942,11 @@
       <c r="O164" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P164" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>163</v>
       </c>
@@ -8653,8 +9980,11 @@
       <c r="O165" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P165" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>164</v>
       </c>
@@ -8688,8 +10018,11 @@
       <c r="O166" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P166" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
@@ -8723,8 +10056,11 @@
       <c r="O167" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P167" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>166</v>
       </c>
@@ -8758,8 +10094,11 @@
       <c r="O168" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P168" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>167</v>
       </c>
@@ -8793,8 +10132,11 @@
       <c r="O169" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P169" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>168</v>
       </c>
@@ -8828,8 +10170,11 @@
       <c r="O170" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P170" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>169</v>
       </c>
@@ -8863,8 +10208,11 @@
       <c r="O171" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P171" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>170</v>
       </c>
@@ -8898,8 +10246,11 @@
       <c r="O172" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P172" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>171</v>
       </c>
@@ -8933,8 +10284,11 @@
       <c r="O173" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P173" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>172</v>
       </c>
@@ -8968,8 +10322,11 @@
       <c r="O174" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P174" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>173</v>
       </c>
@@ -9003,8 +10360,11 @@
       <c r="O175" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P175" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>174</v>
       </c>
@@ -9038,8 +10398,11 @@
       <c r="O176" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P176" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
@@ -9073,8 +10436,11 @@
       <c r="O177" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P177" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>176</v>
       </c>
@@ -9108,8 +10474,11 @@
       <c r="O178" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P178" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>177</v>
       </c>
@@ -9143,8 +10512,11 @@
       <c r="O179" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P179" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>178</v>
       </c>
@@ -9178,8 +10550,11 @@
       <c r="O180" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P180" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>179</v>
       </c>
@@ -9213,8 +10588,11 @@
       <c r="O181" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P181" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
@@ -9248,8 +10626,11 @@
       <c r="O182" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P182" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>181</v>
       </c>
@@ -9283,8 +10664,11 @@
       <c r="O183" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P183" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>182</v>
       </c>
@@ -9318,8 +10702,11 @@
       <c r="O184" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P184" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>183</v>
       </c>
@@ -9353,8 +10740,11 @@
       <c r="O185" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>184</v>
       </c>
@@ -9388,8 +10778,11 @@
       <c r="O186" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P186" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>185</v>
       </c>
@@ -9423,8 +10816,11 @@
       <c r="O187" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P187" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>186</v>
       </c>
@@ -9458,8 +10854,11 @@
       <c r="O188" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>187</v>
       </c>
@@ -9493,8 +10892,11 @@
       <c r="O189" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P189" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>188</v>
       </c>
@@ -9528,8 +10930,11 @@
       <c r="O190" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P190" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>189</v>
       </c>
@@ -9563,8 +10968,11 @@
       <c r="O191" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P191" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>190</v>
       </c>
@@ -9598,8 +11006,11 @@
       <c r="O192" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P192" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>191</v>
       </c>
@@ -9633,8 +11044,11 @@
       <c r="O193" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P193" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>192</v>
       </c>
@@ -9668,8 +11082,11 @@
       <c r="O194" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P194" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>193</v>
       </c>
@@ -9703,8 +11120,11 @@
       <c r="O195" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P195" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>194</v>
       </c>
@@ -9738,8 +11158,11 @@
       <c r="O196" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P196" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>195</v>
       </c>
@@ -9773,8 +11196,11 @@
       <c r="O197" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P197" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>196</v>
       </c>
@@ -9808,8 +11234,11 @@
       <c r="O198" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P198" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>197</v>
       </c>
@@ -9843,8 +11272,11 @@
       <c r="O199" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P199" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>198</v>
       </c>
@@ -9878,8 +11310,11 @@
       <c r="O200" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P200" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>199</v>
       </c>
@@ -9913,15 +11348,183 @@
       <c r="O201" t="s">
         <v>138</v>
       </c>
+      <c r="P201" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N202" t="s">
+        <v>259</v>
+      </c>
+      <c r="O202" t="s">
+        <v>137</v>
+      </c>
+      <c r="P202" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N203" t="s">
+        <v>260</v>
+      </c>
+      <c r="O203" t="s">
+        <v>137</v>
+      </c>
+      <c r="P203" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N204" t="s">
+        <v>261</v>
+      </c>
+      <c r="O204" t="s">
+        <v>137</v>
+      </c>
+      <c r="P204" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N205" t="s">
+        <v>262</v>
+      </c>
+      <c r="O205" t="s">
+        <v>137</v>
+      </c>
+      <c r="P205" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N206" t="s">
+        <v>263</v>
+      </c>
+      <c r="O206" t="s">
+        <v>137</v>
+      </c>
+      <c r="P206" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N207" t="s">
+        <v>264</v>
+      </c>
+      <c r="O207" t="s">
+        <v>137</v>
+      </c>
+      <c r="P207" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N208" t="s">
+        <v>265</v>
+      </c>
+      <c r="O208" t="s">
+        <v>137</v>
+      </c>
+      <c r="P208" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="209" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N209">
+        <v>202306</v>
+      </c>
+      <c r="O209" t="s">
+        <v>138</v>
+      </c>
+      <c r="P209" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="210" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N210">
+        <v>202307</v>
+      </c>
+      <c r="O210" t="s">
+        <v>138</v>
+      </c>
+      <c r="P210" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="211" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N211">
+        <v>202308</v>
+      </c>
+      <c r="O211" t="s">
+        <v>138</v>
+      </c>
+      <c r="P211" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N212">
+        <v>202309</v>
+      </c>
+      <c r="O212" t="s">
+        <v>138</v>
+      </c>
+      <c r="P212" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="213" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N213">
+        <v>202310</v>
+      </c>
+      <c r="O213" t="s">
+        <v>138</v>
+      </c>
+      <c r="P213" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N214">
+        <v>202311</v>
+      </c>
+      <c r="O214" t="s">
+        <v>138</v>
+      </c>
+      <c r="P214" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N215">
+        <v>202312</v>
+      </c>
+      <c r="O215" t="s">
+        <v>138</v>
+      </c>
+      <c r="P215" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="216" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N216">
+        <v>202401</v>
+      </c>
+      <c r="O216" t="s">
+        <v>138</v>
+      </c>
+      <c r="P216" t="s">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C2" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}"/>
+  <autoFilter ref="N2:Q216" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}"/>
   <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10447,9 +12050,9 @@
       <c r="C34" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="6" t="str">
+      <c r="D34" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B34,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -10492,9 +12095,9 @@
       <c r="C37" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="6" t="str">
+      <c r="D37" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B37,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>CAMPO GENERADO</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -10782,7 +12385,7 @@
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>60</v>
       </c>

--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDG 240324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F5614E-C657-4EA4-B016-024DCAB63B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206BF79C-31C3-42C9-8B75-EBCAAF6A0495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -896,7 +896,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,6 +918,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -975,6 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,7 +1319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}">
   <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3598,7 +3607,7 @@
       <c r="A207" t="s">
         <v>265</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C207" t="s">
@@ -3609,8 +3618,8 @@
       <c r="A208">
         <v>202306</v>
       </c>
-      <c r="B208" t="s">
-        <v>138</v>
+      <c r="B208" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C208" t="s">
         <v>268</v>
@@ -3620,8 +3629,8 @@
       <c r="A209">
         <v>202307</v>
       </c>
-      <c r="B209" t="s">
-        <v>138</v>
+      <c r="B209" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C209" t="s">
         <v>268</v>
@@ -3631,8 +3640,8 @@
       <c r="A210">
         <v>202308</v>
       </c>
-      <c r="B210" t="s">
-        <v>138</v>
+      <c r="B210" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C210" t="s">
         <v>268</v>
@@ -3642,8 +3651,8 @@
       <c r="A211">
         <v>202309</v>
       </c>
-      <c r="B211" t="s">
-        <v>138</v>
+      <c r="B211" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C211" t="s">
         <v>268</v>
@@ -3653,8 +3662,8 @@
       <c r="A212">
         <v>202310</v>
       </c>
-      <c r="B212" t="s">
-        <v>138</v>
+      <c r="B212" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C212" t="s">
         <v>268</v>
@@ -3664,8 +3673,8 @@
       <c r="A213">
         <v>202311</v>
       </c>
-      <c r="B213" t="s">
-        <v>138</v>
+      <c r="B213" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C213" t="s">
         <v>268</v>
@@ -3675,8 +3684,8 @@
       <c r="A214">
         <v>202312</v>
       </c>
-      <c r="B214" t="s">
-        <v>138</v>
+      <c r="B214" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C214" t="s">
         <v>268</v>
@@ -3686,8 +3695,8 @@
       <c r="A215">
         <v>202401</v>
       </c>
-      <c r="B215" t="s">
-        <v>138</v>
+      <c r="B215" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C215" t="s">
         <v>268</v>
@@ -12385,7 +12394,7 @@
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>60</v>
       </c>

--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDG 240324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206BF79C-31C3-42C9-8B75-EBCAAF6A0495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC51DDEC-ECA6-4FF2-B3E6-4A8AA942A30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
@@ -978,10 +978,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3607,7 +3607,7 @@
       <c r="A207" t="s">
         <v>265</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="10" t="s">
         <v>137</v>
       </c>
       <c r="C207" t="s">
@@ -3618,8 +3618,8 @@
       <c r="A208">
         <v>202306</v>
       </c>
-      <c r="B208" s="11" t="s">
-        <v>137</v>
+      <c r="B208" t="s">
+        <v>138</v>
       </c>
       <c r="C208" t="s">
         <v>268</v>
@@ -3629,8 +3629,8 @@
       <c r="A209">
         <v>202307</v>
       </c>
-      <c r="B209" s="11" t="s">
-        <v>137</v>
+      <c r="B209" t="s">
+        <v>138</v>
       </c>
       <c r="C209" t="s">
         <v>268</v>
@@ -3640,8 +3640,8 @@
       <c r="A210">
         <v>202308</v>
       </c>
-      <c r="B210" s="11" t="s">
-        <v>137</v>
+      <c r="B210" t="s">
+        <v>138</v>
       </c>
       <c r="C210" t="s">
         <v>268</v>
@@ -3651,8 +3651,8 @@
       <c r="A211">
         <v>202309</v>
       </c>
-      <c r="B211" s="11" t="s">
-        <v>137</v>
+      <c r="B211" t="s">
+        <v>138</v>
       </c>
       <c r="C211" t="s">
         <v>268</v>
@@ -3662,8 +3662,8 @@
       <c r="A212">
         <v>202310</v>
       </c>
-      <c r="B212" s="11" t="s">
-        <v>137</v>
+      <c r="B212" t="s">
+        <v>138</v>
       </c>
       <c r="C212" t="s">
         <v>268</v>
@@ -3673,8 +3673,8 @@
       <c r="A213">
         <v>202311</v>
       </c>
-      <c r="B213" s="11" t="s">
-        <v>137</v>
+      <c r="B213" t="s">
+        <v>138</v>
       </c>
       <c r="C213" t="s">
         <v>268</v>
@@ -3684,8 +3684,8 @@
       <c r="A214">
         <v>202312</v>
       </c>
-      <c r="B214" s="11" t="s">
-        <v>137</v>
+      <c r="B214" t="s">
+        <v>138</v>
       </c>
       <c r="C214" t="s">
         <v>268</v>
@@ -3695,8 +3695,8 @@
       <c r="A215">
         <v>202401</v>
       </c>
-      <c r="B215" s="11" t="s">
-        <v>137</v>
+      <c r="B215" t="s">
+        <v>138</v>
       </c>
       <c r="C215" t="s">
         <v>268</v>
@@ -3724,27 +3724,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B1" s="10">
+      <c r="B1" s="11">
         <v>20230901</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="E1" s="10">
+      <c r="C1" s="11"/>
+      <c r="E1" s="11">
         <v>20231001</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="H1" s="10">
+      <c r="F1" s="11"/>
+      <c r="H1" s="11">
         <v>20231112</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="K1" s="10">
+      <c r="I1" s="11"/>
+      <c r="K1" s="11">
         <v>20231122</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="N1" s="10">
+      <c r="L1" s="11"/>
+      <c r="N1" s="11">
         <v>20240324</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">

--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDG 240324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC51DDEC-ECA6-4FF2-B3E6-4A8AA942A30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367740E7-9B61-4DA2-BF9E-F6CFC0B2E99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="283">
   <si>
     <t>COD_LLAVE_ADJ</t>
   </si>
@@ -854,6 +854,42 @@
   </si>
   <si>
     <t>Ya no exite el cmapo</t>
+  </si>
+  <si>
+    <t>YEAR 2019</t>
+  </si>
+  <si>
+    <t>YEAR 2020</t>
+  </si>
+  <si>
+    <t>YEAR 2021</t>
+  </si>
+  <si>
+    <t>YEAR 2022</t>
+  </si>
+  <si>
+    <t>YEAR 2023</t>
+  </si>
+  <si>
+    <t>YEAR 2024</t>
+  </si>
+  <si>
+    <t>Movil 2019</t>
+  </si>
+  <si>
+    <t>Movil 2020</t>
+  </si>
+  <si>
+    <t>Movil 2021</t>
+  </si>
+  <si>
+    <t>Movil 2022</t>
+  </si>
+  <si>
+    <t>Movil 2023</t>
+  </si>
+  <si>
+    <t>Movil 2024</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+      <selection activeCell="B227" sqref="B216:C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3699,6 +3735,138 @@
         <v>138</v>
       </c>
       <c r="C215" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>271</v>
+      </c>
+      <c r="B216" t="s">
+        <v>137</v>
+      </c>
+      <c r="C216" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>272</v>
+      </c>
+      <c r="B217" t="s">
+        <v>137</v>
+      </c>
+      <c r="C217" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>273</v>
+      </c>
+      <c r="B218" t="s">
+        <v>137</v>
+      </c>
+      <c r="C218" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>274</v>
+      </c>
+      <c r="B219" t="s">
+        <v>137</v>
+      </c>
+      <c r="C219" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>275</v>
+      </c>
+      <c r="B220" t="s">
+        <v>137</v>
+      </c>
+      <c r="C220" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>276</v>
+      </c>
+      <c r="B221" t="s">
+        <v>137</v>
+      </c>
+      <c r="C221" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>277</v>
+      </c>
+      <c r="B222" t="s">
+        <v>137</v>
+      </c>
+      <c r="C222" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>278</v>
+      </c>
+      <c r="B223" t="s">
+        <v>137</v>
+      </c>
+      <c r="C223" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>279</v>
+      </c>
+      <c r="B224" t="s">
+        <v>137</v>
+      </c>
+      <c r="C224" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>280</v>
+      </c>
+      <c r="B225" t="s">
+        <v>137</v>
+      </c>
+      <c r="C225" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>281</v>
+      </c>
+      <c r="B226" t="s">
+        <v>137</v>
+      </c>
+      <c r="C226" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>282</v>
+      </c>
+      <c r="B227" t="s">
+        <v>137</v>
+      </c>
+      <c r="C227" t="s">
         <v>268</v>
       </c>
     </row>
@@ -12394,7 +12562,7 @@
         <v>CAMPO GENERADO</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>60</v>
       </c>

--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDG 240324\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDG 240413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367740E7-9B61-4DA2-BF9E-F6CFC0B2E99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070636E-9B27-4565-9EBE-508A9409FA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Descripciones!$A$1:$D$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Detalle!$N$2:$Q$216</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$D$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$D$227</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="284">
   <si>
     <t>COD_LLAVE_ADJ</t>
   </si>
@@ -890,6 +890,9 @@
   </si>
   <si>
     <t>Movil 2024</t>
+  </si>
+  <si>
+    <t>Borrado el 240414</t>
   </si>
 </sst>
 </file>
@@ -1057,9 +1060,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1097,7 +1100,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1203,7 +1206,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1345,7 +1348,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1355,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}">
   <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B227" sqref="B216:C227"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1492,22 +1495,28 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>138</v>
+      <c r="B12" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>267</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>138</v>
+      <c r="B13" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>267</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1543,7 +1552,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1554,95 +1563,119 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>138</v>
+      <c r="B18" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C18" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>138</v>
+      <c r="B19" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C19" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>138</v>
+      <c r="B20" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C20" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>138</v>
+      <c r="B21" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C21" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>138</v>
+      <c r="B22" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C22" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>138</v>
+      <c r="B23" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C23" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>138</v>
+      <c r="B24" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C24" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>138</v>
+      <c r="B25" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C25" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1653,7 +1686,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1664,7 +1697,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1675,7 +1708,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1686,7 +1719,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1697,7 +1730,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1708,7 +1741,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1756,77 +1789,98 @@
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>138</v>
+      <c r="B36" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C36" t="s">
         <v>267</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>138</v>
+      <c r="B37" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C37" t="s">
         <v>267</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>138</v>
+      <c r="B38" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C38" t="s">
         <v>267</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>138</v>
+      <c r="B39" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C39" t="s">
         <v>267</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>138</v>
+      <c r="B40" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C40" t="s">
         <v>267</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>138</v>
+      <c r="B41" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C41" t="s">
         <v>267</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>138</v>
+      <c r="B42" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C42" t="s">
         <v>267</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -3871,17 +3925,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D215" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}"/>
+  <autoFilter ref="A1:D227" xr:uid="{BDF1A90A-B3BB-E449-9C60-9C674911C164}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}">
-  <dimension ref="A1:S216"/>
+  <dimension ref="A1:V228"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:Q216"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3891,7 +3945,7 @@
     <col min="16" max="17" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" s="11">
         <v>20230901</v>
       </c>
@@ -3913,8 +3967,13 @@
       </c>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S1" s="11">
+        <v>20240414</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -3954,8 +4013,20 @@
       <c r="Q2" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3992,8 +4063,17 @@
       <c r="P3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4030,8 +4110,17 @@
       <c r="P4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4068,8 +4157,17 @@
       <c r="P5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>137</v>
+      </c>
+      <c r="U5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4106,8 +4204,17 @@
       <c r="P6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4144,8 +4251,17 @@
       <c r="P7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4182,8 +4298,17 @@
       <c r="P8" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>137</v>
+      </c>
+      <c r="U8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4220,8 +4345,17 @@
       <c r="P9" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>138</v>
+      </c>
+      <c r="U9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4258,8 +4392,17 @@
       <c r="P10" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S10" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" t="s">
+        <v>137</v>
+      </c>
+      <c r="U10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4296,8 +4439,17 @@
       <c r="P11" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" t="s">
+        <v>138</v>
+      </c>
+      <c r="U11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4334,8 +4486,17 @@
       <c r="P12" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" t="s">
+        <v>138</v>
+      </c>
+      <c r="U12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4372,8 +4533,17 @@
       <c r="P13" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" t="s">
+        <v>138</v>
+      </c>
+      <c r="U13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4410,8 +4580,17 @@
       <c r="P14" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" t="s">
+        <v>138</v>
+      </c>
+      <c r="U14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4448,8 +4627,17 @@
       <c r="P15" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" t="s">
+        <v>137</v>
+      </c>
+      <c r="U15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4486,8 +4674,17 @@
       <c r="P16" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S16" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4524,8 +4721,17 @@
       <c r="P17" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" t="s">
+        <v>138</v>
+      </c>
+      <c r="U17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4562,8 +4768,17 @@
       <c r="P18" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" t="s">
+        <v>138</v>
+      </c>
+      <c r="U18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4600,8 +4815,17 @@
       <c r="P19" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" t="s">
+        <v>138</v>
+      </c>
+      <c r="U19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4638,8 +4862,17 @@
       <c r="P20" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S20" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" t="s">
+        <v>138</v>
+      </c>
+      <c r="U20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4676,8 +4909,17 @@
       <c r="P21" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" t="s">
+        <v>138</v>
+      </c>
+      <c r="U21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4714,8 +4956,17 @@
       <c r="P22" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" t="s">
+        <v>138</v>
+      </c>
+      <c r="U22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4752,8 +5003,17 @@
       <c r="P23" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S23" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4790,8 +5050,17 @@
       <c r="P24" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S24" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" t="s">
+        <v>138</v>
+      </c>
+      <c r="U24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4828,8 +5097,17 @@
       <c r="P25" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" t="s">
+        <v>138</v>
+      </c>
+      <c r="U25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4866,8 +5144,17 @@
       <c r="P26" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4904,8 +5191,17 @@
       <c r="P27" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S27" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" t="s">
+        <v>138</v>
+      </c>
+      <c r="U27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4942,8 +5238,17 @@
       <c r="P28" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S28" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" t="s">
+        <v>138</v>
+      </c>
+      <c r="U28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4980,8 +5285,17 @@
       <c r="P29" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29" t="s">
+        <v>138</v>
+      </c>
+      <c r="U29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5018,8 +5332,17 @@
       <c r="P30" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S30" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" t="s">
+        <v>138</v>
+      </c>
+      <c r="U30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5056,8 +5379,17 @@
       <c r="P31" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T31" t="s">
+        <v>138</v>
+      </c>
+      <c r="U31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5094,8 +5426,17 @@
       <c r="P32" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S32" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" t="s">
+        <v>138</v>
+      </c>
+      <c r="U32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5132,8 +5473,17 @@
       <c r="P33" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S33" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" t="s">
+        <v>137</v>
+      </c>
+      <c r="U33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5170,8 +5520,17 @@
       <c r="P34" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S34" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" t="s">
+        <v>138</v>
+      </c>
+      <c r="U34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5208,8 +5567,17 @@
       <c r="P35" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35" t="s">
+        <v>138</v>
+      </c>
+      <c r="U35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5246,8 +5614,17 @@
       <c r="P36" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S36" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" t="s">
+        <v>138</v>
+      </c>
+      <c r="U36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5284,8 +5661,17 @@
       <c r="P37" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S37" t="s">
+        <v>34</v>
+      </c>
+      <c r="T37" t="s">
+        <v>138</v>
+      </c>
+      <c r="U37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5322,8 +5708,17 @@
       <c r="P38" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S38" t="s">
+        <v>35</v>
+      </c>
+      <c r="T38" t="s">
+        <v>138</v>
+      </c>
+      <c r="U38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5360,8 +5755,17 @@
       <c r="P39" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S39" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39" t="s">
+        <v>138</v>
+      </c>
+      <c r="U39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5398,8 +5802,17 @@
       <c r="P40" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S40" t="s">
+        <v>37</v>
+      </c>
+      <c r="T40" t="s">
+        <v>138</v>
+      </c>
+      <c r="U40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5436,8 +5849,17 @@
       <c r="P41" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S41" t="s">
+        <v>38</v>
+      </c>
+      <c r="T41" t="s">
+        <v>138</v>
+      </c>
+      <c r="U41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5474,8 +5896,17 @@
       <c r="P42" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S42" t="s">
+        <v>39</v>
+      </c>
+      <c r="T42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5512,8 +5943,17 @@
       <c r="P43" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S43" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s">
+        <v>138</v>
+      </c>
+      <c r="U43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5550,8 +5990,17 @@
       <c r="P44" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S44" t="s">
+        <v>41</v>
+      </c>
+      <c r="T44" t="s">
+        <v>137</v>
+      </c>
+      <c r="U44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5588,8 +6037,17 @@
       <c r="P45" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S45" t="s">
+        <v>42</v>
+      </c>
+      <c r="T45" t="s">
+        <v>137</v>
+      </c>
+      <c r="U45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5632,8 +6090,17 @@
       <c r="S46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T46" t="s">
+        <v>137</v>
+      </c>
+      <c r="U46" t="s">
+        <v>267</v>
+      </c>
+      <c r="V46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5670,8 +6137,17 @@
       <c r="P47" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S47" t="s">
+        <v>44</v>
+      </c>
+      <c r="T47" t="s">
+        <v>138</v>
+      </c>
+      <c r="U47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5708,8 +6184,17 @@
       <c r="P48" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S48" t="s">
+        <v>45</v>
+      </c>
+      <c r="T48" t="s">
+        <v>137</v>
+      </c>
+      <c r="U48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5746,8 +6231,17 @@
       <c r="P49" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S49" t="s">
+        <v>46</v>
+      </c>
+      <c r="T49" t="s">
+        <v>137</v>
+      </c>
+      <c r="U49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5784,8 +6278,17 @@
       <c r="P50" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S50" t="s">
+        <v>47</v>
+      </c>
+      <c r="T50" t="s">
+        <v>137</v>
+      </c>
+      <c r="U50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5822,8 +6325,17 @@
       <c r="P51" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S51" t="s">
+        <v>48</v>
+      </c>
+      <c r="T51" t="s">
+        <v>138</v>
+      </c>
+      <c r="U51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5860,8 +6372,17 @@
       <c r="P52" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S52" t="s">
+        <v>49</v>
+      </c>
+      <c r="T52" t="s">
+        <v>137</v>
+      </c>
+      <c r="U52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5898,8 +6419,17 @@
       <c r="P53" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S53" t="s">
+        <v>50</v>
+      </c>
+      <c r="T53" t="s">
+        <v>137</v>
+      </c>
+      <c r="U53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5936,8 +6466,17 @@
       <c r="P54" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S54" t="s">
+        <v>51</v>
+      </c>
+      <c r="T54" t="s">
+        <v>137</v>
+      </c>
+      <c r="U54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5974,8 +6513,17 @@
       <c r="P55" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S55" t="s">
+        <v>52</v>
+      </c>
+      <c r="T55" t="s">
+        <v>137</v>
+      </c>
+      <c r="U55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6012,8 +6560,17 @@
       <c r="P56" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T56" t="s">
+        <v>137</v>
+      </c>
+      <c r="U56" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6050,8 +6607,17 @@
       <c r="P57" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T57" t="s">
+        <v>137</v>
+      </c>
+      <c r="U57" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6088,8 +6654,17 @@
       <c r="P58" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T58" t="s">
+        <v>137</v>
+      </c>
+      <c r="U58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6126,8 +6701,17 @@
       <c r="P59" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T59" t="s">
+        <v>137</v>
+      </c>
+      <c r="U59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6164,8 +6748,17 @@
       <c r="P60" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T60" t="s">
+        <v>137</v>
+      </c>
+      <c r="U60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6202,8 +6795,17 @@
       <c r="P61" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T61" t="s">
+        <v>137</v>
+      </c>
+      <c r="U61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6240,8 +6842,17 @@
       <c r="P62" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T62" t="s">
+        <v>137</v>
+      </c>
+      <c r="U62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6278,8 +6889,17 @@
       <c r="P63" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T63" t="s">
+        <v>137</v>
+      </c>
+      <c r="U63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6322,8 +6942,17 @@
       <c r="S64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="T64" t="s">
+        <v>137</v>
+      </c>
+      <c r="U64" t="s">
+        <v>267</v>
+      </c>
+      <c r="V64" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6360,8 +6989,17 @@
       <c r="P65" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S65" t="s">
+        <v>62</v>
+      </c>
+      <c r="T65" t="s">
+        <v>137</v>
+      </c>
+      <c r="U65" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6398,8 +7036,17 @@
       <c r="P66" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S66" t="s">
+        <v>63</v>
+      </c>
+      <c r="T66" t="s">
+        <v>137</v>
+      </c>
+      <c r="U66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6436,8 +7083,17 @@
       <c r="P67" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S67" t="s">
+        <v>64</v>
+      </c>
+      <c r="T67" t="s">
+        <v>137</v>
+      </c>
+      <c r="U67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6474,8 +7130,17 @@
       <c r="P68" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S68" t="s">
+        <v>65</v>
+      </c>
+      <c r="T68" t="s">
+        <v>137</v>
+      </c>
+      <c r="U68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6512,8 +7177,17 @@
       <c r="P69" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S69" t="s">
+        <v>66</v>
+      </c>
+      <c r="T69" t="s">
+        <v>137</v>
+      </c>
+      <c r="U69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6550,8 +7224,17 @@
       <c r="P70" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S70" t="s">
+        <v>67</v>
+      </c>
+      <c r="T70" t="s">
+        <v>137</v>
+      </c>
+      <c r="U70" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6588,8 +7271,17 @@
       <c r="P71" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T71" t="s">
+        <v>137</v>
+      </c>
+      <c r="U71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6626,8 +7318,17 @@
       <c r="P72" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S72" t="s">
+        <v>69</v>
+      </c>
+      <c r="T72" t="s">
+        <v>137</v>
+      </c>
+      <c r="U72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6664,8 +7365,17 @@
       <c r="P73" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T73" t="s">
+        <v>137</v>
+      </c>
+      <c r="U73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6702,8 +7412,17 @@
       <c r="P74" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S74" t="s">
+        <v>71</v>
+      </c>
+      <c r="T74" t="s">
+        <v>137</v>
+      </c>
+      <c r="U74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6740,8 +7459,17 @@
       <c r="P75" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S75" t="s">
+        <v>72</v>
+      </c>
+      <c r="T75" t="s">
+        <v>137</v>
+      </c>
+      <c r="U75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6778,8 +7506,17 @@
       <c r="P76" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S76" t="s">
+        <v>73</v>
+      </c>
+      <c r="T76" t="s">
+        <v>137</v>
+      </c>
+      <c r="U76" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6816,8 +7553,17 @@
       <c r="P77" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S77" t="s">
+        <v>74</v>
+      </c>
+      <c r="T77" t="s">
+        <v>137</v>
+      </c>
+      <c r="U77" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6854,8 +7600,17 @@
       <c r="P78" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S78" t="s">
+        <v>75</v>
+      </c>
+      <c r="T78" t="s">
+        <v>138</v>
+      </c>
+      <c r="U78" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6892,8 +7647,17 @@
       <c r="P79" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S79" t="s">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s">
+        <v>138</v>
+      </c>
+      <c r="U79" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6930,8 +7694,17 @@
       <c r="P80" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S80" t="s">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s">
+        <v>138</v>
+      </c>
+      <c r="U80" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6968,8 +7741,17 @@
       <c r="P81" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S81" t="s">
+        <v>78</v>
+      </c>
+      <c r="T81" t="s">
+        <v>137</v>
+      </c>
+      <c r="U81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7006,8 +7788,17 @@
       <c r="P82" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S82" t="s">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s">
+        <v>137</v>
+      </c>
+      <c r="U82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7044,8 +7835,17 @@
       <c r="P83" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S83" t="s">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s">
+        <v>137</v>
+      </c>
+      <c r="U83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7082,8 +7882,17 @@
       <c r="P84" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S84" t="s">
+        <v>81</v>
+      </c>
+      <c r="T84" t="s">
+        <v>137</v>
+      </c>
+      <c r="U84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7120,8 +7929,17 @@
       <c r="P85" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S85" t="s">
+        <v>82</v>
+      </c>
+      <c r="T85" t="s">
+        <v>137</v>
+      </c>
+      <c r="U85" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7158,8 +7976,17 @@
       <c r="P86" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S86" t="s">
+        <v>83</v>
+      </c>
+      <c r="T86" t="s">
+        <v>137</v>
+      </c>
+      <c r="U86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7196,8 +8023,17 @@
       <c r="P87" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S87" t="s">
+        <v>84</v>
+      </c>
+      <c r="T87" t="s">
+        <v>137</v>
+      </c>
+      <c r="U87" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7234,8 +8070,17 @@
       <c r="P88" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S88" t="s">
+        <v>85</v>
+      </c>
+      <c r="T88" t="s">
+        <v>137</v>
+      </c>
+      <c r="U88" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7272,8 +8117,17 @@
       <c r="P89" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S89" t="s">
+        <v>86</v>
+      </c>
+      <c r="T89" t="s">
+        <v>137</v>
+      </c>
+      <c r="U89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7310,8 +8164,17 @@
       <c r="P90" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S90" t="s">
+        <v>87</v>
+      </c>
+      <c r="T90" t="s">
+        <v>137</v>
+      </c>
+      <c r="U90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7348,8 +8211,17 @@
       <c r="P91" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S91" t="s">
+        <v>88</v>
+      </c>
+      <c r="T91" t="s">
+        <v>137</v>
+      </c>
+      <c r="U91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7386,8 +8258,17 @@
       <c r="P92" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S92" t="s">
+        <v>89</v>
+      </c>
+      <c r="T92" t="s">
+        <v>138</v>
+      </c>
+      <c r="U92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7424,8 +8305,17 @@
       <c r="P93" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S93" t="s">
+        <v>90</v>
+      </c>
+      <c r="T93" t="s">
+        <v>138</v>
+      </c>
+      <c r="U93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7462,8 +8352,17 @@
       <c r="P94" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S94" t="s">
+        <v>91</v>
+      </c>
+      <c r="T94" t="s">
+        <v>137</v>
+      </c>
+      <c r="U94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7500,8 +8399,17 @@
       <c r="P95" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S95" t="s">
+        <v>92</v>
+      </c>
+      <c r="T95" t="s">
+        <v>137</v>
+      </c>
+      <c r="U95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7538,8 +8446,17 @@
       <c r="P96" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S96" t="s">
+        <v>93</v>
+      </c>
+      <c r="T96" t="s">
+        <v>137</v>
+      </c>
+      <c r="U96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7576,8 +8493,17 @@
       <c r="P97" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S97" t="s">
+        <v>94</v>
+      </c>
+      <c r="T97" t="s">
+        <v>137</v>
+      </c>
+      <c r="U97" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7614,8 +8540,17 @@
       <c r="P98" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S98" t="s">
+        <v>95</v>
+      </c>
+      <c r="T98" t="s">
+        <v>137</v>
+      </c>
+      <c r="U98" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7652,8 +8587,17 @@
       <c r="P99" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S99" t="s">
+        <v>96</v>
+      </c>
+      <c r="T99" t="s">
+        <v>137</v>
+      </c>
+      <c r="U99" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7690,8 +8634,17 @@
       <c r="P100" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T100" t="s">
+        <v>137</v>
+      </c>
+      <c r="U100" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7728,8 +8681,17 @@
       <c r="P101" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T101" t="s">
+        <v>137</v>
+      </c>
+      <c r="U101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7766,8 +8728,17 @@
       <c r="P102" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T102" t="s">
+        <v>137</v>
+      </c>
+      <c r="U102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7804,8 +8775,17 @@
       <c r="P103" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T103" t="s">
+        <v>137</v>
+      </c>
+      <c r="U103" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7842,8 +8822,17 @@
       <c r="P104" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T104" t="s">
+        <v>137</v>
+      </c>
+      <c r="U104" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7880,8 +8869,17 @@
       <c r="P105" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S105" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T105" t="s">
+        <v>137</v>
+      </c>
+      <c r="U105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -7918,8 +8916,17 @@
       <c r="P106" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T106" t="s">
+        <v>137</v>
+      </c>
+      <c r="U106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -7956,8 +8963,17 @@
       <c r="P107" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T107" t="s">
+        <v>137</v>
+      </c>
+      <c r="U107" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -7994,8 +9010,17 @@
       <c r="P108" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T108" t="s">
+        <v>137</v>
+      </c>
+      <c r="U108" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -8032,8 +9057,17 @@
       <c r="P109" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T109" t="s">
+        <v>137</v>
+      </c>
+      <c r="U109" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -8070,8 +9104,17 @@
       <c r="P110" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S110" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T110" t="s">
+        <v>137</v>
+      </c>
+      <c r="U110" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
@@ -8108,8 +9151,17 @@
       <c r="P111" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T111" t="s">
+        <v>137</v>
+      </c>
+      <c r="U111" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -8146,8 +9198,17 @@
       <c r="P112" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T112" t="s">
+        <v>137</v>
+      </c>
+      <c r="U112" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8184,8 +9245,17 @@
       <c r="P113" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S113" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T113" t="s">
+        <v>137</v>
+      </c>
+      <c r="U113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -8222,8 +9292,17 @@
       <c r="P114" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T114" t="s">
+        <v>137</v>
+      </c>
+      <c r="U114" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8260,8 +9339,17 @@
       <c r="P115" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T115" t="s">
+        <v>137</v>
+      </c>
+      <c r="U115" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8298,8 +9386,17 @@
       <c r="P116" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T116" t="s">
+        <v>137</v>
+      </c>
+      <c r="U116" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8336,8 +9433,17 @@
       <c r="P117" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S117" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T117" t="s">
+        <v>137</v>
+      </c>
+      <c r="U117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8374,8 +9480,17 @@
       <c r="P118" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T118" t="s">
+        <v>137</v>
+      </c>
+      <c r="U118" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8412,8 +9527,17 @@
       <c r="P119" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T119" t="s">
+        <v>137</v>
+      </c>
+      <c r="U119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8450,8 +9574,17 @@
       <c r="P120" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T120" t="s">
+        <v>137</v>
+      </c>
+      <c r="U120" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8488,8 +9621,17 @@
       <c r="P121" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T121" t="s">
+        <v>137</v>
+      </c>
+      <c r="U121" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8526,8 +9668,17 @@
       <c r="P122" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T122" t="s">
+        <v>137</v>
+      </c>
+      <c r="U122" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8564,8 +9715,17 @@
       <c r="P123" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T123" t="s">
+        <v>137</v>
+      </c>
+      <c r="U123" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8602,8 +9762,17 @@
       <c r="P124" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S124" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T124" t="s">
+        <v>137</v>
+      </c>
+      <c r="U124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8640,8 +9809,17 @@
       <c r="P125" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T125" t="s">
+        <v>137</v>
+      </c>
+      <c r="U125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8678,8 +9856,17 @@
       <c r="P126" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T126" t="s">
+        <v>137</v>
+      </c>
+      <c r="U126" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8716,8 +9903,17 @@
       <c r="P127" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S127" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T127" t="s">
+        <v>137</v>
+      </c>
+      <c r="U127" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8754,8 +9950,17 @@
       <c r="P128" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T128" t="s">
+        <v>137</v>
+      </c>
+      <c r="U128" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8792,8 +9997,17 @@
       <c r="P129" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T129" t="s">
+        <v>137</v>
+      </c>
+      <c r="U129" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8830,8 +10044,17 @@
       <c r="P130" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T130" t="s">
+        <v>137</v>
+      </c>
+      <c r="U130" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8868,8 +10091,17 @@
       <c r="P131" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T131" t="s">
+        <v>137</v>
+      </c>
+      <c r="U131" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8906,8 +10138,17 @@
       <c r="P132" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S132" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T132" t="s">
+        <v>137</v>
+      </c>
+      <c r="U132" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8944,8 +10185,17 @@
       <c r="P133" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T133" t="s">
+        <v>137</v>
+      </c>
+      <c r="U133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8982,8 +10232,17 @@
       <c r="P134" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T134" t="s">
+        <v>137</v>
+      </c>
+      <c r="U134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>133</v>
       </c>
@@ -9020,8 +10279,17 @@
       <c r="P135" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S135" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T135" t="s">
+        <v>137</v>
+      </c>
+      <c r="U135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>134</v>
       </c>
@@ -9058,8 +10326,17 @@
       <c r="P136" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S136" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T136" t="s">
+        <v>137</v>
+      </c>
+      <c r="U136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
@@ -9096,8 +10373,17 @@
       <c r="P137" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S137">
+        <v>201801</v>
+      </c>
+      <c r="T137" t="s">
+        <v>138</v>
+      </c>
+      <c r="U137" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>136</v>
       </c>
@@ -9134,8 +10420,17 @@
       <c r="P138" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S138">
+        <v>201802</v>
+      </c>
+      <c r="T138" t="s">
+        <v>138</v>
+      </c>
+      <c r="U138" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>137</v>
       </c>
@@ -9172,8 +10467,17 @@
       <c r="P139" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S139">
+        <v>201803</v>
+      </c>
+      <c r="T139" t="s">
+        <v>138</v>
+      </c>
+      <c r="U139" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>138</v>
       </c>
@@ -9210,8 +10514,17 @@
       <c r="P140" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S140">
+        <v>201804</v>
+      </c>
+      <c r="T140" t="s">
+        <v>138</v>
+      </c>
+      <c r="U140" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
@@ -9248,8 +10561,17 @@
       <c r="P141" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S141">
+        <v>201805</v>
+      </c>
+      <c r="T141" t="s">
+        <v>138</v>
+      </c>
+      <c r="U141" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>140</v>
       </c>
@@ -9286,8 +10608,17 @@
       <c r="P142" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S142">
+        <v>201806</v>
+      </c>
+      <c r="T142" t="s">
+        <v>138</v>
+      </c>
+      <c r="U142" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>141</v>
       </c>
@@ -9324,8 +10655,17 @@
       <c r="P143" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S143">
+        <v>201807</v>
+      </c>
+      <c r="T143" t="s">
+        <v>138</v>
+      </c>
+      <c r="U143" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>142</v>
       </c>
@@ -9362,8 +10702,17 @@
       <c r="P144" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S144">
+        <v>201808</v>
+      </c>
+      <c r="T144" t="s">
+        <v>138</v>
+      </c>
+      <c r="U144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9400,8 +10749,17 @@
       <c r="P145" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S145">
+        <v>201809</v>
+      </c>
+      <c r="T145" t="s">
+        <v>138</v>
+      </c>
+      <c r="U145" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9438,8 +10796,17 @@
       <c r="P146" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S146">
+        <v>201810</v>
+      </c>
+      <c r="T146" t="s">
+        <v>138</v>
+      </c>
+      <c r="U146" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9476,8 +10843,17 @@
       <c r="P147" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S147">
+        <v>201811</v>
+      </c>
+      <c r="T147" t="s">
+        <v>138</v>
+      </c>
+      <c r="U147" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9514,8 +10890,17 @@
       <c r="P148" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S148">
+        <v>201812</v>
+      </c>
+      <c r="T148" t="s">
+        <v>138</v>
+      </c>
+      <c r="U148" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9552,8 +10937,17 @@
       <c r="P149" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S149">
+        <v>201901</v>
+      </c>
+      <c r="T149" t="s">
+        <v>138</v>
+      </c>
+      <c r="U149" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9590,8 +10984,17 @@
       <c r="P150" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S150">
+        <v>201902</v>
+      </c>
+      <c r="T150" t="s">
+        <v>138</v>
+      </c>
+      <c r="U150" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9628,8 +11031,17 @@
       <c r="P151" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S151">
+        <v>201903</v>
+      </c>
+      <c r="T151" t="s">
+        <v>138</v>
+      </c>
+      <c r="U151" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9666,8 +11078,17 @@
       <c r="P152" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S152">
+        <v>201904</v>
+      </c>
+      <c r="T152" t="s">
+        <v>138</v>
+      </c>
+      <c r="U152" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9704,8 +11125,17 @@
       <c r="P153" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S153">
+        <v>201905</v>
+      </c>
+      <c r="T153" t="s">
+        <v>138</v>
+      </c>
+      <c r="U153" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9742,8 +11172,17 @@
       <c r="P154" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S154">
+        <v>201906</v>
+      </c>
+      <c r="T154" t="s">
+        <v>138</v>
+      </c>
+      <c r="U154" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9780,8 +11219,17 @@
       <c r="P155" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S155">
+        <v>201907</v>
+      </c>
+      <c r="T155" t="s">
+        <v>138</v>
+      </c>
+      <c r="U155" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
@@ -9818,8 +11266,17 @@
       <c r="P156" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S156">
+        <v>201908</v>
+      </c>
+      <c r="T156" t="s">
+        <v>138</v>
+      </c>
+      <c r="U156" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
@@ -9856,8 +11313,17 @@
       <c r="P157" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S157">
+        <v>201909</v>
+      </c>
+      <c r="T157" t="s">
+        <v>138</v>
+      </c>
+      <c r="U157" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
@@ -9894,8 +11360,17 @@
       <c r="P158" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S158">
+        <v>201910</v>
+      </c>
+      <c r="T158" t="s">
+        <v>138</v>
+      </c>
+      <c r="U158" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9932,8 +11407,17 @@
       <c r="P159" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S159">
+        <v>201911</v>
+      </c>
+      <c r="T159" t="s">
+        <v>138</v>
+      </c>
+      <c r="U159" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
@@ -9970,8 +11454,17 @@
       <c r="P160" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S160">
+        <v>201912</v>
+      </c>
+      <c r="T160" t="s">
+        <v>138</v>
+      </c>
+      <c r="U160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>159</v>
       </c>
@@ -10008,8 +11501,17 @@
       <c r="P161" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S161">
+        <v>202001</v>
+      </c>
+      <c r="T161" t="s">
+        <v>138</v>
+      </c>
+      <c r="U161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>160</v>
       </c>
@@ -10046,8 +11548,17 @@
       <c r="P162" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S162">
+        <v>202002</v>
+      </c>
+      <c r="T162" t="s">
+        <v>138</v>
+      </c>
+      <c r="U162" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>161</v>
       </c>
@@ -10084,8 +11595,17 @@
       <c r="P163" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S163">
+        <v>202003</v>
+      </c>
+      <c r="T163" t="s">
+        <v>138</v>
+      </c>
+      <c r="U163" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>162</v>
       </c>
@@ -10122,8 +11642,17 @@
       <c r="P164" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S164">
+        <v>202004</v>
+      </c>
+      <c r="T164" t="s">
+        <v>138</v>
+      </c>
+      <c r="U164" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>163</v>
       </c>
@@ -10160,8 +11689,17 @@
       <c r="P165" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S165">
+        <v>202005</v>
+      </c>
+      <c r="T165" t="s">
+        <v>138</v>
+      </c>
+      <c r="U165" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>164</v>
       </c>
@@ -10198,8 +11736,17 @@
       <c r="P166" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S166">
+        <v>202006</v>
+      </c>
+      <c r="T166" t="s">
+        <v>138</v>
+      </c>
+      <c r="U166" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
@@ -10236,8 +11783,17 @@
       <c r="P167" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S167">
+        <v>202007</v>
+      </c>
+      <c r="T167" t="s">
+        <v>138</v>
+      </c>
+      <c r="U167" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>166</v>
       </c>
@@ -10274,8 +11830,17 @@
       <c r="P168" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S168">
+        <v>202008</v>
+      </c>
+      <c r="T168" t="s">
+        <v>138</v>
+      </c>
+      <c r="U168" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>167</v>
       </c>
@@ -10312,8 +11877,17 @@
       <c r="P169" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S169">
+        <v>202009</v>
+      </c>
+      <c r="T169" t="s">
+        <v>138</v>
+      </c>
+      <c r="U169" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>168</v>
       </c>
@@ -10350,8 +11924,17 @@
       <c r="P170" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S170">
+        <v>202010</v>
+      </c>
+      <c r="T170" t="s">
+        <v>138</v>
+      </c>
+      <c r="U170" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>169</v>
       </c>
@@ -10388,8 +11971,17 @@
       <c r="P171" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S171">
+        <v>202011</v>
+      </c>
+      <c r="T171" t="s">
+        <v>138</v>
+      </c>
+      <c r="U171" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>170</v>
       </c>
@@ -10426,8 +12018,17 @@
       <c r="P172" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S172">
+        <v>202012</v>
+      </c>
+      <c r="T172" t="s">
+        <v>138</v>
+      </c>
+      <c r="U172" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10464,8 +12065,17 @@
       <c r="P173" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S173">
+        <v>202101</v>
+      </c>
+      <c r="T173" t="s">
+        <v>138</v>
+      </c>
+      <c r="U173" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10502,8 +12112,17 @@
       <c r="P174" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S174">
+        <v>202102</v>
+      </c>
+      <c r="T174" t="s">
+        <v>138</v>
+      </c>
+      <c r="U174" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10540,8 +12159,17 @@
       <c r="P175" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S175">
+        <v>202103</v>
+      </c>
+      <c r="T175" t="s">
+        <v>138</v>
+      </c>
+      <c r="U175" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>174</v>
       </c>
@@ -10578,8 +12206,17 @@
       <c r="P176" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S176">
+        <v>202104</v>
+      </c>
+      <c r="T176" t="s">
+        <v>138</v>
+      </c>
+      <c r="U176" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
@@ -10616,8 +12253,17 @@
       <c r="P177" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S177">
+        <v>202105</v>
+      </c>
+      <c r="T177" t="s">
+        <v>138</v>
+      </c>
+      <c r="U177" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>176</v>
       </c>
@@ -10654,8 +12300,17 @@
       <c r="P178" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S178">
+        <v>202106</v>
+      </c>
+      <c r="T178" t="s">
+        <v>138</v>
+      </c>
+      <c r="U178" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>177</v>
       </c>
@@ -10692,8 +12347,17 @@
       <c r="P179" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S179">
+        <v>202107</v>
+      </c>
+      <c r="T179" t="s">
+        <v>138</v>
+      </c>
+      <c r="U179" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>178</v>
       </c>
@@ -10730,8 +12394,17 @@
       <c r="P180" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S180">
+        <v>202108</v>
+      </c>
+      <c r="T180" t="s">
+        <v>138</v>
+      </c>
+      <c r="U180" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>179</v>
       </c>
@@ -10768,8 +12441,17 @@
       <c r="P181" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S181">
+        <v>202109</v>
+      </c>
+      <c r="T181" t="s">
+        <v>138</v>
+      </c>
+      <c r="U181" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
@@ -10806,8 +12488,17 @@
       <c r="P182" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S182">
+        <v>202110</v>
+      </c>
+      <c r="T182" t="s">
+        <v>138</v>
+      </c>
+      <c r="U182" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>181</v>
       </c>
@@ -10844,8 +12535,17 @@
       <c r="P183" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S183">
+        <v>202111</v>
+      </c>
+      <c r="T183" t="s">
+        <v>138</v>
+      </c>
+      <c r="U183" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>182</v>
       </c>
@@ -10882,8 +12582,17 @@
       <c r="P184" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S184">
+        <v>202112</v>
+      </c>
+      <c r="T184" t="s">
+        <v>138</v>
+      </c>
+      <c r="U184" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>183</v>
       </c>
@@ -10920,8 +12629,17 @@
       <c r="P185" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S185">
+        <v>202201</v>
+      </c>
+      <c r="T185" t="s">
+        <v>138</v>
+      </c>
+      <c r="U185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>184</v>
       </c>
@@ -10958,8 +12676,17 @@
       <c r="P186" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S186">
+        <v>202202</v>
+      </c>
+      <c r="T186" t="s">
+        <v>138</v>
+      </c>
+      <c r="U186" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>185</v>
       </c>
@@ -10996,8 +12723,17 @@
       <c r="P187" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S187">
+        <v>202203</v>
+      </c>
+      <c r="T187" t="s">
+        <v>138</v>
+      </c>
+      <c r="U187" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>186</v>
       </c>
@@ -11034,8 +12770,17 @@
       <c r="P188" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S188">
+        <v>202204</v>
+      </c>
+      <c r="T188" t="s">
+        <v>138</v>
+      </c>
+      <c r="U188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>187</v>
       </c>
@@ -11072,8 +12817,17 @@
       <c r="P189" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S189">
+        <v>202205</v>
+      </c>
+      <c r="T189" t="s">
+        <v>138</v>
+      </c>
+      <c r="U189" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>188</v>
       </c>
@@ -11110,8 +12864,17 @@
       <c r="P190" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S190">
+        <v>202206</v>
+      </c>
+      <c r="T190" t="s">
+        <v>138</v>
+      </c>
+      <c r="U190" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>189</v>
       </c>
@@ -11148,8 +12911,17 @@
       <c r="P191" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S191">
+        <v>202207</v>
+      </c>
+      <c r="T191" t="s">
+        <v>138</v>
+      </c>
+      <c r="U191" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>190</v>
       </c>
@@ -11186,8 +12958,17 @@
       <c r="P192" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S192">
+        <v>202208</v>
+      </c>
+      <c r="T192" t="s">
+        <v>138</v>
+      </c>
+      <c r="U192" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>191</v>
       </c>
@@ -11224,8 +13005,17 @@
       <c r="P193" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S193">
+        <v>202209</v>
+      </c>
+      <c r="T193" t="s">
+        <v>138</v>
+      </c>
+      <c r="U193" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>192</v>
       </c>
@@ -11262,8 +13052,17 @@
       <c r="P194" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S194">
+        <v>202210</v>
+      </c>
+      <c r="T194" t="s">
+        <v>138</v>
+      </c>
+      <c r="U194" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>193</v>
       </c>
@@ -11300,8 +13099,17 @@
       <c r="P195" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S195">
+        <v>202211</v>
+      </c>
+      <c r="T195" t="s">
+        <v>138</v>
+      </c>
+      <c r="U195" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>194</v>
       </c>
@@ -11338,8 +13146,17 @@
       <c r="P196" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S196">
+        <v>202212</v>
+      </c>
+      <c r="T196" t="s">
+        <v>138</v>
+      </c>
+      <c r="U196" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>195</v>
       </c>
@@ -11376,8 +13193,17 @@
       <c r="P197" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S197">
+        <v>202301</v>
+      </c>
+      <c r="T197" t="s">
+        <v>138</v>
+      </c>
+      <c r="U197" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>196</v>
       </c>
@@ -11414,8 +13240,17 @@
       <c r="P198" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S198">
+        <v>202302</v>
+      </c>
+      <c r="T198" t="s">
+        <v>138</v>
+      </c>
+      <c r="U198" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>197</v>
       </c>
@@ -11452,8 +13287,17 @@
       <c r="P199" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S199">
+        <v>202303</v>
+      </c>
+      <c r="T199" t="s">
+        <v>138</v>
+      </c>
+      <c r="U199" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>198</v>
       </c>
@@ -11490,8 +13334,17 @@
       <c r="P200" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S200">
+        <v>202304</v>
+      </c>
+      <c r="T200" t="s">
+        <v>138</v>
+      </c>
+      <c r="U200" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>199</v>
       </c>
@@ -11528,8 +13381,17 @@
       <c r="P201" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S201">
+        <v>202305</v>
+      </c>
+      <c r="T201" t="s">
+        <v>138</v>
+      </c>
+      <c r="U201" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="N202" t="s">
         <v>259</v>
       </c>
@@ -11539,8 +13401,17 @@
       <c r="P202" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S202" t="s">
+        <v>259</v>
+      </c>
+      <c r="T202" t="s">
+        <v>137</v>
+      </c>
+      <c r="U202" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="N203" t="s">
         <v>260</v>
       </c>
@@ -11550,8 +13421,17 @@
       <c r="P203" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S203" t="s">
+        <v>260</v>
+      </c>
+      <c r="T203" t="s">
+        <v>137</v>
+      </c>
+      <c r="U203" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="N204" t="s">
         <v>261</v>
       </c>
@@ -11561,8 +13441,17 @@
       <c r="P204" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S204" t="s">
+        <v>261</v>
+      </c>
+      <c r="T204" t="s">
+        <v>137</v>
+      </c>
+      <c r="U204" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="N205" t="s">
         <v>262</v>
       </c>
@@ -11572,8 +13461,17 @@
       <c r="P205" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S205" t="s">
+        <v>262</v>
+      </c>
+      <c r="T205" t="s">
+        <v>137</v>
+      </c>
+      <c r="U205" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="N206" t="s">
         <v>263</v>
       </c>
@@ -11583,8 +13481,17 @@
       <c r="P206" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S206" t="s">
+        <v>263</v>
+      </c>
+      <c r="T206" t="s">
+        <v>137</v>
+      </c>
+      <c r="U206" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="N207" t="s">
         <v>264</v>
       </c>
@@ -11594,8 +13501,17 @@
       <c r="P207" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S207" t="s">
+        <v>264</v>
+      </c>
+      <c r="T207" t="s">
+        <v>137</v>
+      </c>
+      <c r="U207" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="N208" t="s">
         <v>265</v>
       </c>
@@ -11605,8 +13521,17 @@
       <c r="P208" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="209" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="S208" t="s">
+        <v>265</v>
+      </c>
+      <c r="T208" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="U208" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="209" spans="14:21" x14ac:dyDescent="0.35">
       <c r="N209">
         <v>202306</v>
       </c>
@@ -11616,8 +13541,17 @@
       <c r="P209" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="210" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="S209">
+        <v>202306</v>
+      </c>
+      <c r="T209" t="s">
+        <v>138</v>
+      </c>
+      <c r="U209" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="210" spans="14:21" x14ac:dyDescent="0.35">
       <c r="N210">
         <v>202307</v>
       </c>
@@ -11627,8 +13561,17 @@
       <c r="P210" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="211" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="S210">
+        <v>202307</v>
+      </c>
+      <c r="T210" t="s">
+        <v>138</v>
+      </c>
+      <c r="U210" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="211" spans="14:21" x14ac:dyDescent="0.35">
       <c r="N211">
         <v>202308</v>
       </c>
@@ -11638,8 +13581,17 @@
       <c r="P211" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="212" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="S211">
+        <v>202308</v>
+      </c>
+      <c r="T211" t="s">
+        <v>138</v>
+      </c>
+      <c r="U211" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="14:21" x14ac:dyDescent="0.35">
       <c r="N212">
         <v>202309</v>
       </c>
@@ -11649,8 +13601,17 @@
       <c r="P212" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="213" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="S212">
+        <v>202309</v>
+      </c>
+      <c r="T212" t="s">
+        <v>138</v>
+      </c>
+      <c r="U212" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="213" spans="14:21" x14ac:dyDescent="0.35">
       <c r="N213">
         <v>202310</v>
       </c>
@@ -11660,8 +13621,17 @@
       <c r="P213" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="214" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="S213">
+        <v>202310</v>
+      </c>
+      <c r="T213" t="s">
+        <v>138</v>
+      </c>
+      <c r="U213" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214" spans="14:21" x14ac:dyDescent="0.35">
       <c r="N214">
         <v>202311</v>
       </c>
@@ -11671,8 +13641,17 @@
       <c r="P214" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="215" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="S214">
+        <v>202311</v>
+      </c>
+      <c r="T214" t="s">
+        <v>138</v>
+      </c>
+      <c r="U214" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="14:21" x14ac:dyDescent="0.35">
       <c r="N215">
         <v>202312</v>
       </c>
@@ -11682,8 +13661,17 @@
       <c r="P215" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="216" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="S215">
+        <v>202312</v>
+      </c>
+      <c r="T215" t="s">
+        <v>138</v>
+      </c>
+      <c r="U215" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="216" spans="14:21" x14ac:dyDescent="0.35">
       <c r="N216">
         <v>202401</v>
       </c>
@@ -11693,10 +13681,152 @@
       <c r="P216" t="s">
         <v>268</v>
       </c>
+      <c r="S216">
+        <v>202401</v>
+      </c>
+      <c r="T216" t="s">
+        <v>138</v>
+      </c>
+      <c r="U216" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="217" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="S217" t="s">
+        <v>271</v>
+      </c>
+      <c r="T217" t="s">
+        <v>137</v>
+      </c>
+      <c r="U217" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="218" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="S218" t="s">
+        <v>272</v>
+      </c>
+      <c r="T218" t="s">
+        <v>137</v>
+      </c>
+      <c r="U218" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="219" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="S219" t="s">
+        <v>273</v>
+      </c>
+      <c r="T219" t="s">
+        <v>137</v>
+      </c>
+      <c r="U219" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="220" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="S220" t="s">
+        <v>274</v>
+      </c>
+      <c r="T220" t="s">
+        <v>137</v>
+      </c>
+      <c r="U220" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="221" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="S221" t="s">
+        <v>275</v>
+      </c>
+      <c r="T221" t="s">
+        <v>137</v>
+      </c>
+      <c r="U221" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="222" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="S222" t="s">
+        <v>276</v>
+      </c>
+      <c r="T222" t="s">
+        <v>137</v>
+      </c>
+      <c r="U222" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="223" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="S223" t="s">
+        <v>277</v>
+      </c>
+      <c r="T223" t="s">
+        <v>137</v>
+      </c>
+      <c r="U223" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="224" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="S224" t="s">
+        <v>278</v>
+      </c>
+      <c r="T224" t="s">
+        <v>137</v>
+      </c>
+      <c r="U224" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="225" spans="19:21" x14ac:dyDescent="0.35">
+      <c r="S225" t="s">
+        <v>279</v>
+      </c>
+      <c r="T225" t="s">
+        <v>137</v>
+      </c>
+      <c r="U225" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="226" spans="19:21" x14ac:dyDescent="0.35">
+      <c r="S226" t="s">
+        <v>280</v>
+      </c>
+      <c r="T226" t="s">
+        <v>137</v>
+      </c>
+      <c r="U226" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="227" spans="19:21" x14ac:dyDescent="0.35">
+      <c r="S227" t="s">
+        <v>281</v>
+      </c>
+      <c r="T227" t="s">
+        <v>137</v>
+      </c>
+      <c r="U227" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="228" spans="19:21" x14ac:dyDescent="0.35">
+      <c r="S228" t="s">
+        <v>282</v>
+      </c>
+      <c r="T228" t="s">
+        <v>137</v>
+      </c>
+      <c r="U228" t="s">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="N2:Q216" xr:uid="{543CEAC4-6449-F641-9A02-A9152446F928}"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
@@ -11807,9 +13937,9 @@
       <c r="C6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B6,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -11822,9 +13952,9 @@
       <c r="C7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B7,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -11867,9 +13997,9 @@
       <c r="C10" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B10,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -11882,9 +14012,9 @@
       <c r="C11" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="6" t="str">
+      <c r="D11" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B11,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -11897,9 +14027,9 @@
       <c r="C12" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="6" t="str">
+      <c r="D12" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B12,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -11912,9 +14042,9 @@
       <c r="C13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B13,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -11927,9 +14057,9 @@
       <c r="C14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B14,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -11942,9 +14072,9 @@
       <c r="C15" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="6" t="str">
+      <c r="D15" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B15,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -11957,9 +14087,9 @@
       <c r="C16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="6" t="str">
+      <c r="D16" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B16,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -11972,9 +14102,9 @@
       <c r="C17" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="D17" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B17,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -12122,9 +14252,9 @@
       <c r="C27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="6" t="str">
+      <c r="D27" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B27,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -12137,9 +14267,9 @@
       <c r="C28" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D28" s="6" t="str">
+      <c r="D28" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B28,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -12152,9 +14282,9 @@
       <c r="C29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="6" t="str">
+      <c r="D29" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B29,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -12167,9 +14297,9 @@
       <c r="C30" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D30" s="6" t="str">
+      <c r="D30" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B30,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -12182,9 +14312,9 @@
       <c r="C31" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="6" t="str">
+      <c r="D31" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B31,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -12197,9 +14327,9 @@
       <c r="C32" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D32" s="6" t="str">
+      <c r="D32" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B32,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -12212,9 +14342,9 @@
       <c r="C33" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="6" t="str">
+      <c r="D33" s="6" t="b">
         <f>IFERROR(IF(VLOOKUP(B33,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>BASE MCDOS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="31" x14ac:dyDescent="0.35">

--- a/DiccionarioColumnas.xlsx
+++ b/DiccionarioColumnas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\PDG 240413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070636E-9B27-4565-9EBE-508A9409FA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5F9AF6-7EF9-4152-AE59-72C38682FFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{DADCB3BF-7736-324A-A78F-35B91C6243E7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="284">
   <si>
     <t>COD_LLAVE_ADJ</t>
   </si>
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:D227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1651,28 +1651,22 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>137</v>
+      <c r="B24" t="s">
+        <v>138</v>
       </c>
       <c r="C24" t="s">
         <v>267</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>137</v>
+      <c r="B25" t="s">
+        <v>138</v>
       </c>
       <c r="C25" t="s">
         <v>267</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -14087,9 +14081,9 @@
       <c r="C16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="6" t="b">
+      <c r="D16" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B16,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>0</v>
+        <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -14102,9 +14096,9 @@
       <c r="C17" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="6" t="b">
+      <c r="D17" s="6" t="str">
         <f>IFERROR(IF(VLOOKUP(B17,Diccionario!A:B,2,FALSE)="NO","BASE MCDOS"),"CAMPO GENERADO")</f>
-        <v>0</v>
+        <v>BASE MCDOS</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
